--- a/African-Australian Employment Seeking Project/Dataset/RTIS_Migrant Study_11May.xlsx
+++ b/African-Australian Employment Seeking Project/Dataset/RTIS_Migrant Study_11May.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahim_saidi/Desktop/GitHub Repositories/RPubs/African-Australian Employment Seeking Project/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBEAD6B-CDCE-2A48-B9E5-084629258390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB11B42-9EB8-9649-A73C-80845C8B29EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3197,12 +3197,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3210,6 +3204,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3530,10 +3530,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FY110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="BL1" sqref="BL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -55450,8 +55450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2CBBBD-1B9C-414F-AF18-E64B83DEC2C0}">
   <dimension ref="A1:D918"/>
   <sheetViews>
-    <sheetView topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="C655" sqref="C655"/>
+    <sheetView topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="C394" sqref="C394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -55460,25 +55460,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>750</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>751</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="13" t="s">
         <v>439</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>440</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -55490,7 +55490,7 @@
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>196</v>
       </c>
@@ -55500,7 +55500,7 @@
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>325</v>
       </c>
@@ -55510,7 +55510,7 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
         <v>300</v>
       </c>
@@ -55520,7 +55520,7 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="20"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="10" t="s">
         <v>301</v>
       </c>
@@ -55530,7 +55530,7 @@
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="20"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
         <v>299</v>
       </c>
@@ -55540,7 +55540,7 @@
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="20"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="10" t="s">
         <v>290</v>
       </c>
@@ -55550,7 +55550,7 @@
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="20"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="10" t="s">
         <v>295</v>
       </c>
@@ -55560,7 +55560,7 @@
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="20"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>182</v>
       </c>
@@ -55570,7 +55570,7 @@
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>441</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -55582,7 +55582,7 @@
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="20"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="10" t="s">
         <v>196</v>
       </c>
@@ -55592,7 +55592,7 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="23" t="s">
         <v>442</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -55604,7 +55604,7 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="20"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="10" t="s">
         <v>196</v>
       </c>
@@ -55614,7 +55614,7 @@
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="20"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="10" t="s">
         <v>325</v>
       </c>
@@ -55624,7 +55624,7 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="20"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="10" t="s">
         <v>300</v>
       </c>
@@ -55634,7 +55634,7 @@
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="20"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="10" t="s">
         <v>301</v>
       </c>
@@ -55644,7 +55644,7 @@
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="20"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="10" t="s">
         <v>299</v>
       </c>
@@ -55654,7 +55654,7 @@
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="23" t="s">
         <v>443</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -55666,7 +55666,7 @@
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="20"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="10" t="s">
         <v>196</v>
       </c>
@@ -55676,7 +55676,7 @@
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>444</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -55688,7 +55688,7 @@
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="20"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10" t="s">
         <v>196</v>
       </c>
@@ -55698,7 +55698,7 @@
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="20"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="10" t="s">
         <v>325</v>
       </c>
@@ -55708,7 +55708,7 @@
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="20"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
         <v>300</v>
       </c>
@@ -55718,7 +55718,7 @@
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="20"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="10" t="s">
         <v>301</v>
       </c>
@@ -55728,7 +55728,7 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="20"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="10" t="s">
         <v>299</v>
       </c>
@@ -55738,7 +55738,7 @@
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="23" t="s">
         <v>447</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -55750,7 +55750,7 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="20"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="10" t="s">
         <v>196</v>
       </c>
@@ -55760,7 +55760,7 @@
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="20"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="10" t="s">
         <v>325</v>
       </c>
@@ -55770,7 +55770,7 @@
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="20"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="10" t="s">
         <v>300</v>
       </c>
@@ -55780,7 +55780,7 @@
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="20"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="10" t="s">
         <v>301</v>
       </c>
@@ -55790,7 +55790,7 @@
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="20"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="10" t="s">
         <v>299</v>
       </c>
@@ -55800,7 +55800,7 @@
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="20"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="10" t="s">
         <v>290</v>
       </c>
@@ -55810,7 +55810,7 @@
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="23" t="s">
         <v>448</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -55822,7 +55822,7 @@
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="20"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="10" t="s">
         <v>181</v>
       </c>
@@ -55832,7 +55832,7 @@
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="20"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="10" t="s">
         <v>196</v>
       </c>
@@ -55842,7 +55842,7 @@
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="20"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="10" t="s">
         <v>325</v>
       </c>
@@ -55852,7 +55852,7 @@
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="20"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="10" t="s">
         <v>300</v>
       </c>
@@ -55862,7 +55862,7 @@
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="20"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="10" t="s">
         <v>301</v>
       </c>
@@ -55872,7 +55872,7 @@
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="20"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="10" t="s">
         <v>299</v>
       </c>
@@ -55882,7 +55882,7 @@
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="20"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="10" t="s">
         <v>290</v>
       </c>
@@ -55964,7 +55964,7 @@
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="23" t="s">
         <v>455</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -55976,7 +55976,7 @@
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="20"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="10" t="s">
         <v>196</v>
       </c>
@@ -55986,7 +55986,7 @@
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="20"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="10" t="s">
         <v>325</v>
       </c>
@@ -55996,7 +55996,7 @@
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="20"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="10" t="s">
         <v>300</v>
       </c>
@@ -56006,7 +56006,7 @@
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="20"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="10" t="s">
         <v>301</v>
       </c>
@@ -56016,7 +56016,7 @@
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="20"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="10" t="s">
         <v>299</v>
       </c>
@@ -56026,7 +56026,7 @@
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="20"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="10" t="s">
         <v>290</v>
       </c>
@@ -56036,7 +56036,7 @@
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="20"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="10" t="s">
         <v>295</v>
       </c>
@@ -56046,7 +56046,7 @@
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="20"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="10" t="s">
         <v>182</v>
       </c>
@@ -56056,7 +56056,7 @@
       <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="23" t="s">
         <v>457</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -56068,7 +56068,7 @@
       <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="20"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="10" t="s">
         <v>196</v>
       </c>
@@ -56078,7 +56078,7 @@
       <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="20"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="10" t="s">
         <v>325</v>
       </c>
@@ -56088,7 +56088,7 @@
       <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="20"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="10" t="s">
         <v>300</v>
       </c>
@@ -56098,7 +56098,7 @@
       <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="23" t="s">
         <v>458</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -56110,7 +56110,7 @@
       <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="20"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="10" t="s">
         <v>196</v>
       </c>
@@ -56120,7 +56120,7 @@
       <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="20"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="10" t="s">
         <v>325</v>
       </c>
@@ -56130,7 +56130,7 @@
       <c r="D64" s="12"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="20"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="10" t="s">
         <v>300</v>
       </c>
@@ -56140,7 +56140,7 @@
       <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="20"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="10" t="s">
         <v>301</v>
       </c>
@@ -56150,7 +56150,7 @@
       <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="20"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="10" t="s">
         <v>299</v>
       </c>
@@ -56160,7 +56160,7 @@
       <c r="D67" s="12"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="20"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="10" t="s">
         <v>290</v>
       </c>
@@ -56170,7 +56170,7 @@
       <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="20"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="10" t="s">
         <v>295</v>
       </c>
@@ -56180,7 +56180,7 @@
       <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="20"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="10" t="s">
         <v>182</v>
       </c>
@@ -56190,7 +56190,7 @@
       <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="20"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="10" t="s">
         <v>296</v>
       </c>
@@ -56200,7 +56200,7 @@
       <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="23" t="s">
         <v>459</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -56212,7 +56212,7 @@
       <c r="D72" s="12"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="20"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="10" t="s">
         <v>196</v>
       </c>
@@ -56222,7 +56222,7 @@
       <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="23" t="s">
         <v>460</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -56234,7 +56234,7 @@
       <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="20"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="10" t="s">
         <v>196</v>
       </c>
@@ -56244,7 +56244,7 @@
       <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="23" t="s">
         <v>461</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -56256,7 +56256,7 @@
       <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="20"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="10" t="s">
         <v>753</v>
       </c>
@@ -56266,7 +56266,7 @@
       <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="20"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="10" t="s">
         <v>754</v>
       </c>
@@ -56276,7 +56276,7 @@
       <c r="D78" s="12"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="20"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="10" t="s">
         <v>755</v>
       </c>
@@ -56286,7 +56286,7 @@
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="20"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="10" t="s">
         <v>756</v>
       </c>
@@ -56296,7 +56296,7 @@
       <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="20"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="10" t="s">
         <v>757</v>
       </c>
@@ -56306,7 +56306,7 @@
       <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="20"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="10" t="s">
         <v>758</v>
       </c>
@@ -56316,7 +56316,7 @@
       <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="20"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="10" t="s">
         <v>759</v>
       </c>
@@ -56326,7 +56326,7 @@
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="20"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="10" t="s">
         <v>760</v>
       </c>
@@ -56336,7 +56336,7 @@
       <c r="D84" s="12"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="20"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="10" t="s">
         <v>761</v>
       </c>
@@ -56346,7 +56346,7 @@
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="20"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="10" t="s">
         <v>762</v>
       </c>
@@ -56356,7 +56356,7 @@
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="20"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="10" t="s">
         <v>763</v>
       </c>
@@ -56366,7 +56366,7 @@
       <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="20"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="10" t="s">
         <v>764</v>
       </c>
@@ -56376,7 +56376,7 @@
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="20"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="10" t="s">
         <v>765</v>
       </c>
@@ -56386,7 +56386,7 @@
       <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="20"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="10" t="s">
         <v>766</v>
       </c>
@@ -56396,7 +56396,7 @@
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="20"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="10" t="s">
         <v>767</v>
       </c>
@@ -56406,7 +56406,7 @@
       <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="20"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="10" t="s">
         <v>768</v>
       </c>
@@ -56416,7 +56416,7 @@
       <c r="D92" s="12"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="20"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="10" t="s">
         <v>769</v>
       </c>
@@ -56426,7 +56426,7 @@
       <c r="D93" s="12"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="20"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="10" t="s">
         <v>770</v>
       </c>
@@ -56436,7 +56436,7 @@
       <c r="D94" s="12"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="20"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="10" t="s">
         <v>771</v>
       </c>
@@ -56446,7 +56446,7 @@
       <c r="D95" s="12"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="20"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="10" t="s">
         <v>772</v>
       </c>
@@ -56456,7 +56456,7 @@
       <c r="D96" s="12"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="20"/>
+      <c r="A97" s="23"/>
       <c r="B97" s="10" t="s">
         <v>773</v>
       </c>
@@ -56466,7 +56466,7 @@
       <c r="D97" s="12"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="20"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="10" t="s">
         <v>774</v>
       </c>
@@ -56476,7 +56476,7 @@
       <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="20"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="10" t="s">
         <v>775</v>
       </c>
@@ -56486,7 +56486,7 @@
       <c r="D99" s="12"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="20"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="10" t="s">
         <v>776</v>
       </c>
@@ -56496,7 +56496,7 @@
       <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="20"/>
+      <c r="A101" s="23"/>
       <c r="B101" s="10" t="s">
         <v>777</v>
       </c>
@@ -56506,7 +56506,7 @@
       <c r="D101" s="12"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="20"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="10" t="s">
         <v>778</v>
       </c>
@@ -56516,7 +56516,7 @@
       <c r="D102" s="12"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="20"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="10" t="s">
         <v>779</v>
       </c>
@@ -56526,7 +56526,7 @@
       <c r="D103" s="12"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="20"/>
+      <c r="A104" s="23"/>
       <c r="B104" s="10" t="s">
         <v>780</v>
       </c>
@@ -56536,7 +56536,7 @@
       <c r="D104" s="12"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="20"/>
+      <c r="A105" s="23"/>
       <c r="B105" s="10" t="s">
         <v>781</v>
       </c>
@@ -56546,7 +56546,7 @@
       <c r="D105" s="12"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="20"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="10" t="s">
         <v>782</v>
       </c>
@@ -56556,7 +56556,7 @@
       <c r="D106" s="12"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="20"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="10" t="s">
         <v>783</v>
       </c>
@@ -56566,7 +56566,7 @@
       <c r="D107" s="12"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="20"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="10" t="s">
         <v>784</v>
       </c>
@@ -56576,7 +56576,7 @@
       <c r="D108" s="12"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="20"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="10" t="s">
         <v>785</v>
       </c>
@@ -56586,7 +56586,7 @@
       <c r="D109" s="12"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="20"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="10" t="s">
         <v>786</v>
       </c>
@@ -56596,7 +56596,7 @@
       <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="20"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="10" t="s">
         <v>787</v>
       </c>
@@ -56606,7 +56606,7 @@
       <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="20"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="10" t="s">
         <v>788</v>
       </c>
@@ -56616,7 +56616,7 @@
       <c r="D112" s="12"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="20"/>
+      <c r="A113" s="23"/>
       <c r="B113" s="10" t="s">
         <v>789</v>
       </c>
@@ -56626,7 +56626,7 @@
       <c r="D113" s="12"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="20"/>
+      <c r="A114" s="23"/>
       <c r="B114" s="10" t="s">
         <v>790</v>
       </c>
@@ -56636,7 +56636,7 @@
       <c r="D114" s="12"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="20"/>
+      <c r="A115" s="23"/>
       <c r="B115" s="10" t="s">
         <v>791</v>
       </c>
@@ -56646,7 +56646,7 @@
       <c r="D115" s="12"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="20"/>
+      <c r="A116" s="23"/>
       <c r="B116" s="10" t="s">
         <v>792</v>
       </c>
@@ -56656,7 +56656,7 @@
       <c r="D116" s="12"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="20"/>
+      <c r="A117" s="23"/>
       <c r="B117" s="10" t="s">
         <v>793</v>
       </c>
@@ -56666,7 +56666,7 @@
       <c r="D117" s="12"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="20"/>
+      <c r="A118" s="23"/>
       <c r="B118" s="10" t="s">
         <v>794</v>
       </c>
@@ -56676,7 +56676,7 @@
       <c r="D118" s="12"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="20"/>
+      <c r="A119" s="23"/>
       <c r="B119" s="10" t="s">
         <v>795</v>
       </c>
@@ -56686,7 +56686,7 @@
       <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="20"/>
+      <c r="A120" s="23"/>
       <c r="B120" s="10" t="s">
         <v>796</v>
       </c>
@@ -56696,7 +56696,7 @@
       <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="20"/>
+      <c r="A121" s="23"/>
       <c r="B121" s="10" t="s">
         <v>797</v>
       </c>
@@ -56706,7 +56706,7 @@
       <c r="D121" s="12"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="20"/>
+      <c r="A122" s="23"/>
       <c r="B122" s="10" t="s">
         <v>798</v>
       </c>
@@ -56716,7 +56716,7 @@
       <c r="D122" s="12"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="20"/>
+      <c r="A123" s="23"/>
       <c r="B123" s="10" t="s">
         <v>799</v>
       </c>
@@ -56726,7 +56726,7 @@
       <c r="D123" s="12"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="20"/>
+      <c r="A124" s="23"/>
       <c r="B124" s="10" t="s">
         <v>800</v>
       </c>
@@ -56736,7 +56736,7 @@
       <c r="D124" s="12"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="20"/>
+      <c r="A125" s="23"/>
       <c r="B125" s="10" t="s">
         <v>801</v>
       </c>
@@ -56746,7 +56746,7 @@
       <c r="D125" s="12"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="20"/>
+      <c r="A126" s="23"/>
       <c r="B126" s="10" t="s">
         <v>802</v>
       </c>
@@ -56756,7 +56756,7 @@
       <c r="D126" s="12"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="20"/>
+      <c r="A127" s="23"/>
       <c r="B127" s="10" t="s">
         <v>803</v>
       </c>
@@ -56766,7 +56766,7 @@
       <c r="D127" s="12"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="20"/>
+      <c r="A128" s="23"/>
       <c r="B128" s="10" t="s">
         <v>804</v>
       </c>
@@ -56776,7 +56776,7 @@
       <c r="D128" s="12"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="20"/>
+      <c r="A129" s="23"/>
       <c r="B129" s="10" t="s">
         <v>805</v>
       </c>
@@ -56786,7 +56786,7 @@
       <c r="D129" s="12"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="20"/>
+      <c r="A130" s="23"/>
       <c r="B130" s="10" t="s">
         <v>806</v>
       </c>
@@ -56796,7 +56796,7 @@
       <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="20"/>
+      <c r="A131" s="23"/>
       <c r="B131" s="10" t="s">
         <v>807</v>
       </c>
@@ -56806,7 +56806,7 @@
       <c r="D131" s="12"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="20"/>
+      <c r="A132" s="23"/>
       <c r="B132" s="10" t="s">
         <v>808</v>
       </c>
@@ -56816,7 +56816,7 @@
       <c r="D132" s="12"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="20"/>
+      <c r="A133" s="23"/>
       <c r="B133" s="10" t="s">
         <v>809</v>
       </c>
@@ -56826,7 +56826,7 @@
       <c r="D133" s="12"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="20"/>
+      <c r="A134" s="23"/>
       <c r="B134" s="10" t="s">
         <v>810</v>
       </c>
@@ -56836,7 +56836,7 @@
       <c r="D134" s="12"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="20"/>
+      <c r="A135" s="23"/>
       <c r="B135" s="10" t="s">
         <v>811</v>
       </c>
@@ -56846,7 +56846,7 @@
       <c r="D135" s="12"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="20"/>
+      <c r="A136" s="23"/>
       <c r="B136" s="10" t="s">
         <v>812</v>
       </c>
@@ -56856,7 +56856,7 @@
       <c r="D136" s="12"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="20"/>
+      <c r="A137" s="23"/>
       <c r="B137" s="10" t="s">
         <v>813</v>
       </c>
@@ -56866,7 +56866,7 @@
       <c r="D137" s="12"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="20"/>
+      <c r="A138" s="23"/>
       <c r="B138" s="10" t="s">
         <v>814</v>
       </c>
@@ -56876,7 +56876,7 @@
       <c r="D138" s="12"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="20"/>
+      <c r="A139" s="23"/>
       <c r="B139" s="10" t="s">
         <v>815</v>
       </c>
@@ -56886,7 +56886,7 @@
       <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="20"/>
+      <c r="A140" s="23"/>
       <c r="B140" s="10" t="s">
         <v>816</v>
       </c>
@@ -56896,7 +56896,7 @@
       <c r="D140" s="12"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="20"/>
+      <c r="A141" s="23"/>
       <c r="B141" s="10" t="s">
         <v>817</v>
       </c>
@@ -56906,7 +56906,7 @@
       <c r="D141" s="12"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="20"/>
+      <c r="A142" s="23"/>
       <c r="B142" s="10" t="s">
         <v>818</v>
       </c>
@@ -56916,7 +56916,7 @@
       <c r="D142" s="12"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="20"/>
+      <c r="A143" s="23"/>
       <c r="B143" s="10" t="s">
         <v>819</v>
       </c>
@@ -56926,7 +56926,7 @@
       <c r="D143" s="12"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="20"/>
+      <c r="A144" s="23"/>
       <c r="B144" s="10" t="s">
         <v>820</v>
       </c>
@@ -56936,7 +56936,7 @@
       <c r="D144" s="12"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="20"/>
+      <c r="A145" s="23"/>
       <c r="B145" s="10" t="s">
         <v>821</v>
       </c>
@@ -56946,7 +56946,7 @@
       <c r="D145" s="12"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="20" t="s">
+      <c r="A146" s="23" t="s">
         <v>462</v>
       </c>
       <c r="B146" s="10" t="s">
@@ -56958,7 +56958,7 @@
       <c r="D146" s="12"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="20"/>
+      <c r="A147" s="23"/>
       <c r="B147" s="10" t="s">
         <v>196</v>
       </c>
@@ -56968,7 +56968,7 @@
       <c r="D147" s="12"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="20"/>
+      <c r="A148" s="23"/>
       <c r="B148" s="10" t="s">
         <v>325</v>
       </c>
@@ -56978,7 +56978,7 @@
       <c r="D148" s="12"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="20"/>
+      <c r="A149" s="23"/>
       <c r="B149" s="10" t="s">
         <v>300</v>
       </c>
@@ -56988,7 +56988,7 @@
       <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="20"/>
+      <c r="A150" s="23"/>
       <c r="B150" s="10" t="s">
         <v>301</v>
       </c>
@@ -56998,7 +56998,7 @@
       <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="20"/>
+      <c r="A151" s="23"/>
       <c r="B151" s="10" t="s">
         <v>299</v>
       </c>
@@ -57008,7 +57008,7 @@
       <c r="D151" s="12"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="20" t="s">
+      <c r="A152" s="23" t="s">
         <v>464</v>
       </c>
       <c r="B152" s="10" t="s">
@@ -57020,7 +57020,7 @@
       <c r="D152" s="12"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="20"/>
+      <c r="A153" s="23"/>
       <c r="B153" s="10" t="s">
         <v>196</v>
       </c>
@@ -57030,7 +57030,7 @@
       <c r="D153" s="12"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="20"/>
+      <c r="A154" s="23"/>
       <c r="B154" s="10" t="s">
         <v>325</v>
       </c>
@@ -57040,7 +57040,7 @@
       <c r="D154" s="12"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="20"/>
+      <c r="A155" s="23"/>
       <c r="B155" s="10" t="s">
         <v>300</v>
       </c>
@@ -57050,7 +57050,7 @@
       <c r="D155" s="12"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="20"/>
+      <c r="A156" s="23"/>
       <c r="B156" s="10" t="s">
         <v>301</v>
       </c>
@@ -57060,7 +57060,7 @@
       <c r="D156" s="12"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="20"/>
+      <c r="A157" s="23"/>
       <c r="B157" s="10" t="s">
         <v>299</v>
       </c>
@@ -57070,7 +57070,7 @@
       <c r="D157" s="12"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="20"/>
+      <c r="A158" s="23"/>
       <c r="B158" s="10" t="s">
         <v>290</v>
       </c>
@@ -57080,7 +57080,7 @@
       <c r="D158" s="12"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="20" t="s">
+      <c r="A159" s="23" t="s">
         <v>467</v>
       </c>
       <c r="B159" s="10" t="s">
@@ -57092,7 +57092,7 @@
       <c r="D159" s="12"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="20"/>
+      <c r="A160" s="23"/>
       <c r="B160" s="10" t="s">
         <v>196</v>
       </c>
@@ -57102,7 +57102,7 @@
       <c r="D160" s="12"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="20" t="s">
+      <c r="A161" s="23" t="s">
         <v>479</v>
       </c>
       <c r="B161" s="10" t="s">
@@ -57114,7 +57114,7 @@
       <c r="D161" s="12"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="20"/>
+      <c r="A162" s="23"/>
       <c r="B162" s="10" t="s">
         <v>196</v>
       </c>
@@ -57124,7 +57124,7 @@
       <c r="D162" s="12"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="20"/>
+      <c r="A163" s="23"/>
       <c r="B163" s="10" t="s">
         <v>325</v>
       </c>
@@ -57134,7 +57134,7 @@
       <c r="D163" s="12"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="20"/>
+      <c r="A164" s="23"/>
       <c r="B164" s="10" t="s">
         <v>300</v>
       </c>
@@ -57144,7 +57144,7 @@
       <c r="D164" s="12"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="20"/>
+      <c r="A165" s="23"/>
       <c r="B165" s="10" t="s">
         <v>301</v>
       </c>
@@ -57154,7 +57154,7 @@
       <c r="D165" s="12"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="20"/>
+      <c r="A166" s="23"/>
       <c r="B166" s="10" t="s">
         <v>299</v>
       </c>
@@ -57164,7 +57164,7 @@
       <c r="D166" s="12"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="20" t="s">
+      <c r="A167" s="23" t="s">
         <v>480</v>
       </c>
       <c r="B167" s="10" t="s">
@@ -57176,7 +57176,7 @@
       <c r="D167" s="12"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="20"/>
+      <c r="A168" s="23"/>
       <c r="B168" s="10" t="s">
         <v>196</v>
       </c>
@@ -57186,7 +57186,7 @@
       <c r="D168" s="12"/>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="20"/>
+      <c r="A169" s="23"/>
       <c r="B169" s="10" t="s">
         <v>325</v>
       </c>
@@ -57196,7 +57196,7 @@
       <c r="D169" s="12"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="20"/>
+      <c r="A170" s="23"/>
       <c r="B170" s="10" t="s">
         <v>300</v>
       </c>
@@ -57206,7 +57206,7 @@
       <c r="D170" s="12"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="20"/>
+      <c r="A171" s="23"/>
       <c r="B171" s="10" t="s">
         <v>301</v>
       </c>
@@ -57216,7 +57216,7 @@
       <c r="D171" s="12"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="20"/>
+      <c r="A172" s="23"/>
       <c r="B172" s="10" t="s">
         <v>299</v>
       </c>
@@ -57226,7 +57226,7 @@
       <c r="D172" s="12"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="20" t="s">
+      <c r="A173" s="23" t="s">
         <v>481</v>
       </c>
       <c r="B173" s="10" t="s">
@@ -57238,7 +57238,7 @@
       <c r="D173" s="12"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="20"/>
+      <c r="A174" s="23"/>
       <c r="B174" s="10" t="s">
         <v>196</v>
       </c>
@@ -57248,7 +57248,7 @@
       <c r="D174" s="12"/>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="20"/>
+      <c r="A175" s="23"/>
       <c r="B175" s="10" t="s">
         <v>325</v>
       </c>
@@ -57258,7 +57258,7 @@
       <c r="D175" s="12"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="20"/>
+      <c r="A176" s="23"/>
       <c r="B176" s="10" t="s">
         <v>300</v>
       </c>
@@ -57268,7 +57268,7 @@
       <c r="D176" s="12"/>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="20"/>
+      <c r="A177" s="23"/>
       <c r="B177" s="10" t="s">
         <v>301</v>
       </c>
@@ -57278,7 +57278,7 @@
       <c r="D177" s="12"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="20"/>
+      <c r="A178" s="23"/>
       <c r="B178" s="10" t="s">
         <v>299</v>
       </c>
@@ -57288,7 +57288,7 @@
       <c r="D178" s="12"/>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="20" t="s">
+      <c r="A179" s="23" t="s">
         <v>482</v>
       </c>
       <c r="B179" s="10" t="s">
@@ -57300,7 +57300,7 @@
       <c r="D179" s="12"/>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="20"/>
+      <c r="A180" s="23"/>
       <c r="B180" s="10" t="s">
         <v>196</v>
       </c>
@@ -57310,7 +57310,7 @@
       <c r="D180" s="12"/>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="20"/>
+      <c r="A181" s="23"/>
       <c r="B181" s="10" t="s">
         <v>325</v>
       </c>
@@ -57320,7 +57320,7 @@
       <c r="D181" s="12"/>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="20"/>
+      <c r="A182" s="23"/>
       <c r="B182" s="10" t="s">
         <v>300</v>
       </c>
@@ -57330,7 +57330,7 @@
       <c r="D182" s="12"/>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="20"/>
+      <c r="A183" s="23"/>
       <c r="B183" s="10" t="s">
         <v>301</v>
       </c>
@@ -57340,7 +57340,7 @@
       <c r="D183" s="12"/>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="20"/>
+      <c r="A184" s="23"/>
       <c r="B184" s="10" t="s">
         <v>299</v>
       </c>
@@ -57350,7 +57350,7 @@
       <c r="D184" s="12"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="20" t="s">
+      <c r="A185" s="23" t="s">
         <v>483</v>
       </c>
       <c r="B185" s="10" t="s">
@@ -57362,7 +57362,7 @@
       <c r="D185" s="12"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="20"/>
+      <c r="A186" s="23"/>
       <c r="B186" s="10" t="s">
         <v>196</v>
       </c>
@@ -57372,7 +57372,7 @@
       <c r="D186" s="12"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="20"/>
+      <c r="A187" s="23"/>
       <c r="B187" s="10" t="s">
         <v>325</v>
       </c>
@@ -57382,7 +57382,7 @@
       <c r="D187" s="12"/>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="20"/>
+      <c r="A188" s="23"/>
       <c r="B188" s="10" t="s">
         <v>300</v>
       </c>
@@ -57392,7 +57392,7 @@
       <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="20"/>
+      <c r="A189" s="23"/>
       <c r="B189" s="10" t="s">
         <v>301</v>
       </c>
@@ -57402,7 +57402,7 @@
       <c r="D189" s="12"/>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="20"/>
+      <c r="A190" s="23"/>
       <c r="B190" s="10" t="s">
         <v>299</v>
       </c>
@@ -57412,7 +57412,7 @@
       <c r="D190" s="12"/>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="20"/>
+      <c r="A191" s="23"/>
       <c r="B191" s="10" t="s">
         <v>290</v>
       </c>
@@ -57422,7 +57422,7 @@
       <c r="D191" s="12"/>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="20" t="s">
+      <c r="A192" s="23" t="s">
         <v>484</v>
       </c>
       <c r="B192" s="10" t="s">
@@ -57434,7 +57434,7 @@
       <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="20"/>
+      <c r="A193" s="23"/>
       <c r="B193" s="10" t="s">
         <v>196</v>
       </c>
@@ -57444,7 +57444,7 @@
       <c r="D193" s="12"/>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="20"/>
+      <c r="A194" s="23"/>
       <c r="B194" s="10" t="s">
         <v>325</v>
       </c>
@@ -57454,7 +57454,7 @@
       <c r="D194" s="12"/>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="20"/>
+      <c r="A195" s="23"/>
       <c r="B195" s="10" t="s">
         <v>300</v>
       </c>
@@ -57464,7 +57464,7 @@
       <c r="D195" s="12"/>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="20"/>
+      <c r="A196" s="23"/>
       <c r="B196" s="10" t="s">
         <v>301</v>
       </c>
@@ -57474,7 +57474,7 @@
       <c r="D196" s="12"/>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="20"/>
+      <c r="A197" s="23"/>
       <c r="B197" s="10" t="s">
         <v>299</v>
       </c>
@@ -57484,7 +57484,7 @@
       <c r="D197" s="12"/>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="20"/>
+      <c r="A198" s="23"/>
       <c r="B198" s="10" t="s">
         <v>290</v>
       </c>
@@ -57494,7 +57494,7 @@
       <c r="D198" s="12"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="20" t="s">
+      <c r="A199" s="23" t="s">
         <v>485</v>
       </c>
       <c r="B199" s="10" t="s">
@@ -57506,7 +57506,7 @@
       <c r="D199" s="12"/>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="20"/>
+      <c r="A200" s="23"/>
       <c r="B200" s="10" t="s">
         <v>196</v>
       </c>
@@ -57516,7 +57516,7 @@
       <c r="D200" s="12"/>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="20"/>
+      <c r="A201" s="23"/>
       <c r="B201" s="10" t="s">
         <v>325</v>
       </c>
@@ -57526,7 +57526,7 @@
       <c r="D201" s="12"/>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="20"/>
+      <c r="A202" s="23"/>
       <c r="B202" s="10" t="s">
         <v>300</v>
       </c>
@@ -57536,7 +57536,7 @@
       <c r="D202" s="12"/>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="20"/>
+      <c r="A203" s="23"/>
       <c r="B203" s="10" t="s">
         <v>301</v>
       </c>
@@ -57546,7 +57546,7 @@
       <c r="D203" s="12"/>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="20"/>
+      <c r="A204" s="23"/>
       <c r="B204" s="10" t="s">
         <v>299</v>
       </c>
@@ -57556,7 +57556,7 @@
       <c r="D204" s="12"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="20"/>
+      <c r="A205" s="23"/>
       <c r="B205" s="10" t="s">
         <v>290</v>
       </c>
@@ -57566,7 +57566,7 @@
       <c r="D205" s="12"/>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="20" t="s">
+      <c r="A206" s="23" t="s">
         <v>486</v>
       </c>
       <c r="B206" s="10" t="s">
@@ -57578,7 +57578,7 @@
       <c r="D206" s="12"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="20"/>
+      <c r="A207" s="23"/>
       <c r="B207" s="10" t="s">
         <v>196</v>
       </c>
@@ -57588,7 +57588,7 @@
       <c r="D207" s="12"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="20"/>
+      <c r="A208" s="23"/>
       <c r="B208" s="10" t="s">
         <v>325</v>
       </c>
@@ -57598,7 +57598,7 @@
       <c r="D208" s="12"/>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="20"/>
+      <c r="A209" s="23"/>
       <c r="B209" s="10" t="s">
         <v>300</v>
       </c>
@@ -57608,7 +57608,7 @@
       <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="20"/>
+      <c r="A210" s="23"/>
       <c r="B210" s="10" t="s">
         <v>301</v>
       </c>
@@ -57618,7 +57618,7 @@
       <c r="D210" s="12"/>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="20"/>
+      <c r="A211" s="23"/>
       <c r="B211" s="10" t="s">
         <v>299</v>
       </c>
@@ -57628,7 +57628,7 @@
       <c r="D211" s="12"/>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="20"/>
+      <c r="A212" s="23"/>
       <c r="B212" s="10" t="s">
         <v>290</v>
       </c>
@@ -57638,7 +57638,7 @@
       <c r="D212" s="12"/>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="20" t="s">
+      <c r="A213" s="23" t="s">
         <v>487</v>
       </c>
       <c r="B213" s="10" t="s">
@@ -57650,7 +57650,7 @@
       <c r="D213" s="12"/>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="20"/>
+      <c r="A214" s="23"/>
       <c r="B214" s="10" t="s">
         <v>196</v>
       </c>
@@ -57660,7 +57660,7 @@
       <c r="D214" s="12"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="20"/>
+      <c r="A215" s="23"/>
       <c r="B215" s="10" t="s">
         <v>325</v>
       </c>
@@ -57670,7 +57670,7 @@
       <c r="D215" s="12"/>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="20"/>
+      <c r="A216" s="23"/>
       <c r="B216" s="10" t="s">
         <v>300</v>
       </c>
@@ -57680,7 +57680,7 @@
       <c r="D216" s="12"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="20"/>
+      <c r="A217" s="23"/>
       <c r="B217" s="10" t="s">
         <v>301</v>
       </c>
@@ -57690,7 +57690,7 @@
       <c r="D217" s="12"/>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="20" t="s">
+      <c r="A218" s="23" t="s">
         <v>488</v>
       </c>
       <c r="B218" s="10" t="s">
@@ -57702,7 +57702,7 @@
       <c r="D218" s="12"/>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="20"/>
+      <c r="A219" s="23"/>
       <c r="B219" s="10" t="s">
         <v>196</v>
       </c>
@@ -57712,7 +57712,7 @@
       <c r="D219" s="12"/>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="20"/>
+      <c r="A220" s="23"/>
       <c r="B220" s="10" t="s">
         <v>325</v>
       </c>
@@ -57722,7 +57722,7 @@
       <c r="D220" s="12"/>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="20"/>
+      <c r="A221" s="23"/>
       <c r="B221" s="10" t="s">
         <v>300</v>
       </c>
@@ -57732,7 +57732,7 @@
       <c r="D221" s="12"/>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="20"/>
+      <c r="A222" s="23"/>
       <c r="B222" s="10" t="s">
         <v>301</v>
       </c>
@@ -57742,7 +57742,7 @@
       <c r="D222" s="12"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="20" t="s">
+      <c r="A223" s="23" t="s">
         <v>489</v>
       </c>
       <c r="B223" s="10" t="s">
@@ -57754,7 +57754,7 @@
       <c r="D223" s="12"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="20"/>
+      <c r="A224" s="23"/>
       <c r="B224" s="10" t="s">
         <v>196</v>
       </c>
@@ -57764,7 +57764,7 @@
       <c r="D224" s="12"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="20"/>
+      <c r="A225" s="23"/>
       <c r="B225" s="10" t="s">
         <v>325</v>
       </c>
@@ -57774,7 +57774,7 @@
       <c r="D225" s="12"/>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="20"/>
+      <c r="A226" s="23"/>
       <c r="B226" s="10" t="s">
         <v>300</v>
       </c>
@@ -57784,7 +57784,7 @@
       <c r="D226" s="12"/>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="20"/>
+      <c r="A227" s="23"/>
       <c r="B227" s="10" t="s">
         <v>301</v>
       </c>
@@ -57794,7 +57794,7 @@
       <c r="D227" s="12"/>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="20" t="s">
+      <c r="A228" s="23" t="s">
         <v>490</v>
       </c>
       <c r="B228" s="10" t="s">
@@ -57806,7 +57806,7 @@
       <c r="D228" s="12"/>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="20"/>
+      <c r="A229" s="23"/>
       <c r="B229" s="10" t="s">
         <v>196</v>
       </c>
@@ -57816,7 +57816,7 @@
       <c r="D229" s="12"/>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="20"/>
+      <c r="A230" s="23"/>
       <c r="B230" s="10" t="s">
         <v>325</v>
       </c>
@@ -57826,7 +57826,7 @@
       <c r="D230" s="12"/>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="20"/>
+      <c r="A231" s="23"/>
       <c r="B231" s="10" t="s">
         <v>300</v>
       </c>
@@ -57836,7 +57836,7 @@
       <c r="D231" s="12"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="20"/>
+      <c r="A232" s="23"/>
       <c r="B232" s="10" t="s">
         <v>301</v>
       </c>
@@ -57846,7 +57846,7 @@
       <c r="D232" s="12"/>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="20" t="s">
+      <c r="A233" s="23" t="s">
         <v>491</v>
       </c>
       <c r="B233" s="10" t="s">
@@ -57858,7 +57858,7 @@
       <c r="D233" s="12"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="20"/>
+      <c r="A234" s="23"/>
       <c r="B234" s="10" t="s">
         <v>325</v>
       </c>
@@ -57868,7 +57868,7 @@
       <c r="D234" s="12"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="20"/>
+      <c r="A235" s="23"/>
       <c r="B235" s="10" t="s">
         <v>301</v>
       </c>
@@ -57878,7 +57878,7 @@
       <c r="D235" s="12"/>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="20"/>
+      <c r="A236" s="23"/>
       <c r="B236" s="10" t="s">
         <v>299</v>
       </c>
@@ -57888,7 +57888,7 @@
       <c r="D236" s="12"/>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="20"/>
+      <c r="A237" s="23"/>
       <c r="B237" s="10" t="s">
         <v>290</v>
       </c>
@@ -57898,7 +57898,7 @@
       <c r="D237" s="12"/>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="20"/>
+      <c r="A238" s="23"/>
       <c r="B238" s="10" t="s">
         <v>295</v>
       </c>
@@ -57908,7 +57908,7 @@
       <c r="D238" s="12"/>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="20"/>
+      <c r="A239" s="23"/>
       <c r="B239" s="10" t="s">
         <v>296</v>
       </c>
@@ -57918,7 +57918,7 @@
       <c r="D239" s="12"/>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="20"/>
+      <c r="A240" s="23"/>
       <c r="B240" s="10" t="s">
         <v>237</v>
       </c>
@@ -57928,7 +57928,7 @@
       <c r="D240" s="12"/>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="20"/>
+      <c r="A241" s="23"/>
       <c r="B241" s="10" t="s">
         <v>294</v>
       </c>
@@ -57938,7 +57938,7 @@
       <c r="D241" s="12"/>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="20"/>
+      <c r="A242" s="23"/>
       <c r="B242" s="10" t="s">
         <v>266</v>
       </c>
@@ -57948,7 +57948,7 @@
       <c r="D242" s="12"/>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="20"/>
+      <c r="A243" s="23"/>
       <c r="B243" s="10" t="s">
         <v>236</v>
       </c>
@@ -57958,7 +57958,7 @@
       <c r="D243" s="12"/>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="20"/>
+      <c r="A244" s="23"/>
       <c r="B244" s="10" t="s">
         <v>338</v>
       </c>
@@ -57968,7 +57968,7 @@
       <c r="D244" s="12"/>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="20"/>
+      <c r="A245" s="23"/>
       <c r="B245" s="10" t="s">
         <v>230</v>
       </c>
@@ -57978,7 +57978,7 @@
       <c r="D245" s="12"/>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="20"/>
+      <c r="A246" s="23"/>
       <c r="B246" s="10" t="s">
         <v>195</v>
       </c>
@@ -57988,7 +57988,7 @@
       <c r="D246" s="12"/>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="20"/>
+      <c r="A247" s="23"/>
       <c r="B247" s="10" t="s">
         <v>283</v>
       </c>
@@ -57998,7 +57998,7 @@
       <c r="D247" s="12"/>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="20"/>
+      <c r="A248" s="23"/>
       <c r="B248" s="10" t="s">
         <v>227</v>
       </c>
@@ -58008,7 +58008,7 @@
       <c r="D248" s="12"/>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="20"/>
+      <c r="A249" s="23"/>
       <c r="B249" s="10" t="s">
         <v>233</v>
       </c>
@@ -58018,7 +58018,7 @@
       <c r="D249" s="12"/>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="20"/>
+      <c r="A250" s="23"/>
       <c r="B250" s="10" t="s">
         <v>298</v>
       </c>
@@ -58028,7 +58028,7 @@
       <c r="D250" s="12"/>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="20"/>
+      <c r="A251" s="23"/>
       <c r="B251" s="10" t="s">
         <v>235</v>
       </c>
@@ -58038,7 +58038,7 @@
       <c r="D251" s="12"/>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="20"/>
+      <c r="A252" s="23"/>
       <c r="B252" s="10" t="s">
         <v>214</v>
       </c>
@@ -58048,7 +58048,7 @@
       <c r="D252" s="12"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="20"/>
+      <c r="A253" s="23"/>
       <c r="B253" s="10" t="s">
         <v>194</v>
       </c>
@@ -58058,7 +58058,7 @@
       <c r="D253" s="12"/>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="20"/>
+      <c r="A254" s="23"/>
       <c r="B254" s="10" t="s">
         <v>278</v>
       </c>
@@ -58068,7 +58068,7 @@
       <c r="D254" s="12"/>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="20"/>
+      <c r="A255" s="23"/>
       <c r="B255" s="10" t="s">
         <v>223</v>
       </c>
@@ -58078,7 +58078,7 @@
       <c r="D255" s="12"/>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="20"/>
+      <c r="A256" s="23"/>
       <c r="B256" s="10" t="s">
         <v>192</v>
       </c>
@@ -58088,7 +58088,7 @@
       <c r="D256" s="12"/>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="20"/>
+      <c r="A257" s="23"/>
       <c r="B257" s="10" t="s">
         <v>304</v>
       </c>
@@ -58098,7 +58098,7 @@
       <c r="D257" s="12"/>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="20"/>
+      <c r="A258" s="23"/>
       <c r="B258" s="10" t="s">
         <v>193</v>
       </c>
@@ -58108,7 +58108,7 @@
       <c r="D258" s="12"/>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="20"/>
+      <c r="A259" s="23"/>
       <c r="B259" s="10" t="s">
         <v>212</v>
       </c>
@@ -58118,7 +58118,7 @@
       <c r="D259" s="12"/>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="20"/>
+      <c r="A260" s="23"/>
       <c r="B260" s="10" t="s">
         <v>265</v>
       </c>
@@ -58128,7 +58128,7 @@
       <c r="D260" s="12"/>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="20"/>
+      <c r="A261" s="23"/>
       <c r="B261" s="10" t="s">
         <v>275</v>
       </c>
@@ -58138,7 +58138,7 @@
       <c r="D261" s="12"/>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="20"/>
+      <c r="A262" s="23"/>
       <c r="B262" s="10" t="s">
         <v>226</v>
       </c>
@@ -58148,7 +58148,7 @@
       <c r="D262" s="12"/>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="20"/>
+      <c r="A263" s="23"/>
       <c r="B263" s="10" t="s">
         <v>221</v>
       </c>
@@ -58158,7 +58158,7 @@
       <c r="D263" s="12"/>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="20"/>
+      <c r="A264" s="23"/>
       <c r="B264" s="10" t="s">
         <v>239</v>
       </c>
@@ -58168,7 +58168,7 @@
       <c r="D264" s="12"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="20" t="s">
+      <c r="A265" s="23" t="s">
         <v>492</v>
       </c>
       <c r="B265" s="10" t="s">
@@ -58180,7 +58180,7 @@
       <c r="D265" s="12"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="20"/>
+      <c r="A266" s="23"/>
       <c r="B266" s="10" t="s">
         <v>325</v>
       </c>
@@ -58190,7 +58190,7 @@
       <c r="D266" s="12"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="20"/>
+      <c r="A267" s="23"/>
       <c r="B267" s="10" t="s">
         <v>301</v>
       </c>
@@ -58200,7 +58200,7 @@
       <c r="D267" s="12"/>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="20"/>
+      <c r="A268" s="23"/>
       <c r="B268" s="10" t="s">
         <v>299</v>
       </c>
@@ -58210,7 +58210,7 @@
       <c r="D268" s="12"/>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="20"/>
+      <c r="A269" s="23"/>
       <c r="B269" s="10" t="s">
         <v>290</v>
       </c>
@@ -58220,7 +58220,7 @@
       <c r="D269" s="12"/>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="20"/>
+      <c r="A270" s="23"/>
       <c r="B270" s="10" t="s">
         <v>295</v>
       </c>
@@ -58230,7 +58230,7 @@
       <c r="D270" s="12"/>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="20"/>
+      <c r="A271" s="23"/>
       <c r="B271" s="10" t="s">
         <v>296</v>
       </c>
@@ -58240,7 +58240,7 @@
       <c r="D271" s="12"/>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="20"/>
+      <c r="A272" s="23"/>
       <c r="B272" s="10" t="s">
         <v>237</v>
       </c>
@@ -58250,7 +58250,7 @@
       <c r="D272" s="12"/>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="20"/>
+      <c r="A273" s="23"/>
       <c r="B273" s="10" t="s">
         <v>294</v>
       </c>
@@ -58260,7 +58260,7 @@
       <c r="D273" s="12"/>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="20"/>
+      <c r="A274" s="23"/>
       <c r="B274" s="10" t="s">
         <v>266</v>
       </c>
@@ -58270,7 +58270,7 @@
       <c r="D274" s="12"/>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="20"/>
+      <c r="A275" s="23"/>
       <c r="B275" s="10" t="s">
         <v>236</v>
       </c>
@@ -58280,7 +58280,7 @@
       <c r="D275" s="12"/>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="20"/>
+      <c r="A276" s="23"/>
       <c r="B276" s="10" t="s">
         <v>338</v>
       </c>
@@ -58290,7 +58290,7 @@
       <c r="D276" s="12"/>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="20"/>
+      <c r="A277" s="23"/>
       <c r="B277" s="10" t="s">
         <v>230</v>
       </c>
@@ -58300,7 +58300,7 @@
       <c r="D277" s="12"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="20"/>
+      <c r="A278" s="23"/>
       <c r="B278" s="10" t="s">
         <v>195</v>
       </c>
@@ -58310,7 +58310,7 @@
       <c r="D278" s="12"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="20"/>
+      <c r="A279" s="23"/>
       <c r="B279" s="10" t="s">
         <v>283</v>
       </c>
@@ -58320,7 +58320,7 @@
       <c r="D279" s="12"/>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="20"/>
+      <c r="A280" s="23"/>
       <c r="B280" s="10" t="s">
         <v>227</v>
       </c>
@@ -58330,7 +58330,7 @@
       <c r="D280" s="12"/>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="20"/>
+      <c r="A281" s="23"/>
       <c r="B281" s="10" t="s">
         <v>233</v>
       </c>
@@ -58340,7 +58340,7 @@
       <c r="D281" s="12"/>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="20"/>
+      <c r="A282" s="23"/>
       <c r="B282" s="10" t="s">
         <v>298</v>
       </c>
@@ -58350,7 +58350,7 @@
       <c r="D282" s="12"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="20"/>
+      <c r="A283" s="23"/>
       <c r="B283" s="10" t="s">
         <v>235</v>
       </c>
@@ -58360,7 +58360,7 @@
       <c r="D283" s="12"/>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="20"/>
+      <c r="A284" s="23"/>
       <c r="B284" s="10" t="s">
         <v>214</v>
       </c>
@@ -58370,7 +58370,7 @@
       <c r="D284" s="12"/>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="20"/>
+      <c r="A285" s="23"/>
       <c r="B285" s="10" t="s">
         <v>194</v>
       </c>
@@ -58380,7 +58380,7 @@
       <c r="D285" s="12"/>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="20"/>
+      <c r="A286" s="23"/>
       <c r="B286" s="10" t="s">
         <v>278</v>
       </c>
@@ -58390,7 +58390,7 @@
       <c r="D286" s="12"/>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="20"/>
+      <c r="A287" s="23"/>
       <c r="B287" s="10" t="s">
         <v>223</v>
       </c>
@@ -58400,7 +58400,7 @@
       <c r="D287" s="12"/>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="20"/>
+      <c r="A288" s="23"/>
       <c r="B288" s="10" t="s">
         <v>192</v>
       </c>
@@ -58410,7 +58410,7 @@
       <c r="D288" s="12"/>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="20"/>
+      <c r="A289" s="23"/>
       <c r="B289" s="10" t="s">
         <v>304</v>
       </c>
@@ -58420,7 +58420,7 @@
       <c r="D289" s="12"/>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="20"/>
+      <c r="A290" s="23"/>
       <c r="B290" s="10" t="s">
         <v>193</v>
       </c>
@@ -58430,7 +58430,7 @@
       <c r="D290" s="12"/>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="20"/>
+      <c r="A291" s="23"/>
       <c r="B291" s="10" t="s">
         <v>212</v>
       </c>
@@ -58440,7 +58440,7 @@
       <c r="D291" s="12"/>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="20"/>
+      <c r="A292" s="23"/>
       <c r="B292" s="10" t="s">
         <v>265</v>
       </c>
@@ -58450,7 +58450,7 @@
       <c r="D292" s="12"/>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="20"/>
+      <c r="A293" s="23"/>
       <c r="B293" s="10" t="s">
         <v>275</v>
       </c>
@@ -58460,7 +58460,7 @@
       <c r="D293" s="12"/>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="20"/>
+      <c r="A294" s="23"/>
       <c r="B294" s="10" t="s">
         <v>226</v>
       </c>
@@ -58470,7 +58470,7 @@
       <c r="D294" s="12"/>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="20"/>
+      <c r="A295" s="23"/>
       <c r="B295" s="10" t="s">
         <v>221</v>
       </c>
@@ -58480,7 +58480,7 @@
       <c r="D295" s="12"/>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="20"/>
+      <c r="A296" s="23"/>
       <c r="B296" s="10" t="s">
         <v>239</v>
       </c>
@@ -58490,7 +58490,7 @@
       <c r="D296" s="12"/>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="20" t="s">
+      <c r="A297" s="23" t="s">
         <v>493</v>
       </c>
       <c r="B297" s="10" t="s">
@@ -58502,7 +58502,7 @@
       <c r="D297" s="12"/>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="20"/>
+      <c r="A298" s="23"/>
       <c r="B298" s="10" t="s">
         <v>325</v>
       </c>
@@ -58512,7 +58512,7 @@
       <c r="D298" s="12"/>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="20"/>
+      <c r="A299" s="23"/>
       <c r="B299" s="10" t="s">
         <v>301</v>
       </c>
@@ -58522,7 +58522,7 @@
       <c r="D299" s="12"/>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="20"/>
+      <c r="A300" s="23"/>
       <c r="B300" s="10" t="s">
         <v>299</v>
       </c>
@@ -58532,7 +58532,7 @@
       <c r="D300" s="12"/>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="20"/>
+      <c r="A301" s="23"/>
       <c r="B301" s="10" t="s">
         <v>290</v>
       </c>
@@ -58542,7 +58542,7 @@
       <c r="D301" s="12"/>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="20"/>
+      <c r="A302" s="23"/>
       <c r="B302" s="10" t="s">
         <v>295</v>
       </c>
@@ -58552,7 +58552,7 @@
       <c r="D302" s="12"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="20"/>
+      <c r="A303" s="23"/>
       <c r="B303" s="10" t="s">
         <v>296</v>
       </c>
@@ -58562,7 +58562,7 @@
       <c r="D303" s="12"/>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="20"/>
+      <c r="A304" s="23"/>
       <c r="B304" s="10" t="s">
         <v>237</v>
       </c>
@@ -58572,7 +58572,7 @@
       <c r="D304" s="12"/>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="20"/>
+      <c r="A305" s="23"/>
       <c r="B305" s="10" t="s">
         <v>294</v>
       </c>
@@ -58582,7 +58582,7 @@
       <c r="D305" s="12"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="20"/>
+      <c r="A306" s="23"/>
       <c r="B306" s="10" t="s">
         <v>266</v>
       </c>
@@ -58592,7 +58592,7 @@
       <c r="D306" s="12"/>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="20"/>
+      <c r="A307" s="23"/>
       <c r="B307" s="10" t="s">
         <v>236</v>
       </c>
@@ -58602,7 +58602,7 @@
       <c r="D307" s="12"/>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="20"/>
+      <c r="A308" s="23"/>
       <c r="B308" s="10" t="s">
         <v>338</v>
       </c>
@@ -58612,7 +58612,7 @@
       <c r="D308" s="12"/>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="20"/>
+      <c r="A309" s="23"/>
       <c r="B309" s="10" t="s">
         <v>230</v>
       </c>
@@ -58622,7 +58622,7 @@
       <c r="D309" s="12"/>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="20"/>
+      <c r="A310" s="23"/>
       <c r="B310" s="10" t="s">
         <v>195</v>
       </c>
@@ -58632,7 +58632,7 @@
       <c r="D310" s="12"/>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="20"/>
+      <c r="A311" s="23"/>
       <c r="B311" s="10" t="s">
         <v>283</v>
       </c>
@@ -58642,7 +58642,7 @@
       <c r="D311" s="12"/>
     </row>
     <row r="312" spans="1:4">
-      <c r="A312" s="20"/>
+      <c r="A312" s="23"/>
       <c r="B312" s="10" t="s">
         <v>227</v>
       </c>
@@ -58652,7 +58652,7 @@
       <c r="D312" s="12"/>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="20"/>
+      <c r="A313" s="23"/>
       <c r="B313" s="10" t="s">
         <v>233</v>
       </c>
@@ -58662,7 +58662,7 @@
       <c r="D313" s="12"/>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="20"/>
+      <c r="A314" s="23"/>
       <c r="B314" s="10" t="s">
         <v>298</v>
       </c>
@@ -58672,7 +58672,7 @@
       <c r="D314" s="12"/>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="20"/>
+      <c r="A315" s="23"/>
       <c r="B315" s="10" t="s">
         <v>235</v>
       </c>
@@ -58682,7 +58682,7 @@
       <c r="D315" s="12"/>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="20"/>
+      <c r="A316" s="23"/>
       <c r="B316" s="10" t="s">
         <v>214</v>
       </c>
@@ -58692,7 +58692,7 @@
       <c r="D316" s="12"/>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="20"/>
+      <c r="A317" s="23"/>
       <c r="B317" s="10" t="s">
         <v>194</v>
       </c>
@@ -58702,7 +58702,7 @@
       <c r="D317" s="12"/>
     </row>
     <row r="318" spans="1:4">
-      <c r="A318" s="20"/>
+      <c r="A318" s="23"/>
       <c r="B318" s="10" t="s">
         <v>278</v>
       </c>
@@ -58712,7 +58712,7 @@
       <c r="D318" s="12"/>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="20"/>
+      <c r="A319" s="23"/>
       <c r="B319" s="10" t="s">
         <v>223</v>
       </c>
@@ -58722,7 +58722,7 @@
       <c r="D319" s="12"/>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="20"/>
+      <c r="A320" s="23"/>
       <c r="B320" s="10" t="s">
         <v>192</v>
       </c>
@@ -58732,7 +58732,7 @@
       <c r="D320" s="12"/>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="20"/>
+      <c r="A321" s="23"/>
       <c r="B321" s="10" t="s">
         <v>304</v>
       </c>
@@ -58742,7 +58742,7 @@
       <c r="D321" s="12"/>
     </row>
     <row r="322" spans="1:4">
-      <c r="A322" s="20"/>
+      <c r="A322" s="23"/>
       <c r="B322" s="10" t="s">
         <v>193</v>
       </c>
@@ -58752,7 +58752,7 @@
       <c r="D322" s="12"/>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="20"/>
+      <c r="A323" s="23"/>
       <c r="B323" s="10" t="s">
         <v>212</v>
       </c>
@@ -58762,7 +58762,7 @@
       <c r="D323" s="12"/>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="20"/>
+      <c r="A324" s="23"/>
       <c r="B324" s="10" t="s">
         <v>265</v>
       </c>
@@ -58772,7 +58772,7 @@
       <c r="D324" s="12"/>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="20"/>
+      <c r="A325" s="23"/>
       <c r="B325" s="10" t="s">
         <v>275</v>
       </c>
@@ -58782,7 +58782,7 @@
       <c r="D325" s="12"/>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="20"/>
+      <c r="A326" s="23"/>
       <c r="B326" s="10" t="s">
         <v>226</v>
       </c>
@@ -58792,7 +58792,7 @@
       <c r="D326" s="12"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="20"/>
+      <c r="A327" s="23"/>
       <c r="B327" s="10" t="s">
         <v>221</v>
       </c>
@@ -58802,7 +58802,7 @@
       <c r="D327" s="12"/>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="20"/>
+      <c r="A328" s="23"/>
       <c r="B328" s="10" t="s">
         <v>239</v>
       </c>
@@ -58812,7 +58812,7 @@
       <c r="D328" s="12"/>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="20" t="s">
+      <c r="A329" s="23" t="s">
         <v>494</v>
       </c>
       <c r="B329" s="10" t="s">
@@ -58824,7 +58824,7 @@
       <c r="D329" s="12"/>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="20"/>
+      <c r="A330" s="23"/>
       <c r="B330" s="10" t="s">
         <v>325</v>
       </c>
@@ -58834,7 +58834,7 @@
       <c r="D330" s="12"/>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="20"/>
+      <c r="A331" s="23"/>
       <c r="B331" s="10" t="s">
         <v>301</v>
       </c>
@@ -58844,7 +58844,7 @@
       <c r="D331" s="12"/>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="20"/>
+      <c r="A332" s="23"/>
       <c r="B332" s="10" t="s">
         <v>299</v>
       </c>
@@ -58854,7 +58854,7 @@
       <c r="D332" s="12"/>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="20"/>
+      <c r="A333" s="23"/>
       <c r="B333" s="10" t="s">
         <v>290</v>
       </c>
@@ -58864,7 +58864,7 @@
       <c r="D333" s="12"/>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" s="20"/>
+      <c r="A334" s="23"/>
       <c r="B334" s="10" t="s">
         <v>295</v>
       </c>
@@ -58874,7 +58874,7 @@
       <c r="D334" s="12"/>
     </row>
     <row r="335" spans="1:4">
-      <c r="A335" s="20"/>
+      <c r="A335" s="23"/>
       <c r="B335" s="10" t="s">
         <v>296</v>
       </c>
@@ -58884,7 +58884,7 @@
       <c r="D335" s="12"/>
     </row>
     <row r="336" spans="1:4">
-      <c r="A336" s="20"/>
+      <c r="A336" s="23"/>
       <c r="B336" s="10" t="s">
         <v>237</v>
       </c>
@@ -58894,7 +58894,7 @@
       <c r="D336" s="12"/>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="20"/>
+      <c r="A337" s="23"/>
       <c r="B337" s="10" t="s">
         <v>294</v>
       </c>
@@ -58904,7 +58904,7 @@
       <c r="D337" s="12"/>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="20"/>
+      <c r="A338" s="23"/>
       <c r="B338" s="10" t="s">
         <v>266</v>
       </c>
@@ -58914,7 +58914,7 @@
       <c r="D338" s="12"/>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="20"/>
+      <c r="A339" s="23"/>
       <c r="B339" s="10" t="s">
         <v>236</v>
       </c>
@@ -58924,7 +58924,7 @@
       <c r="D339" s="12"/>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="20"/>
+      <c r="A340" s="23"/>
       <c r="B340" s="10" t="s">
         <v>338</v>
       </c>
@@ -58934,7 +58934,7 @@
       <c r="D340" s="12"/>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="20"/>
+      <c r="A341" s="23"/>
       <c r="B341" s="10" t="s">
         <v>230</v>
       </c>
@@ -58944,7 +58944,7 @@
       <c r="D341" s="12"/>
     </row>
     <row r="342" spans="1:4">
-      <c r="A342" s="20"/>
+      <c r="A342" s="23"/>
       <c r="B342" s="10" t="s">
         <v>195</v>
       </c>
@@ -58954,7 +58954,7 @@
       <c r="D342" s="12"/>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="20"/>
+      <c r="A343" s="23"/>
       <c r="B343" s="10" t="s">
         <v>283</v>
       </c>
@@ -58964,7 +58964,7 @@
       <c r="D343" s="12"/>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" s="20"/>
+      <c r="A344" s="23"/>
       <c r="B344" s="10" t="s">
         <v>227</v>
       </c>
@@ -58974,7 +58974,7 @@
       <c r="D344" s="12"/>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="20"/>
+      <c r="A345" s="23"/>
       <c r="B345" s="10" t="s">
         <v>233</v>
       </c>
@@ -58984,7 +58984,7 @@
       <c r="D345" s="12"/>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="20"/>
+      <c r="A346" s="23"/>
       <c r="B346" s="10" t="s">
         <v>298</v>
       </c>
@@ -58994,7 +58994,7 @@
       <c r="D346" s="12"/>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="20"/>
+      <c r="A347" s="23"/>
       <c r="B347" s="10" t="s">
         <v>235</v>
       </c>
@@ -59004,7 +59004,7 @@
       <c r="D347" s="12"/>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="20"/>
+      <c r="A348" s="23"/>
       <c r="B348" s="10" t="s">
         <v>214</v>
       </c>
@@ -59014,7 +59014,7 @@
       <c r="D348" s="12"/>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="20"/>
+      <c r="A349" s="23"/>
       <c r="B349" s="10" t="s">
         <v>194</v>
       </c>
@@ -59024,7 +59024,7 @@
       <c r="D349" s="12"/>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="20"/>
+      <c r="A350" s="23"/>
       <c r="B350" s="10" t="s">
         <v>278</v>
       </c>
@@ -59034,7 +59034,7 @@
       <c r="D350" s="12"/>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="20"/>
+      <c r="A351" s="23"/>
       <c r="B351" s="10" t="s">
         <v>223</v>
       </c>
@@ -59044,7 +59044,7 @@
       <c r="D351" s="12"/>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="20"/>
+      <c r="A352" s="23"/>
       <c r="B352" s="10" t="s">
         <v>192</v>
       </c>
@@ -59054,7 +59054,7 @@
       <c r="D352" s="12"/>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="20"/>
+      <c r="A353" s="23"/>
       <c r="B353" s="10" t="s">
         <v>304</v>
       </c>
@@ -59064,7 +59064,7 @@
       <c r="D353" s="12"/>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="20"/>
+      <c r="A354" s="23"/>
       <c r="B354" s="10" t="s">
         <v>193</v>
       </c>
@@ -59074,7 +59074,7 @@
       <c r="D354" s="12"/>
     </row>
     <row r="355" spans="1:4">
-      <c r="A355" s="20"/>
+      <c r="A355" s="23"/>
       <c r="B355" s="10" t="s">
         <v>212</v>
       </c>
@@ -59084,7 +59084,7 @@
       <c r="D355" s="12"/>
     </row>
     <row r="356" spans="1:4">
-      <c r="A356" s="20"/>
+      <c r="A356" s="23"/>
       <c r="B356" s="10" t="s">
         <v>265</v>
       </c>
@@ -59094,7 +59094,7 @@
       <c r="D356" s="12"/>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="20"/>
+      <c r="A357" s="23"/>
       <c r="B357" s="10" t="s">
         <v>275</v>
       </c>
@@ -59104,7 +59104,7 @@
       <c r="D357" s="12"/>
     </row>
     <row r="358" spans="1:4">
-      <c r="A358" s="20"/>
+      <c r="A358" s="23"/>
       <c r="B358" s="10" t="s">
         <v>226</v>
       </c>
@@ -59114,7 +59114,7 @@
       <c r="D358" s="12"/>
     </row>
     <row r="359" spans="1:4">
-      <c r="A359" s="20"/>
+      <c r="A359" s="23"/>
       <c r="B359" s="10" t="s">
         <v>221</v>
       </c>
@@ -59124,7 +59124,7 @@
       <c r="D359" s="12"/>
     </row>
     <row r="360" spans="1:4">
-      <c r="A360" s="20"/>
+      <c r="A360" s="23"/>
       <c r="B360" s="10" t="s">
         <v>239</v>
       </c>
@@ -59134,7 +59134,7 @@
       <c r="D360" s="12"/>
     </row>
     <row r="361" spans="1:4">
-      <c r="A361" s="20" t="s">
+      <c r="A361" s="23" t="s">
         <v>495</v>
       </c>
       <c r="B361" s="10" t="s">
@@ -59146,7 +59146,7 @@
       <c r="D361" s="12"/>
     </row>
     <row r="362" spans="1:4">
-      <c r="A362" s="20"/>
+      <c r="A362" s="23"/>
       <c r="B362" s="10" t="s">
         <v>196</v>
       </c>
@@ -59156,7 +59156,7 @@
       <c r="D362" s="12"/>
     </row>
     <row r="363" spans="1:4">
-      <c r="A363" s="20"/>
+      <c r="A363" s="23"/>
       <c r="B363" s="10" t="s">
         <v>325</v>
       </c>
@@ -59166,7 +59166,7 @@
       <c r="D363" s="12"/>
     </row>
     <row r="364" spans="1:4">
-      <c r="A364" s="20"/>
+      <c r="A364" s="23"/>
       <c r="B364" s="10" t="s">
         <v>300</v>
       </c>
@@ -59176,7 +59176,7 @@
       <c r="D364" s="12"/>
     </row>
     <row r="365" spans="1:4">
-      <c r="A365" s="20"/>
+      <c r="A365" s="23"/>
       <c r="B365" s="10" t="s">
         <v>301</v>
       </c>
@@ -59186,7 +59186,7 @@
       <c r="D365" s="12"/>
     </row>
     <row r="366" spans="1:4">
-      <c r="A366" s="20"/>
+      <c r="A366" s="23"/>
       <c r="B366" s="10" t="s">
         <v>299</v>
       </c>
@@ -59196,7 +59196,7 @@
       <c r="D366" s="12"/>
     </row>
     <row r="367" spans="1:4">
-      <c r="A367" s="20"/>
+      <c r="A367" s="23"/>
       <c r="B367" s="10" t="s">
         <v>290</v>
       </c>
@@ -59206,7 +59206,7 @@
       <c r="D367" s="12"/>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="20" t="s">
+      <c r="A368" s="23" t="s">
         <v>496</v>
       </c>
       <c r="B368" s="10" t="s">
@@ -59218,7 +59218,7 @@
       <c r="D368" s="12"/>
     </row>
     <row r="369" spans="1:4">
-      <c r="A369" s="20"/>
+      <c r="A369" s="23"/>
       <c r="B369" s="10" t="s">
         <v>196</v>
       </c>
@@ -59228,7 +59228,7 @@
       <c r="D369" s="12"/>
     </row>
     <row r="370" spans="1:4">
-      <c r="A370" s="20"/>
+      <c r="A370" s="23"/>
       <c r="B370" s="10" t="s">
         <v>325</v>
       </c>
@@ -59238,7 +59238,7 @@
       <c r="D370" s="12"/>
     </row>
     <row r="371" spans="1:4">
-      <c r="A371" s="20"/>
+      <c r="A371" s="23"/>
       <c r="B371" s="10" t="s">
         <v>300</v>
       </c>
@@ -59248,7 +59248,7 @@
       <c r="D371" s="12"/>
     </row>
     <row r="372" spans="1:4">
-      <c r="A372" s="20"/>
+      <c r="A372" s="23"/>
       <c r="B372" s="10" t="s">
         <v>301</v>
       </c>
@@ -59258,7 +59258,7 @@
       <c r="D372" s="12"/>
     </row>
     <row r="373" spans="1:4">
-      <c r="A373" s="20"/>
+      <c r="A373" s="23"/>
       <c r="B373" s="10" t="s">
         <v>299</v>
       </c>
@@ -59268,7 +59268,7 @@
       <c r="D373" s="12"/>
     </row>
     <row r="374" spans="1:4">
-      <c r="A374" s="20"/>
+      <c r="A374" s="23"/>
       <c r="B374" s="10" t="s">
         <v>290</v>
       </c>
@@ -59278,7 +59278,7 @@
       <c r="D374" s="12"/>
     </row>
     <row r="375" spans="1:4">
-      <c r="A375" s="20" t="s">
+      <c r="A375" s="23" t="s">
         <v>497</v>
       </c>
       <c r="B375" s="10" t="s">
@@ -59290,7 +59290,7 @@
       <c r="D375" s="12"/>
     </row>
     <row r="376" spans="1:4">
-      <c r="A376" s="20"/>
+      <c r="A376" s="23"/>
       <c r="B376" s="10" t="s">
         <v>196</v>
       </c>
@@ -59300,7 +59300,7 @@
       <c r="D376" s="12"/>
     </row>
     <row r="377" spans="1:4">
-      <c r="A377" s="20"/>
+      <c r="A377" s="23"/>
       <c r="B377" s="10" t="s">
         <v>325</v>
       </c>
@@ -59310,7 +59310,7 @@
       <c r="D377" s="12"/>
     </row>
     <row r="378" spans="1:4">
-      <c r="A378" s="20"/>
+      <c r="A378" s="23"/>
       <c r="B378" s="10" t="s">
         <v>300</v>
       </c>
@@ -59320,7 +59320,7 @@
       <c r="D378" s="12"/>
     </row>
     <row r="379" spans="1:4">
-      <c r="A379" s="20"/>
+      <c r="A379" s="23"/>
       <c r="B379" s="10" t="s">
         <v>301</v>
       </c>
@@ -59330,7 +59330,7 @@
       <c r="D379" s="12"/>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" s="20"/>
+      <c r="A380" s="23"/>
       <c r="B380" s="10" t="s">
         <v>299</v>
       </c>
@@ -59340,7 +59340,7 @@
       <c r="D380" s="12"/>
     </row>
     <row r="381" spans="1:4">
-      <c r="A381" s="20"/>
+      <c r="A381" s="23"/>
       <c r="B381" s="10" t="s">
         <v>290</v>
       </c>
@@ -59350,7 +59350,7 @@
       <c r="D381" s="12"/>
     </row>
     <row r="382" spans="1:4">
-      <c r="A382" s="20" t="s">
+      <c r="A382" s="23" t="s">
         <v>498</v>
       </c>
       <c r="B382" s="10" t="s">
@@ -59362,7 +59362,7 @@
       <c r="D382" s="12"/>
     </row>
     <row r="383" spans="1:4">
-      <c r="A383" s="20"/>
+      <c r="A383" s="23"/>
       <c r="B383" s="10" t="s">
         <v>196</v>
       </c>
@@ -59372,7 +59372,7 @@
       <c r="D383" s="12"/>
     </row>
     <row r="384" spans="1:4">
-      <c r="A384" s="20"/>
+      <c r="A384" s="23"/>
       <c r="B384" s="10" t="s">
         <v>325</v>
       </c>
@@ -59382,7 +59382,7 @@
       <c r="D384" s="12"/>
     </row>
     <row r="385" spans="1:4">
-      <c r="A385" s="20"/>
+      <c r="A385" s="23"/>
       <c r="B385" s="10" t="s">
         <v>300</v>
       </c>
@@ -59392,7 +59392,7 @@
       <c r="D385" s="12"/>
     </row>
     <row r="386" spans="1:4">
-      <c r="A386" s="20"/>
+      <c r="A386" s="23"/>
       <c r="B386" s="10" t="s">
         <v>301</v>
       </c>
@@ -59402,7 +59402,7 @@
       <c r="D386" s="12"/>
     </row>
     <row r="387" spans="1:4">
-      <c r="A387" s="20"/>
+      <c r="A387" s="23"/>
       <c r="B387" s="10" t="s">
         <v>299</v>
       </c>
@@ -59412,7 +59412,7 @@
       <c r="D387" s="12"/>
     </row>
     <row r="388" spans="1:4">
-      <c r="A388" s="20"/>
+      <c r="A388" s="23"/>
       <c r="B388" s="10" t="s">
         <v>290</v>
       </c>
@@ -59422,7 +59422,7 @@
       <c r="D388" s="12"/>
     </row>
     <row r="389" spans="1:4">
-      <c r="A389" s="20" t="s">
+      <c r="A389" s="23" t="s">
         <v>499</v>
       </c>
       <c r="B389" s="10" t="s">
@@ -59434,7 +59434,7 @@
       <c r="D389" s="12"/>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="20"/>
+      <c r="A390" s="23"/>
       <c r="B390" s="10" t="s">
         <v>196</v>
       </c>
@@ -59444,7 +59444,7 @@
       <c r="D390" s="12"/>
     </row>
     <row r="391" spans="1:4">
-      <c r="A391" s="20" t="s">
+      <c r="A391" s="23" t="s">
         <v>500</v>
       </c>
       <c r="B391" s="10" t="s">
@@ -59456,7 +59456,7 @@
       <c r="D391" s="12"/>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="20"/>
+      <c r="A392" s="23"/>
       <c r="B392" s="10" t="s">
         <v>196</v>
       </c>
@@ -59466,7 +59466,7 @@
       <c r="D392" s="12"/>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="20" t="s">
+      <c r="A393" s="23" t="s">
         <v>501</v>
       </c>
       <c r="B393" s="10" t="s">
@@ -59478,7 +59478,7 @@
       <c r="D393" s="12"/>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" s="20"/>
+      <c r="A394" s="23"/>
       <c r="B394" s="10" t="s">
         <v>196</v>
       </c>
@@ -59488,7 +59488,7 @@
       <c r="D394" s="12"/>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" s="20" t="s">
+      <c r="A395" s="23" t="s">
         <v>502</v>
       </c>
       <c r="B395" s="10" t="s">
@@ -59500,7 +59500,7 @@
       <c r="D395" s="12"/>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="20"/>
+      <c r="A396" s="23"/>
       <c r="B396" s="10" t="s">
         <v>196</v>
       </c>
@@ -59510,7 +59510,7 @@
       <c r="D396" s="12"/>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" s="20" t="s">
+      <c r="A397" s="23" t="s">
         <v>503</v>
       </c>
       <c r="B397" s="10" t="s">
@@ -59522,7 +59522,7 @@
       <c r="D397" s="12"/>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="20"/>
+      <c r="A398" s="23"/>
       <c r="B398" s="10" t="s">
         <v>196</v>
       </c>
@@ -59532,7 +59532,7 @@
       <c r="D398" s="12"/>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" s="20"/>
+      <c r="A399" s="23"/>
       <c r="B399" s="10" t="s">
         <v>325</v>
       </c>
@@ -59542,7 +59542,7 @@
       <c r="D399" s="12"/>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="20"/>
+      <c r="A400" s="23"/>
       <c r="B400" s="10" t="s">
         <v>300</v>
       </c>
@@ -59552,7 +59552,7 @@
       <c r="D400" s="12"/>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="20"/>
+      <c r="A401" s="23"/>
       <c r="B401" s="10" t="s">
         <v>301</v>
       </c>
@@ -59562,7 +59562,7 @@
       <c r="D401" s="12"/>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="20"/>
+      <c r="A402" s="23"/>
       <c r="B402" s="10" t="s">
         <v>299</v>
       </c>
@@ -59572,7 +59572,7 @@
       <c r="D402" s="12"/>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="20" t="s">
+      <c r="A403" s="23" t="s">
         <v>504</v>
       </c>
       <c r="B403" s="10" t="s">
@@ -59584,7 +59584,7 @@
       <c r="D403" s="12"/>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="20"/>
+      <c r="A404" s="23"/>
       <c r="B404" s="10" t="s">
         <v>196</v>
       </c>
@@ -59594,7 +59594,7 @@
       <c r="D404" s="12"/>
     </row>
     <row r="405" spans="1:4">
-      <c r="A405" s="20"/>
+      <c r="A405" s="23"/>
       <c r="B405" s="10" t="s">
         <v>325</v>
       </c>
@@ -59604,7 +59604,7 @@
       <c r="D405" s="12"/>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406" s="20"/>
+      <c r="A406" s="23"/>
       <c r="B406" s="10" t="s">
         <v>300</v>
       </c>
@@ -59614,7 +59614,7 @@
       <c r="D406" s="12"/>
     </row>
     <row r="407" spans="1:4">
-      <c r="A407" s="20"/>
+      <c r="A407" s="23"/>
       <c r="B407" s="10" t="s">
         <v>301</v>
       </c>
@@ -59624,7 +59624,7 @@
       <c r="D407" s="12"/>
     </row>
     <row r="408" spans="1:4">
-      <c r="A408" s="20"/>
+      <c r="A408" s="23"/>
       <c r="B408" s="10" t="s">
         <v>299</v>
       </c>
@@ -59634,7 +59634,7 @@
       <c r="D408" s="12"/>
     </row>
     <row r="409" spans="1:4">
-      <c r="A409" s="20" t="s">
+      <c r="A409" s="23" t="s">
         <v>505</v>
       </c>
       <c r="B409" s="10" t="s">
@@ -59646,7 +59646,7 @@
       <c r="D409" s="12"/>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="20"/>
+      <c r="A410" s="23"/>
       <c r="B410" s="10" t="s">
         <v>196</v>
       </c>
@@ -59656,7 +59656,7 @@
       <c r="D410" s="12"/>
     </row>
     <row r="411" spans="1:4">
-      <c r="A411" s="20"/>
+      <c r="A411" s="23"/>
       <c r="B411" s="10" t="s">
         <v>325</v>
       </c>
@@ -59666,7 +59666,7 @@
       <c r="D411" s="12"/>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="20"/>
+      <c r="A412" s="23"/>
       <c r="B412" s="10" t="s">
         <v>300</v>
       </c>
@@ -59676,7 +59676,7 @@
       <c r="D412" s="12"/>
     </row>
     <row r="413" spans="1:4">
-      <c r="A413" s="20"/>
+      <c r="A413" s="23"/>
       <c r="B413" s="10" t="s">
         <v>301</v>
       </c>
@@ -59686,7 +59686,7 @@
       <c r="D413" s="12"/>
     </row>
     <row r="414" spans="1:4">
-      <c r="A414" s="20"/>
+      <c r="A414" s="23"/>
       <c r="B414" s="10" t="s">
         <v>299</v>
       </c>
@@ -59696,7 +59696,7 @@
       <c r="D414" s="12"/>
     </row>
     <row r="415" spans="1:4">
-      <c r="A415" s="20" t="s">
+      <c r="A415" s="23" t="s">
         <v>506</v>
       </c>
       <c r="B415" s="10" t="s">
@@ -59708,7 +59708,7 @@
       <c r="D415" s="12"/>
     </row>
     <row r="416" spans="1:4">
-      <c r="A416" s="20"/>
+      <c r="A416" s="23"/>
       <c r="B416" s="10" t="s">
         <v>196</v>
       </c>
@@ -59718,7 +59718,7 @@
       <c r="D416" s="12"/>
     </row>
     <row r="417" spans="1:4">
-      <c r="A417" s="20"/>
+      <c r="A417" s="23"/>
       <c r="B417" s="10" t="s">
         <v>325</v>
       </c>
@@ -59728,7 +59728,7 @@
       <c r="D417" s="12"/>
     </row>
     <row r="418" spans="1:4">
-      <c r="A418" s="20"/>
+      <c r="A418" s="23"/>
       <c r="B418" s="10" t="s">
         <v>300</v>
       </c>
@@ -59738,7 +59738,7 @@
       <c r="D418" s="12"/>
     </row>
     <row r="419" spans="1:4">
-      <c r="A419" s="20"/>
+      <c r="A419" s="23"/>
       <c r="B419" s="10" t="s">
         <v>301</v>
       </c>
@@ -59748,7 +59748,7 @@
       <c r="D419" s="12"/>
     </row>
     <row r="420" spans="1:4">
-      <c r="A420" s="20"/>
+      <c r="A420" s="23"/>
       <c r="B420" s="10" t="s">
         <v>299</v>
       </c>
@@ -59758,7 +59758,7 @@
       <c r="D420" s="12"/>
     </row>
     <row r="421" spans="1:4">
-      <c r="A421" s="20" t="s">
+      <c r="A421" s="23" t="s">
         <v>507</v>
       </c>
       <c r="B421" s="10" t="s">
@@ -59770,7 +59770,7 @@
       <c r="D421" s="12"/>
     </row>
     <row r="422" spans="1:4">
-      <c r="A422" s="20"/>
+      <c r="A422" s="23"/>
       <c r="B422" s="10" t="s">
         <v>196</v>
       </c>
@@ -59780,7 +59780,7 @@
       <c r="D422" s="12"/>
     </row>
     <row r="423" spans="1:4">
-      <c r="A423" s="20" t="s">
+      <c r="A423" s="23" t="s">
         <v>508</v>
       </c>
       <c r="B423" s="10" t="s">
@@ -59792,7 +59792,7 @@
       <c r="D423" s="12"/>
     </row>
     <row r="424" spans="1:4">
-      <c r="A424" s="20"/>
+      <c r="A424" s="23"/>
       <c r="B424" s="10" t="s">
         <v>196</v>
       </c>
@@ -59802,7 +59802,7 @@
       <c r="D424" s="12"/>
     </row>
     <row r="425" spans="1:4">
-      <c r="A425" s="20" t="s">
+      <c r="A425" s="23" t="s">
         <v>509</v>
       </c>
       <c r="B425" s="10" t="s">
@@ -59814,7 +59814,7 @@
       <c r="D425" s="12"/>
     </row>
     <row r="426" spans="1:4">
-      <c r="A426" s="20"/>
+      <c r="A426" s="23"/>
       <c r="B426" s="10" t="s">
         <v>196</v>
       </c>
@@ -59824,7 +59824,7 @@
       <c r="D426" s="12"/>
     </row>
     <row r="427" spans="1:4">
-      <c r="A427" s="20" t="s">
+      <c r="A427" s="23" t="s">
         <v>510</v>
       </c>
       <c r="B427" s="10" t="s">
@@ -59836,7 +59836,7 @@
       <c r="D427" s="12"/>
     </row>
     <row r="428" spans="1:4">
-      <c r="A428" s="20"/>
+      <c r="A428" s="23"/>
       <c r="B428" s="10" t="s">
         <v>196</v>
       </c>
@@ -59846,7 +59846,7 @@
       <c r="D428" s="12"/>
     </row>
     <row r="429" spans="1:4">
-      <c r="A429" s="20" t="s">
+      <c r="A429" s="23" t="s">
         <v>511</v>
       </c>
       <c r="B429" s="10" t="s">
@@ -59858,7 +59858,7 @@
       <c r="D429" s="12"/>
     </row>
     <row r="430" spans="1:4">
-      <c r="A430" s="20"/>
+      <c r="A430" s="23"/>
       <c r="B430" s="10" t="s">
         <v>196</v>
       </c>
@@ -59868,7 +59868,7 @@
       <c r="D430" s="12"/>
     </row>
     <row r="431" spans="1:4">
-      <c r="A431" s="20"/>
+      <c r="A431" s="23"/>
       <c r="B431" s="10" t="s">
         <v>325</v>
       </c>
@@ -59878,7 +59878,7 @@
       <c r="D431" s="12"/>
     </row>
     <row r="432" spans="1:4">
-      <c r="A432" s="20"/>
+      <c r="A432" s="23"/>
       <c r="B432" s="10" t="s">
         <v>300</v>
       </c>
@@ -59888,7 +59888,7 @@
       <c r="D432" s="12"/>
     </row>
     <row r="433" spans="1:4">
-      <c r="A433" s="20"/>
+      <c r="A433" s="23"/>
       <c r="B433" s="10" t="s">
         <v>301</v>
       </c>
@@ -59898,7 +59898,7 @@
       <c r="D433" s="12"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="20"/>
+      <c r="A434" s="23"/>
       <c r="B434" s="10" t="s">
         <v>299</v>
       </c>
@@ -59908,7 +59908,7 @@
       <c r="D434" s="12"/>
     </row>
     <row r="435" spans="1:4">
-      <c r="A435" s="20"/>
+      <c r="A435" s="23"/>
       <c r="B435" s="10" t="s">
         <v>290</v>
       </c>
@@ -59918,7 +59918,7 @@
       <c r="D435" s="12"/>
     </row>
     <row r="436" spans="1:4">
-      <c r="A436" s="20"/>
+      <c r="A436" s="23"/>
       <c r="B436" s="10" t="s">
         <v>295</v>
       </c>
@@ -59928,7 +59928,7 @@
       <c r="D436" s="12"/>
     </row>
     <row r="437" spans="1:4">
-      <c r="A437" s="20"/>
+      <c r="A437" s="23"/>
       <c r="B437" s="10" t="s">
         <v>182</v>
       </c>
@@ -59938,7 +59938,7 @@
       <c r="D437" s="12"/>
     </row>
     <row r="438" spans="1:4">
-      <c r="A438" s="20"/>
+      <c r="A438" s="23"/>
       <c r="B438" s="10" t="s">
         <v>296</v>
       </c>
@@ -59948,7 +59948,7 @@
       <c r="D438" s="12"/>
     </row>
     <row r="439" spans="1:4">
-      <c r="A439" s="20"/>
+      <c r="A439" s="23"/>
       <c r="B439" s="10" t="s">
         <v>237</v>
       </c>
@@ -59958,7 +59958,7 @@
       <c r="D439" s="12"/>
     </row>
     <row r="440" spans="1:4">
-      <c r="A440" s="20" t="s">
+      <c r="A440" s="23" t="s">
         <v>512</v>
       </c>
       <c r="B440" s="10" t="s">
@@ -59970,7 +59970,7 @@
       <c r="D440" s="12"/>
     </row>
     <row r="441" spans="1:4">
-      <c r="A441" s="20"/>
+      <c r="A441" s="23"/>
       <c r="B441" s="10" t="s">
         <v>196</v>
       </c>
@@ -59980,7 +59980,7 @@
       <c r="D441" s="12"/>
     </row>
     <row r="442" spans="1:4">
-      <c r="A442" s="20"/>
+      <c r="A442" s="23"/>
       <c r="B442" s="10" t="s">
         <v>325</v>
       </c>
@@ -59990,7 +59990,7 @@
       <c r="D442" s="12"/>
     </row>
     <row r="443" spans="1:4">
-      <c r="A443" s="20"/>
+      <c r="A443" s="23"/>
       <c r="B443" s="10" t="s">
         <v>300</v>
       </c>
@@ -60000,7 +60000,7 @@
       <c r="D443" s="12"/>
     </row>
     <row r="444" spans="1:4">
-      <c r="A444" s="20"/>
+      <c r="A444" s="23"/>
       <c r="B444" s="10" t="s">
         <v>301</v>
       </c>
@@ -60010,7 +60010,7 @@
       <c r="D444" s="12"/>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="20"/>
+      <c r="A445" s="23"/>
       <c r="B445" s="10" t="s">
         <v>299</v>
       </c>
@@ -60020,7 +60020,7 @@
       <c r="D445" s="12"/>
     </row>
     <row r="446" spans="1:4">
-      <c r="A446" s="20"/>
+      <c r="A446" s="23"/>
       <c r="B446" s="10" t="s">
         <v>290</v>
       </c>
@@ -60030,7 +60030,7 @@
       <c r="D446" s="12"/>
     </row>
     <row r="447" spans="1:4">
-      <c r="A447" s="20"/>
+      <c r="A447" s="23"/>
       <c r="B447" s="10" t="s">
         <v>295</v>
       </c>
@@ -60040,7 +60040,7 @@
       <c r="D447" s="12"/>
     </row>
     <row r="448" spans="1:4">
-      <c r="A448" s="20"/>
+      <c r="A448" s="23"/>
       <c r="B448" s="10" t="s">
         <v>182</v>
       </c>
@@ -60050,7 +60050,7 @@
       <c r="D448" s="12"/>
     </row>
     <row r="449" spans="1:4">
-      <c r="A449" s="20"/>
+      <c r="A449" s="23"/>
       <c r="B449" s="10" t="s">
         <v>296</v>
       </c>
@@ -60060,7 +60060,7 @@
       <c r="D449" s="12"/>
     </row>
     <row r="450" spans="1:4">
-      <c r="A450" s="20"/>
+      <c r="A450" s="23"/>
       <c r="B450" s="10" t="s">
         <v>237</v>
       </c>
@@ -60070,7 +60070,7 @@
       <c r="D450" s="12"/>
     </row>
     <row r="451" spans="1:4">
-      <c r="A451" s="20" t="s">
+      <c r="A451" s="23" t="s">
         <v>513</v>
       </c>
       <c r="B451" s="10" t="s">
@@ -60082,7 +60082,7 @@
       <c r="D451" s="12"/>
     </row>
     <row r="452" spans="1:4">
-      <c r="A452" s="20"/>
+      <c r="A452" s="23"/>
       <c r="B452" s="10" t="s">
         <v>196</v>
       </c>
@@ -60092,7 +60092,7 @@
       <c r="D452" s="12"/>
     </row>
     <row r="453" spans="1:4">
-      <c r="A453" s="20"/>
+      <c r="A453" s="23"/>
       <c r="B453" s="10" t="s">
         <v>325</v>
       </c>
@@ -60102,7 +60102,7 @@
       <c r="D453" s="12"/>
     </row>
     <row r="454" spans="1:4">
-      <c r="A454" s="20"/>
+      <c r="A454" s="23"/>
       <c r="B454" s="10" t="s">
         <v>300</v>
       </c>
@@ -60112,7 +60112,7 @@
       <c r="D454" s="12"/>
     </row>
     <row r="455" spans="1:4">
-      <c r="A455" s="20"/>
+      <c r="A455" s="23"/>
       <c r="B455" s="10" t="s">
         <v>301</v>
       </c>
@@ -60122,7 +60122,7 @@
       <c r="D455" s="12"/>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="20"/>
+      <c r="A456" s="23"/>
       <c r="B456" s="10" t="s">
         <v>299</v>
       </c>
@@ -60132,7 +60132,7 @@
       <c r="D456" s="12"/>
     </row>
     <row r="457" spans="1:4">
-      <c r="A457" s="20"/>
+      <c r="A457" s="23"/>
       <c r="B457" s="10" t="s">
         <v>290</v>
       </c>
@@ -60142,7 +60142,7 @@
       <c r="D457" s="12"/>
     </row>
     <row r="458" spans="1:4">
-      <c r="A458" s="20"/>
+      <c r="A458" s="23"/>
       <c r="B458" s="10" t="s">
         <v>295</v>
       </c>
@@ -60152,7 +60152,7 @@
       <c r="D458" s="12"/>
     </row>
     <row r="459" spans="1:4">
-      <c r="A459" s="20"/>
+      <c r="A459" s="23"/>
       <c r="B459" s="10" t="s">
         <v>182</v>
       </c>
@@ -60162,7 +60162,7 @@
       <c r="D459" s="12"/>
     </row>
     <row r="460" spans="1:4">
-      <c r="A460" s="20"/>
+      <c r="A460" s="23"/>
       <c r="B460" s="10" t="s">
         <v>296</v>
       </c>
@@ -60172,7 +60172,7 @@
       <c r="D460" s="12"/>
     </row>
     <row r="461" spans="1:4">
-      <c r="A461" s="20"/>
+      <c r="A461" s="23"/>
       <c r="B461" s="10" t="s">
         <v>237</v>
       </c>
@@ -60182,7 +60182,7 @@
       <c r="D461" s="12"/>
     </row>
     <row r="462" spans="1:4">
-      <c r="A462" s="20" t="s">
+      <c r="A462" s="23" t="s">
         <v>514</v>
       </c>
       <c r="B462" s="10" t="s">
@@ -60194,7 +60194,7 @@
       <c r="D462" s="12"/>
     </row>
     <row r="463" spans="1:4">
-      <c r="A463" s="20"/>
+      <c r="A463" s="23"/>
       <c r="B463" s="10" t="s">
         <v>196</v>
       </c>
@@ -60204,7 +60204,7 @@
       <c r="D463" s="12"/>
     </row>
     <row r="464" spans="1:4">
-      <c r="A464" s="20"/>
+      <c r="A464" s="23"/>
       <c r="B464" s="10" t="s">
         <v>325</v>
       </c>
@@ -60214,7 +60214,7 @@
       <c r="D464" s="12"/>
     </row>
     <row r="465" spans="1:4">
-      <c r="A465" s="20"/>
+      <c r="A465" s="23"/>
       <c r="B465" s="10" t="s">
         <v>300</v>
       </c>
@@ -60224,7 +60224,7 @@
       <c r="D465" s="12"/>
     </row>
     <row r="466" spans="1:4">
-      <c r="A466" s="20"/>
+      <c r="A466" s="23"/>
       <c r="B466" s="10" t="s">
         <v>301</v>
       </c>
@@ -60234,7 +60234,7 @@
       <c r="D466" s="12"/>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="20"/>
+      <c r="A467" s="23"/>
       <c r="B467" s="10" t="s">
         <v>299</v>
       </c>
@@ -60244,7 +60244,7 @@
       <c r="D467" s="12"/>
     </row>
     <row r="468" spans="1:4">
-      <c r="A468" s="20"/>
+      <c r="A468" s="23"/>
       <c r="B468" s="10" t="s">
         <v>290</v>
       </c>
@@ -60254,7 +60254,7 @@
       <c r="D468" s="12"/>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="20"/>
+      <c r="A469" s="23"/>
       <c r="B469" s="10" t="s">
         <v>295</v>
       </c>
@@ -60264,7 +60264,7 @@
       <c r="D469" s="12"/>
     </row>
     <row r="470" spans="1:4">
-      <c r="A470" s="20"/>
+      <c r="A470" s="23"/>
       <c r="B470" s="10" t="s">
         <v>182</v>
       </c>
@@ -60274,7 +60274,7 @@
       <c r="D470" s="12"/>
     </row>
     <row r="471" spans="1:4">
-      <c r="A471" s="20"/>
+      <c r="A471" s="23"/>
       <c r="B471" s="10" t="s">
         <v>296</v>
       </c>
@@ -60284,7 +60284,7 @@
       <c r="D471" s="12"/>
     </row>
     <row r="472" spans="1:4">
-      <c r="A472" s="20"/>
+      <c r="A472" s="23"/>
       <c r="B472" s="10" t="s">
         <v>237</v>
       </c>
@@ -60294,7 +60294,7 @@
       <c r="D472" s="12"/>
     </row>
     <row r="473" spans="1:4">
-      <c r="A473" s="20" t="s">
+      <c r="A473" s="23" t="s">
         <v>515</v>
       </c>
       <c r="B473" s="10" t="s">
@@ -60306,7 +60306,7 @@
       <c r="D473" s="12"/>
     </row>
     <row r="474" spans="1:4">
-      <c r="A474" s="20"/>
+      <c r="A474" s="23"/>
       <c r="B474" s="10" t="s">
         <v>196</v>
       </c>
@@ -60316,7 +60316,7 @@
       <c r="D474" s="12"/>
     </row>
     <row r="475" spans="1:4">
-      <c r="A475" s="20"/>
+      <c r="A475" s="23"/>
       <c r="B475" s="10" t="s">
         <v>325</v>
       </c>
@@ -60326,7 +60326,7 @@
       <c r="D475" s="12"/>
     </row>
     <row r="476" spans="1:4">
-      <c r="A476" s="20"/>
+      <c r="A476" s="23"/>
       <c r="B476" s="10" t="s">
         <v>300</v>
       </c>
@@ -60336,7 +60336,7 @@
       <c r="D476" s="12"/>
     </row>
     <row r="477" spans="1:4">
-      <c r="A477" s="20"/>
+      <c r="A477" s="23"/>
       <c r="B477" s="10" t="s">
         <v>301</v>
       </c>
@@ -60346,7 +60346,7 @@
       <c r="D477" s="12"/>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="20"/>
+      <c r="A478" s="23"/>
       <c r="B478" s="10" t="s">
         <v>299</v>
       </c>
@@ -60356,7 +60356,7 @@
       <c r="D478" s="12"/>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="20"/>
+      <c r="A479" s="23"/>
       <c r="B479" s="10" t="s">
         <v>290</v>
       </c>
@@ -60366,7 +60366,7 @@
       <c r="D479" s="12"/>
     </row>
     <row r="480" spans="1:4">
-      <c r="A480" s="20" t="s">
+      <c r="A480" s="23" t="s">
         <v>516</v>
       </c>
       <c r="B480" s="10" t="s">
@@ -60378,7 +60378,7 @@
       <c r="D480" s="12"/>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="20"/>
+      <c r="A481" s="23"/>
       <c r="B481" s="10" t="s">
         <v>196</v>
       </c>
@@ -60388,7 +60388,7 @@
       <c r="D481" s="12"/>
     </row>
     <row r="482" spans="1:4">
-      <c r="A482" s="20"/>
+      <c r="A482" s="23"/>
       <c r="B482" s="10" t="s">
         <v>325</v>
       </c>
@@ -60398,7 +60398,7 @@
       <c r="D482" s="12"/>
     </row>
     <row r="483" spans="1:4">
-      <c r="A483" s="20"/>
+      <c r="A483" s="23"/>
       <c r="B483" s="10" t="s">
         <v>300</v>
       </c>
@@ -60408,7 +60408,7 @@
       <c r="D483" s="12"/>
     </row>
     <row r="484" spans="1:4">
-      <c r="A484" s="20"/>
+      <c r="A484" s="23"/>
       <c r="B484" s="10" t="s">
         <v>301</v>
       </c>
@@ -60418,7 +60418,7 @@
       <c r="D484" s="12"/>
     </row>
     <row r="485" spans="1:4">
-      <c r="A485" s="20"/>
+      <c r="A485" s="23"/>
       <c r="B485" s="10" t="s">
         <v>299</v>
       </c>
@@ -60428,7 +60428,7 @@
       <c r="D485" s="12"/>
     </row>
     <row r="486" spans="1:4">
-      <c r="A486" s="20"/>
+      <c r="A486" s="23"/>
       <c r="B486" s="10" t="s">
         <v>290</v>
       </c>
@@ -60438,7 +60438,7 @@
       <c r="D486" s="12"/>
     </row>
     <row r="487" spans="1:4">
-      <c r="A487" s="20" t="s">
+      <c r="A487" s="23" t="s">
         <v>517</v>
       </c>
       <c r="B487" s="10" t="s">
@@ -60450,7 +60450,7 @@
       <c r="D487" s="12"/>
     </row>
     <row r="488" spans="1:4">
-      <c r="A488" s="20"/>
+      <c r="A488" s="23"/>
       <c r="B488" s="10" t="s">
         <v>196</v>
       </c>
@@ -60460,7 +60460,7 @@
       <c r="D488" s="12"/>
     </row>
     <row r="489" spans="1:4">
-      <c r="A489" s="20"/>
+      <c r="A489" s="23"/>
       <c r="B489" s="10" t="s">
         <v>325</v>
       </c>
@@ -60470,7 +60470,7 @@
       <c r="D489" s="12"/>
     </row>
     <row r="490" spans="1:4">
-      <c r="A490" s="20"/>
+      <c r="A490" s="23"/>
       <c r="B490" s="10" t="s">
         <v>300</v>
       </c>
@@ -60480,7 +60480,7 @@
       <c r="D490" s="12"/>
     </row>
     <row r="491" spans="1:4">
-      <c r="A491" s="20"/>
+      <c r="A491" s="23"/>
       <c r="B491" s="10" t="s">
         <v>301</v>
       </c>
@@ -60490,7 +60490,7 @@
       <c r="D491" s="12"/>
     </row>
     <row r="492" spans="1:4">
-      <c r="A492" s="20"/>
+      <c r="A492" s="23"/>
       <c r="B492" s="10" t="s">
         <v>299</v>
       </c>
@@ -60500,7 +60500,7 @@
       <c r="D492" s="12"/>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="20"/>
+      <c r="A493" s="23"/>
       <c r="B493" s="10" t="s">
         <v>290</v>
       </c>
@@ -60510,7 +60510,7 @@
       <c r="D493" s="12"/>
     </row>
     <row r="494" spans="1:4">
-      <c r="A494" s="20" t="s">
+      <c r="A494" s="23" t="s">
         <v>518</v>
       </c>
       <c r="B494" s="10" t="s">
@@ -60522,7 +60522,7 @@
       <c r="D494" s="12"/>
     </row>
     <row r="495" spans="1:4">
-      <c r="A495" s="20"/>
+      <c r="A495" s="23"/>
       <c r="B495" s="10" t="s">
         <v>196</v>
       </c>
@@ -60532,7 +60532,7 @@
       <c r="D495" s="12"/>
     </row>
     <row r="496" spans="1:4">
-      <c r="A496" s="20"/>
+      <c r="A496" s="23"/>
       <c r="B496" s="10" t="s">
         <v>325</v>
       </c>
@@ -60542,7 +60542,7 @@
       <c r="D496" s="12"/>
     </row>
     <row r="497" spans="1:4">
-      <c r="A497" s="20"/>
+      <c r="A497" s="23"/>
       <c r="B497" s="10" t="s">
         <v>300</v>
       </c>
@@ -60552,7 +60552,7 @@
       <c r="D497" s="12"/>
     </row>
     <row r="498" spans="1:4">
-      <c r="A498" s="20"/>
+      <c r="A498" s="23"/>
       <c r="B498" s="10" t="s">
         <v>301</v>
       </c>
@@ -60562,7 +60562,7 @@
       <c r="D498" s="12"/>
     </row>
     <row r="499" spans="1:4">
-      <c r="A499" s="20"/>
+      <c r="A499" s="23"/>
       <c r="B499" s="10" t="s">
         <v>299</v>
       </c>
@@ -60572,7 +60572,7 @@
       <c r="D499" s="12"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="20"/>
+      <c r="A500" s="23"/>
       <c r="B500" s="10" t="s">
         <v>290</v>
       </c>
@@ -60582,7 +60582,7 @@
       <c r="D500" s="12"/>
     </row>
     <row r="501" spans="1:4">
-      <c r="A501" s="20" t="s">
+      <c r="A501" s="23" t="s">
         <v>519</v>
       </c>
       <c r="B501" s="10" t="s">
@@ -60594,7 +60594,7 @@
       <c r="D501" s="12"/>
     </row>
     <row r="502" spans="1:4">
-      <c r="A502" s="20"/>
+      <c r="A502" s="23"/>
       <c r="B502" s="10" t="s">
         <v>196</v>
       </c>
@@ -60604,7 +60604,7 @@
       <c r="D502" s="12"/>
     </row>
     <row r="503" spans="1:4">
-      <c r="A503" s="20"/>
+      <c r="A503" s="23"/>
       <c r="B503" s="10" t="s">
         <v>325</v>
       </c>
@@ -60614,7 +60614,7 @@
       <c r="D503" s="12"/>
     </row>
     <row r="504" spans="1:4">
-      <c r="A504" s="20"/>
+      <c r="A504" s="23"/>
       <c r="B504" s="10" t="s">
         <v>300</v>
       </c>
@@ -60624,7 +60624,7 @@
       <c r="D504" s="12"/>
     </row>
     <row r="505" spans="1:4">
-      <c r="A505" s="20"/>
+      <c r="A505" s="23"/>
       <c r="B505" s="10" t="s">
         <v>301</v>
       </c>
@@ -60634,7 +60634,7 @@
       <c r="D505" s="12"/>
     </row>
     <row r="506" spans="1:4">
-      <c r="A506" s="20"/>
+      <c r="A506" s="23"/>
       <c r="B506" s="10" t="s">
         <v>299</v>
       </c>
@@ -60644,7 +60644,7 @@
       <c r="D506" s="12"/>
     </row>
     <row r="507" spans="1:4">
-      <c r="A507" s="20"/>
+      <c r="A507" s="23"/>
       <c r="B507" s="10" t="s">
         <v>290</v>
       </c>
@@ -60654,7 +60654,7 @@
       <c r="D507" s="12"/>
     </row>
     <row r="508" spans="1:4">
-      <c r="A508" s="20" t="s">
+      <c r="A508" s="23" t="s">
         <v>520</v>
       </c>
       <c r="B508" s="10" t="s">
@@ -60666,7 +60666,7 @@
       <c r="D508" s="12"/>
     </row>
     <row r="509" spans="1:4">
-      <c r="A509" s="20"/>
+      <c r="A509" s="23"/>
       <c r="B509" s="10" t="s">
         <v>196</v>
       </c>
@@ -60676,7 +60676,7 @@
       <c r="D509" s="12"/>
     </row>
     <row r="510" spans="1:4">
-      <c r="A510" s="20"/>
+      <c r="A510" s="23"/>
       <c r="B510" s="10" t="s">
         <v>325</v>
       </c>
@@ -60686,7 +60686,7 @@
       <c r="D510" s="12"/>
     </row>
     <row r="511" spans="1:4">
-      <c r="A511" s="20"/>
+      <c r="A511" s="23"/>
       <c r="B511" s="10" t="s">
         <v>300</v>
       </c>
@@ -60696,7 +60696,7 @@
       <c r="D511" s="12"/>
     </row>
     <row r="512" spans="1:4">
-      <c r="A512" s="20"/>
+      <c r="A512" s="23"/>
       <c r="B512" s="10" t="s">
         <v>301</v>
       </c>
@@ -60706,7 +60706,7 @@
       <c r="D512" s="12"/>
     </row>
     <row r="513" spans="1:4">
-      <c r="A513" s="20"/>
+      <c r="A513" s="23"/>
       <c r="B513" s="10" t="s">
         <v>299</v>
       </c>
@@ -60716,7 +60716,7 @@
       <c r="D513" s="12"/>
     </row>
     <row r="514" spans="1:4">
-      <c r="A514" s="20"/>
+      <c r="A514" s="23"/>
       <c r="B514" s="10" t="s">
         <v>290</v>
       </c>
@@ -60726,7 +60726,7 @@
       <c r="D514" s="12"/>
     </row>
     <row r="515" spans="1:4">
-      <c r="A515" s="20" t="s">
+      <c r="A515" s="23" t="s">
         <v>521</v>
       </c>
       <c r="B515" s="10" t="s">
@@ -60738,7 +60738,7 @@
       <c r="D515" s="12"/>
     </row>
     <row r="516" spans="1:4">
-      <c r="A516" s="20"/>
+      <c r="A516" s="23"/>
       <c r="B516" s="10" t="s">
         <v>196</v>
       </c>
@@ -60748,7 +60748,7 @@
       <c r="D516" s="12"/>
     </row>
     <row r="517" spans="1:4">
-      <c r="A517" s="20"/>
+      <c r="A517" s="23"/>
       <c r="B517" s="10" t="s">
         <v>325</v>
       </c>
@@ -60758,7 +60758,7 @@
       <c r="D517" s="12"/>
     </row>
     <row r="518" spans="1:4">
-      <c r="A518" s="20"/>
+      <c r="A518" s="23"/>
       <c r="B518" s="10" t="s">
         <v>300</v>
       </c>
@@ -60768,7 +60768,7 @@
       <c r="D518" s="12"/>
     </row>
     <row r="519" spans="1:4">
-      <c r="A519" s="20"/>
+      <c r="A519" s="23"/>
       <c r="B519" s="10" t="s">
         <v>301</v>
       </c>
@@ -60778,7 +60778,7 @@
       <c r="D519" s="12"/>
     </row>
     <row r="520" spans="1:4">
-      <c r="A520" s="20"/>
+      <c r="A520" s="23"/>
       <c r="B520" s="10" t="s">
         <v>299</v>
       </c>
@@ -60788,7 +60788,7 @@
       <c r="D520" s="12"/>
     </row>
     <row r="521" spans="1:4">
-      <c r="A521" s="20"/>
+      <c r="A521" s="23"/>
       <c r="B521" s="10" t="s">
         <v>290</v>
       </c>
@@ -60798,7 +60798,7 @@
       <c r="D521" s="12"/>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="20" t="s">
+      <c r="A522" s="23" t="s">
         <v>522</v>
       </c>
       <c r="B522" s="10" t="s">
@@ -60810,7 +60810,7 @@
       <c r="D522" s="12"/>
     </row>
     <row r="523" spans="1:4">
-      <c r="A523" s="20"/>
+      <c r="A523" s="23"/>
       <c r="B523" s="10" t="s">
         <v>196</v>
       </c>
@@ -60820,7 +60820,7 @@
       <c r="D523" s="12"/>
     </row>
     <row r="524" spans="1:4">
-      <c r="A524" s="20"/>
+      <c r="A524" s="23"/>
       <c r="B524" s="10" t="s">
         <v>325</v>
       </c>
@@ -60830,7 +60830,7 @@
       <c r="D524" s="12"/>
     </row>
     <row r="525" spans="1:4">
-      <c r="A525" s="20"/>
+      <c r="A525" s="23"/>
       <c r="B525" s="10" t="s">
         <v>300</v>
       </c>
@@ -60840,7 +60840,7 @@
       <c r="D525" s="12"/>
     </row>
     <row r="526" spans="1:4">
-      <c r="A526" s="20"/>
+      <c r="A526" s="23"/>
       <c r="B526" s="10" t="s">
         <v>301</v>
       </c>
@@ -60850,7 +60850,7 @@
       <c r="D526" s="12"/>
     </row>
     <row r="527" spans="1:4">
-      <c r="A527" s="20"/>
+      <c r="A527" s="23"/>
       <c r="B527" s="10" t="s">
         <v>299</v>
       </c>
@@ -60860,7 +60860,7 @@
       <c r="D527" s="12"/>
     </row>
     <row r="528" spans="1:4">
-      <c r="A528" s="20"/>
+      <c r="A528" s="23"/>
       <c r="B528" s="10" t="s">
         <v>290</v>
       </c>
@@ -60870,7 +60870,7 @@
       <c r="D528" s="12"/>
     </row>
     <row r="529" spans="1:4">
-      <c r="A529" s="20" t="s">
+      <c r="A529" s="23" t="s">
         <v>523</v>
       </c>
       <c r="B529" s="10" t="s">
@@ -60882,7 +60882,7 @@
       <c r="D529" s="12"/>
     </row>
     <row r="530" spans="1:4">
-      <c r="A530" s="20"/>
+      <c r="A530" s="23"/>
       <c r="B530" s="10" t="s">
         <v>196</v>
       </c>
@@ -60892,7 +60892,7 @@
       <c r="D530" s="12"/>
     </row>
     <row r="531" spans="1:4">
-      <c r="A531" s="20"/>
+      <c r="A531" s="23"/>
       <c r="B531" s="10" t="s">
         <v>325</v>
       </c>
@@ -60902,7 +60902,7 @@
       <c r="D531" s="12"/>
     </row>
     <row r="532" spans="1:4">
-      <c r="A532" s="20"/>
+      <c r="A532" s="23"/>
       <c r="B532" s="10" t="s">
         <v>300</v>
       </c>
@@ -60912,7 +60912,7 @@
       <c r="D532" s="12"/>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="20"/>
+      <c r="A533" s="23"/>
       <c r="B533" s="10" t="s">
         <v>301</v>
       </c>
@@ -60922,7 +60922,7 @@
       <c r="D533" s="12"/>
     </row>
     <row r="534" spans="1:4">
-      <c r="A534" s="20"/>
+      <c r="A534" s="23"/>
       <c r="B534" s="10" t="s">
         <v>299</v>
       </c>
@@ -60932,7 +60932,7 @@
       <c r="D534" s="12"/>
     </row>
     <row r="535" spans="1:4">
-      <c r="A535" s="20"/>
+      <c r="A535" s="23"/>
       <c r="B535" s="10" t="s">
         <v>290</v>
       </c>
@@ -60942,7 +60942,7 @@
       <c r="D535" s="12"/>
     </row>
     <row r="536" spans="1:4">
-      <c r="A536" s="20" t="s">
+      <c r="A536" s="23" t="s">
         <v>524</v>
       </c>
       <c r="B536" s="10" t="s">
@@ -60954,7 +60954,7 @@
       <c r="D536" s="12"/>
     </row>
     <row r="537" spans="1:4">
-      <c r="A537" s="20"/>
+      <c r="A537" s="23"/>
       <c r="B537" s="10" t="s">
         <v>196</v>
       </c>
@@ -60964,7 +60964,7 @@
       <c r="D537" s="12"/>
     </row>
     <row r="538" spans="1:4">
-      <c r="A538" s="20"/>
+      <c r="A538" s="23"/>
       <c r="B538" s="10" t="s">
         <v>325</v>
       </c>
@@ -60974,7 +60974,7 @@
       <c r="D538" s="12"/>
     </row>
     <row r="539" spans="1:4">
-      <c r="A539" s="20"/>
+      <c r="A539" s="23"/>
       <c r="B539" s="10" t="s">
         <v>300</v>
       </c>
@@ -60984,7 +60984,7 @@
       <c r="D539" s="12"/>
     </row>
     <row r="540" spans="1:4">
-      <c r="A540" s="20"/>
+      <c r="A540" s="23"/>
       <c r="B540" s="10" t="s">
         <v>301</v>
       </c>
@@ -60994,7 +60994,7 @@
       <c r="D540" s="12"/>
     </row>
     <row r="541" spans="1:4">
-      <c r="A541" s="20"/>
+      <c r="A541" s="23"/>
       <c r="B541" s="10" t="s">
         <v>299</v>
       </c>
@@ -61004,7 +61004,7 @@
       <c r="D541" s="12"/>
     </row>
     <row r="542" spans="1:4">
-      <c r="A542" s="20"/>
+      <c r="A542" s="23"/>
       <c r="B542" s="10" t="s">
         <v>290</v>
       </c>
@@ -61014,7 +61014,7 @@
       <c r="D542" s="12"/>
     </row>
     <row r="543" spans="1:4">
-      <c r="A543" s="20" t="s">
+      <c r="A543" s="23" t="s">
         <v>525</v>
       </c>
       <c r="B543" s="10" t="s">
@@ -61026,7 +61026,7 @@
       <c r="D543" s="12"/>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="20"/>
+      <c r="A544" s="23"/>
       <c r="B544" s="10" t="s">
         <v>196</v>
       </c>
@@ -61036,7 +61036,7 @@
       <c r="D544" s="12"/>
     </row>
     <row r="545" spans="1:4">
-      <c r="A545" s="20"/>
+      <c r="A545" s="23"/>
       <c r="B545" s="10" t="s">
         <v>325</v>
       </c>
@@ -61046,7 +61046,7 @@
       <c r="D545" s="12"/>
     </row>
     <row r="546" spans="1:4">
-      <c r="A546" s="20"/>
+      <c r="A546" s="23"/>
       <c r="B546" s="10" t="s">
         <v>300</v>
       </c>
@@ -61056,7 +61056,7 @@
       <c r="D546" s="12"/>
     </row>
     <row r="547" spans="1:4">
-      <c r="A547" s="20"/>
+      <c r="A547" s="23"/>
       <c r="B547" s="10" t="s">
         <v>301</v>
       </c>
@@ -61066,7 +61066,7 @@
       <c r="D547" s="12"/>
     </row>
     <row r="548" spans="1:4">
-      <c r="A548" s="20"/>
+      <c r="A548" s="23"/>
       <c r="B548" s="10" t="s">
         <v>299</v>
       </c>
@@ -61076,7 +61076,7 @@
       <c r="D548" s="12"/>
     </row>
     <row r="549" spans="1:4">
-      <c r="A549" s="20"/>
+      <c r="A549" s="23"/>
       <c r="B549" s="10" t="s">
         <v>290</v>
       </c>
@@ -61086,7 +61086,7 @@
       <c r="D549" s="12"/>
     </row>
     <row r="550" spans="1:4">
-      <c r="A550" s="20" t="s">
+      <c r="A550" s="23" t="s">
         <v>526</v>
       </c>
       <c r="B550" s="10" t="s">
@@ -61098,7 +61098,7 @@
       <c r="D550" s="12"/>
     </row>
     <row r="551" spans="1:4">
-      <c r="A551" s="20"/>
+      <c r="A551" s="23"/>
       <c r="B551" s="10" t="s">
         <v>196</v>
       </c>
@@ -61108,7 +61108,7 @@
       <c r="D551" s="12"/>
     </row>
     <row r="552" spans="1:4">
-      <c r="A552" s="20"/>
+      <c r="A552" s="23"/>
       <c r="B552" s="10" t="s">
         <v>325</v>
       </c>
@@ -61118,7 +61118,7 @@
       <c r="D552" s="12"/>
     </row>
     <row r="553" spans="1:4">
-      <c r="A553" s="20"/>
+      <c r="A553" s="23"/>
       <c r="B553" s="10" t="s">
         <v>300</v>
       </c>
@@ -61128,7 +61128,7 @@
       <c r="D553" s="12"/>
     </row>
     <row r="554" spans="1:4">
-      <c r="A554" s="20"/>
+      <c r="A554" s="23"/>
       <c r="B554" s="10" t="s">
         <v>301</v>
       </c>
@@ -61138,7 +61138,7 @@
       <c r="D554" s="12"/>
     </row>
     <row r="555" spans="1:4">
-      <c r="A555" s="20"/>
+      <c r="A555" s="23"/>
       <c r="B555" s="10" t="s">
         <v>299</v>
       </c>
@@ -61148,7 +61148,7 @@
       <c r="D555" s="12"/>
     </row>
     <row r="556" spans="1:4">
-      <c r="A556" s="20"/>
+      <c r="A556" s="23"/>
       <c r="B556" s="10" t="s">
         <v>290</v>
       </c>
@@ -61158,7 +61158,7 @@
       <c r="D556" s="12"/>
     </row>
     <row r="557" spans="1:4">
-      <c r="A557" s="20" t="s">
+      <c r="A557" s="23" t="s">
         <v>527</v>
       </c>
       <c r="B557" s="10" t="s">
@@ -61170,7 +61170,7 @@
       <c r="D557" s="12"/>
     </row>
     <row r="558" spans="1:4">
-      <c r="A558" s="20"/>
+      <c r="A558" s="23"/>
       <c r="B558" s="10" t="s">
         <v>196</v>
       </c>
@@ -61180,7 +61180,7 @@
       <c r="D558" s="12"/>
     </row>
     <row r="559" spans="1:4">
-      <c r="A559" s="20"/>
+      <c r="A559" s="23"/>
       <c r="B559" s="10" t="s">
         <v>325</v>
       </c>
@@ -61190,7 +61190,7 @@
       <c r="D559" s="12"/>
     </row>
     <row r="560" spans="1:4">
-      <c r="A560" s="20"/>
+      <c r="A560" s="23"/>
       <c r="B560" s="10" t="s">
         <v>300</v>
       </c>
@@ -61200,7 +61200,7 @@
       <c r="D560" s="12"/>
     </row>
     <row r="561" spans="1:4">
-      <c r="A561" s="20"/>
+      <c r="A561" s="23"/>
       <c r="B561" s="10" t="s">
         <v>301</v>
       </c>
@@ -61210,7 +61210,7 @@
       <c r="D561" s="12"/>
     </row>
     <row r="562" spans="1:4">
-      <c r="A562" s="20"/>
+      <c r="A562" s="23"/>
       <c r="B562" s="10" t="s">
         <v>299</v>
       </c>
@@ -61220,7 +61220,7 @@
       <c r="D562" s="12"/>
     </row>
     <row r="563" spans="1:4">
-      <c r="A563" s="20"/>
+      <c r="A563" s="23"/>
       <c r="B563" s="10" t="s">
         <v>290</v>
       </c>
@@ -61230,7 +61230,7 @@
       <c r="D563" s="12"/>
     </row>
     <row r="564" spans="1:4">
-      <c r="A564" s="20" t="s">
+      <c r="A564" s="23" t="s">
         <v>528</v>
       </c>
       <c r="B564" s="10" t="s">
@@ -61242,7 +61242,7 @@
       <c r="D564" s="12"/>
     </row>
     <row r="565" spans="1:4">
-      <c r="A565" s="20"/>
+      <c r="A565" s="23"/>
       <c r="B565" s="10" t="s">
         <v>196</v>
       </c>
@@ -61252,7 +61252,7 @@
       <c r="D565" s="12"/>
     </row>
     <row r="566" spans="1:4">
-      <c r="A566" s="20"/>
+      <c r="A566" s="23"/>
       <c r="B566" s="10" t="s">
         <v>325</v>
       </c>
@@ -61262,7 +61262,7 @@
       <c r="D566" s="12"/>
     </row>
     <row r="567" spans="1:4">
-      <c r="A567" s="20"/>
+      <c r="A567" s="23"/>
       <c r="B567" s="10" t="s">
         <v>300</v>
       </c>
@@ -61272,7 +61272,7 @@
       <c r="D567" s="12"/>
     </row>
     <row r="568" spans="1:4">
-      <c r="A568" s="20"/>
+      <c r="A568" s="23"/>
       <c r="B568" s="10" t="s">
         <v>301</v>
       </c>
@@ -61282,7 +61282,7 @@
       <c r="D568" s="12"/>
     </row>
     <row r="569" spans="1:4">
-      <c r="A569" s="20"/>
+      <c r="A569" s="23"/>
       <c r="B569" s="10" t="s">
         <v>299</v>
       </c>
@@ -61292,7 +61292,7 @@
       <c r="D569" s="12"/>
     </row>
     <row r="570" spans="1:4">
-      <c r="A570" s="20"/>
+      <c r="A570" s="23"/>
       <c r="B570" s="10" t="s">
         <v>290</v>
       </c>
@@ -61302,7 +61302,7 @@
       <c r="D570" s="12"/>
     </row>
     <row r="571" spans="1:4">
-      <c r="A571" s="20" t="s">
+      <c r="A571" s="23" t="s">
         <v>529</v>
       </c>
       <c r="B571" s="10" t="s">
@@ -61314,7 +61314,7 @@
       <c r="D571" s="12"/>
     </row>
     <row r="572" spans="1:4">
-      <c r="A572" s="20"/>
+      <c r="A572" s="23"/>
       <c r="B572" s="10" t="s">
         <v>196</v>
       </c>
@@ -61324,7 +61324,7 @@
       <c r="D572" s="12"/>
     </row>
     <row r="573" spans="1:4">
-      <c r="A573" s="20"/>
+      <c r="A573" s="23"/>
       <c r="B573" s="10" t="s">
         <v>325</v>
       </c>
@@ -61334,7 +61334,7 @@
       <c r="D573" s="12"/>
     </row>
     <row r="574" spans="1:4">
-      <c r="A574" s="20"/>
+      <c r="A574" s="23"/>
       <c r="B574" s="10" t="s">
         <v>300</v>
       </c>
@@ -61344,7 +61344,7 @@
       <c r="D574" s="12"/>
     </row>
     <row r="575" spans="1:4">
-      <c r="A575" s="20"/>
+      <c r="A575" s="23"/>
       <c r="B575" s="10" t="s">
         <v>301</v>
       </c>
@@ -61354,7 +61354,7 @@
       <c r="D575" s="12"/>
     </row>
     <row r="576" spans="1:4">
-      <c r="A576" s="20"/>
+      <c r="A576" s="23"/>
       <c r="B576" s="10" t="s">
         <v>299</v>
       </c>
@@ -61364,7 +61364,7 @@
       <c r="D576" s="12"/>
     </row>
     <row r="577" spans="1:4">
-      <c r="A577" s="20"/>
+      <c r="A577" s="23"/>
       <c r="B577" s="10" t="s">
         <v>290</v>
       </c>
@@ -61374,7 +61374,7 @@
       <c r="D577" s="12"/>
     </row>
     <row r="578" spans="1:4">
-      <c r="A578" s="20" t="s">
+      <c r="A578" s="23" t="s">
         <v>530</v>
       </c>
       <c r="B578" s="10" t="s">
@@ -61386,7 +61386,7 @@
       <c r="D578" s="12"/>
     </row>
     <row r="579" spans="1:4">
-      <c r="A579" s="20"/>
+      <c r="A579" s="23"/>
       <c r="B579" s="10" t="s">
         <v>196</v>
       </c>
@@ -61396,7 +61396,7 @@
       <c r="D579" s="12"/>
     </row>
     <row r="580" spans="1:4">
-      <c r="A580" s="20"/>
+      <c r="A580" s="23"/>
       <c r="B580" s="10" t="s">
         <v>325</v>
       </c>
@@ -61406,7 +61406,7 @@
       <c r="D580" s="12"/>
     </row>
     <row r="581" spans="1:4">
-      <c r="A581" s="20"/>
+      <c r="A581" s="23"/>
       <c r="B581" s="10" t="s">
         <v>300</v>
       </c>
@@ -61416,7 +61416,7 @@
       <c r="D581" s="12"/>
     </row>
     <row r="582" spans="1:4">
-      <c r="A582" s="20"/>
+      <c r="A582" s="23"/>
       <c r="B582" s="10" t="s">
         <v>301</v>
       </c>
@@ -61426,7 +61426,7 @@
       <c r="D582" s="12"/>
     </row>
     <row r="583" spans="1:4">
-      <c r="A583" s="20"/>
+      <c r="A583" s="23"/>
       <c r="B583" s="10" t="s">
         <v>299</v>
       </c>
@@ -61436,7 +61436,7 @@
       <c r="D583" s="12"/>
     </row>
     <row r="584" spans="1:4">
-      <c r="A584" s="20"/>
+      <c r="A584" s="23"/>
       <c r="B584" s="10" t="s">
         <v>290</v>
       </c>
@@ -61446,7 +61446,7 @@
       <c r="D584" s="12"/>
     </row>
     <row r="585" spans="1:4">
-      <c r="A585" s="20" t="s">
+      <c r="A585" s="23" t="s">
         <v>531</v>
       </c>
       <c r="B585" s="10" t="s">
@@ -61458,7 +61458,7 @@
       <c r="D585" s="12"/>
     </row>
     <row r="586" spans="1:4">
-      <c r="A586" s="20"/>
+      <c r="A586" s="23"/>
       <c r="B586" s="10" t="s">
         <v>196</v>
       </c>
@@ -61468,7 +61468,7 @@
       <c r="D586" s="12"/>
     </row>
     <row r="587" spans="1:4">
-      <c r="A587" s="20"/>
+      <c r="A587" s="23"/>
       <c r="B587" s="10" t="s">
         <v>325</v>
       </c>
@@ -61478,7 +61478,7 @@
       <c r="D587" s="12"/>
     </row>
     <row r="588" spans="1:4">
-      <c r="A588" s="20"/>
+      <c r="A588" s="23"/>
       <c r="B588" s="10" t="s">
         <v>300</v>
       </c>
@@ -61488,7 +61488,7 @@
       <c r="D588" s="12"/>
     </row>
     <row r="589" spans="1:4">
-      <c r="A589" s="20"/>
+      <c r="A589" s="23"/>
       <c r="B589" s="10" t="s">
         <v>301</v>
       </c>
@@ -61498,7 +61498,7 @@
       <c r="D589" s="12"/>
     </row>
     <row r="590" spans="1:4">
-      <c r="A590" s="20"/>
+      <c r="A590" s="23"/>
       <c r="B590" s="10" t="s">
         <v>299</v>
       </c>
@@ -61508,7 +61508,7 @@
       <c r="D590" s="12"/>
     </row>
     <row r="591" spans="1:4">
-      <c r="A591" s="20"/>
+      <c r="A591" s="23"/>
       <c r="B591" s="10" t="s">
         <v>290</v>
       </c>
@@ -61518,7 +61518,7 @@
       <c r="D591" s="12"/>
     </row>
     <row r="592" spans="1:4">
-      <c r="A592" s="20" t="s">
+      <c r="A592" s="23" t="s">
         <v>532</v>
       </c>
       <c r="B592" s="10" t="s">
@@ -61530,7 +61530,7 @@
       <c r="D592" s="12"/>
     </row>
     <row r="593" spans="1:4">
-      <c r="A593" s="20"/>
+      <c r="A593" s="23"/>
       <c r="B593" s="10" t="s">
         <v>196</v>
       </c>
@@ -61540,7 +61540,7 @@
       <c r="D593" s="12"/>
     </row>
     <row r="594" spans="1:4">
-      <c r="A594" s="20"/>
+      <c r="A594" s="23"/>
       <c r="B594" s="10" t="s">
         <v>325</v>
       </c>
@@ -61550,7 +61550,7 @@
       <c r="D594" s="12"/>
     </row>
     <row r="595" spans="1:4">
-      <c r="A595" s="20"/>
+      <c r="A595" s="23"/>
       <c r="B595" s="10" t="s">
         <v>300</v>
       </c>
@@ -61560,7 +61560,7 @@
       <c r="D595" s="12"/>
     </row>
     <row r="596" spans="1:4">
-      <c r="A596" s="20"/>
+      <c r="A596" s="23"/>
       <c r="B596" s="10" t="s">
         <v>301</v>
       </c>
@@ -61570,7 +61570,7 @@
       <c r="D596" s="12"/>
     </row>
     <row r="597" spans="1:4">
-      <c r="A597" s="20"/>
+      <c r="A597" s="23"/>
       <c r="B597" s="10" t="s">
         <v>299</v>
       </c>
@@ -61580,7 +61580,7 @@
       <c r="D597" s="12"/>
     </row>
     <row r="598" spans="1:4">
-      <c r="A598" s="20"/>
+      <c r="A598" s="23"/>
       <c r="B598" s="10" t="s">
         <v>290</v>
       </c>
@@ -61590,7 +61590,7 @@
       <c r="D598" s="12"/>
     </row>
     <row r="599" spans="1:4">
-      <c r="A599" s="20" t="s">
+      <c r="A599" s="23" t="s">
         <v>533</v>
       </c>
       <c r="B599" s="10" t="s">
@@ -61602,7 +61602,7 @@
       <c r="D599" s="12"/>
     </row>
     <row r="600" spans="1:4">
-      <c r="A600" s="20"/>
+      <c r="A600" s="23"/>
       <c r="B600" s="10" t="s">
         <v>196</v>
       </c>
@@ -61612,7 +61612,7 @@
       <c r="D600" s="12"/>
     </row>
     <row r="601" spans="1:4">
-      <c r="A601" s="20"/>
+      <c r="A601" s="23"/>
       <c r="B601" s="10" t="s">
         <v>325</v>
       </c>
@@ -61622,7 +61622,7 @@
       <c r="D601" s="12"/>
     </row>
     <row r="602" spans="1:4">
-      <c r="A602" s="20"/>
+      <c r="A602" s="23"/>
       <c r="B602" s="10" t="s">
         <v>300</v>
       </c>
@@ -61632,7 +61632,7 @@
       <c r="D602" s="12"/>
     </row>
     <row r="603" spans="1:4">
-      <c r="A603" s="20"/>
+      <c r="A603" s="23"/>
       <c r="B603" s="10" t="s">
         <v>301</v>
       </c>
@@ -61642,7 +61642,7 @@
       <c r="D603" s="12"/>
     </row>
     <row r="604" spans="1:4">
-      <c r="A604" s="20"/>
+      <c r="A604" s="23"/>
       <c r="B604" s="10" t="s">
         <v>299</v>
       </c>
@@ -61652,7 +61652,7 @@
       <c r="D604" s="12"/>
     </row>
     <row r="605" spans="1:4">
-      <c r="A605" s="20"/>
+      <c r="A605" s="23"/>
       <c r="B605" s="10" t="s">
         <v>290</v>
       </c>
@@ -61662,7 +61662,7 @@
       <c r="D605" s="12"/>
     </row>
     <row r="606" spans="1:4">
-      <c r="A606" s="20" t="s">
+      <c r="A606" s="23" t="s">
         <v>534</v>
       </c>
       <c r="B606" s="10" t="s">
@@ -61674,7 +61674,7 @@
       <c r="D606" s="12"/>
     </row>
     <row r="607" spans="1:4">
-      <c r="A607" s="20"/>
+      <c r="A607" s="23"/>
       <c r="B607" s="10" t="s">
         <v>196</v>
       </c>
@@ -61684,7 +61684,7 @@
       <c r="D607" s="12"/>
     </row>
     <row r="608" spans="1:4">
-      <c r="A608" s="20"/>
+      <c r="A608" s="23"/>
       <c r="B608" s="10" t="s">
         <v>325</v>
       </c>
@@ -61694,7 +61694,7 @@
       <c r="D608" s="12"/>
     </row>
     <row r="609" spans="1:4">
-      <c r="A609" s="20"/>
+      <c r="A609" s="23"/>
       <c r="B609" s="10" t="s">
         <v>300</v>
       </c>
@@ -61704,7 +61704,7 @@
       <c r="D609" s="12"/>
     </row>
     <row r="610" spans="1:4">
-      <c r="A610" s="20"/>
+      <c r="A610" s="23"/>
       <c r="B610" s="10" t="s">
         <v>301</v>
       </c>
@@ -61714,7 +61714,7 @@
       <c r="D610" s="12"/>
     </row>
     <row r="611" spans="1:4">
-      <c r="A611" s="20"/>
+      <c r="A611" s="23"/>
       <c r="B611" s="10" t="s">
         <v>299</v>
       </c>
@@ -61724,7 +61724,7 @@
       <c r="D611" s="12"/>
     </row>
     <row r="612" spans="1:4">
-      <c r="A612" s="20"/>
+      <c r="A612" s="23"/>
       <c r="B612" s="10" t="s">
         <v>290</v>
       </c>
@@ -61734,7 +61734,7 @@
       <c r="D612" s="12"/>
     </row>
     <row r="613" spans="1:4">
-      <c r="A613" s="20" t="s">
+      <c r="A613" s="23" t="s">
         <v>535</v>
       </c>
       <c r="B613" s="10" t="s">
@@ -61746,7 +61746,7 @@
       <c r="D613" s="12"/>
     </row>
     <row r="614" spans="1:4">
-      <c r="A614" s="20"/>
+      <c r="A614" s="23"/>
       <c r="B614" s="10" t="s">
         <v>196</v>
       </c>
@@ -61756,7 +61756,7 @@
       <c r="D614" s="12"/>
     </row>
     <row r="615" spans="1:4">
-      <c r="A615" s="20" t="s">
+      <c r="A615" s="23" t="s">
         <v>536</v>
       </c>
       <c r="B615" s="10" t="s">
@@ -61768,7 +61768,7 @@
       <c r="D615" s="12"/>
     </row>
     <row r="616" spans="1:4">
-      <c r="A616" s="20"/>
+      <c r="A616" s="23"/>
       <c r="B616" s="10" t="s">
         <v>196</v>
       </c>
@@ -61778,7 +61778,7 @@
       <c r="D616" s="12"/>
     </row>
     <row r="617" spans="1:4">
-      <c r="A617" s="20"/>
+      <c r="A617" s="23"/>
       <c r="B617" s="10" t="s">
         <v>325</v>
       </c>
@@ -61788,7 +61788,7 @@
       <c r="D617" s="12"/>
     </row>
     <row r="618" spans="1:4">
-      <c r="A618" s="20"/>
+      <c r="A618" s="23"/>
       <c r="B618" s="10" t="s">
         <v>300</v>
       </c>
@@ -61798,7 +61798,7 @@
       <c r="D618" s="12"/>
     </row>
     <row r="619" spans="1:4">
-      <c r="A619" s="20"/>
+      <c r="A619" s="23"/>
       <c r="B619" s="10" t="s">
         <v>301</v>
       </c>
@@ -61808,7 +61808,7 @@
       <c r="D619" s="12"/>
     </row>
     <row r="620" spans="1:4">
-      <c r="A620" s="20" t="s">
+      <c r="A620" s="23" t="s">
         <v>537</v>
       </c>
       <c r="B620" s="10" t="s">
@@ -61820,7 +61820,7 @@
       <c r="D620" s="12"/>
     </row>
     <row r="621" spans="1:4">
-      <c r="A621" s="20"/>
+      <c r="A621" s="23"/>
       <c r="B621" s="10" t="s">
         <v>196</v>
       </c>
@@ -61830,7 +61830,7 @@
       <c r="D621" s="12"/>
     </row>
     <row r="622" spans="1:4">
-      <c r="A622" s="20"/>
+      <c r="A622" s="23"/>
       <c r="B622" s="10" t="s">
         <v>325</v>
       </c>
@@ -61840,7 +61840,7 @@
       <c r="D622" s="12"/>
     </row>
     <row r="623" spans="1:4">
-      <c r="A623" s="20"/>
+      <c r="A623" s="23"/>
       <c r="B623" s="10" t="s">
         <v>300</v>
       </c>
@@ -61850,7 +61850,7 @@
       <c r="D623" s="12"/>
     </row>
     <row r="624" spans="1:4">
-      <c r="A624" s="20"/>
+      <c r="A624" s="23"/>
       <c r="B624" s="10" t="s">
         <v>301</v>
       </c>
@@ -61860,7 +61860,7 @@
       <c r="D624" s="12"/>
     </row>
     <row r="625" spans="1:4">
-      <c r="A625" s="20"/>
+      <c r="A625" s="23"/>
       <c r="B625" s="10" t="s">
         <v>299</v>
       </c>
@@ -61870,7 +61870,7 @@
       <c r="D625" s="12"/>
     </row>
     <row r="626" spans="1:4">
-      <c r="A626" s="20" t="s">
+      <c r="A626" s="23" t="s">
         <v>539</v>
       </c>
       <c r="B626" s="10" t="s">
@@ -61882,7 +61882,7 @@
       <c r="D626" s="12"/>
     </row>
     <row r="627" spans="1:4">
-      <c r="A627" s="20"/>
+      <c r="A627" s="23"/>
       <c r="B627" s="10" t="s">
         <v>196</v>
       </c>
@@ -61892,7 +61892,7 @@
       <c r="D627" s="12"/>
     </row>
     <row r="628" spans="1:4">
-      <c r="A628" s="20"/>
+      <c r="A628" s="23"/>
       <c r="B628" s="10" t="s">
         <v>325</v>
       </c>
@@ -61902,7 +61902,7 @@
       <c r="D628" s="12"/>
     </row>
     <row r="629" spans="1:4">
-      <c r="A629" s="20"/>
+      <c r="A629" s="23"/>
       <c r="B629" s="10" t="s">
         <v>300</v>
       </c>
@@ -61912,7 +61912,7 @@
       <c r="D629" s="12"/>
     </row>
     <row r="630" spans="1:4">
-      <c r="A630" s="20"/>
+      <c r="A630" s="23"/>
       <c r="B630" s="10" t="s">
         <v>301</v>
       </c>
@@ -61922,7 +61922,7 @@
       <c r="D630" s="12"/>
     </row>
     <row r="631" spans="1:4">
-      <c r="A631" s="20"/>
+      <c r="A631" s="23"/>
       <c r="B631" s="10" t="s">
         <v>299</v>
       </c>
@@ -61932,7 +61932,7 @@
       <c r="D631" s="12"/>
     </row>
     <row r="632" spans="1:4">
-      <c r="A632" s="20" t="s">
+      <c r="A632" s="23" t="s">
         <v>540</v>
       </c>
       <c r="B632" s="10" t="s">
@@ -61944,7 +61944,7 @@
       <c r="D632" s="12"/>
     </row>
     <row r="633" spans="1:4">
-      <c r="A633" s="20"/>
+      <c r="A633" s="23"/>
       <c r="B633" s="10" t="s">
         <v>196</v>
       </c>
@@ -61954,7 +61954,7 @@
       <c r="D633" s="12"/>
     </row>
     <row r="634" spans="1:4">
-      <c r="A634" s="20"/>
+      <c r="A634" s="23"/>
       <c r="B634" s="10" t="s">
         <v>325</v>
       </c>
@@ -61964,7 +61964,7 @@
       <c r="D634" s="12"/>
     </row>
     <row r="635" spans="1:4">
-      <c r="A635" s="20"/>
+      <c r="A635" s="23"/>
       <c r="B635" s="10" t="s">
         <v>300</v>
       </c>
@@ -61974,7 +61974,7 @@
       <c r="D635" s="12"/>
     </row>
     <row r="636" spans="1:4">
-      <c r="A636" s="20"/>
+      <c r="A636" s="23"/>
       <c r="B636" s="10" t="s">
         <v>301</v>
       </c>
@@ -61984,7 +61984,7 @@
       <c r="D636" s="12"/>
     </row>
     <row r="637" spans="1:4">
-      <c r="A637" s="20"/>
+      <c r="A637" s="23"/>
       <c r="B637" s="10" t="s">
         <v>299</v>
       </c>
@@ -61994,7 +61994,7 @@
       <c r="D637" s="12"/>
     </row>
     <row r="638" spans="1:4">
-      <c r="A638" s="20" t="s">
+      <c r="A638" s="23" t="s">
         <v>541</v>
       </c>
       <c r="B638" s="10" t="s">
@@ -62006,7 +62006,7 @@
       <c r="D638" s="12"/>
     </row>
     <row r="639" spans="1:4">
-      <c r="A639" s="20"/>
+      <c r="A639" s="23"/>
       <c r="B639" s="10" t="s">
         <v>196</v>
       </c>
@@ -62016,7 +62016,7 @@
       <c r="D639" s="12"/>
     </row>
     <row r="640" spans="1:4">
-      <c r="A640" s="20"/>
+      <c r="A640" s="23"/>
       <c r="B640" s="10" t="s">
         <v>325</v>
       </c>
@@ -62026,7 +62026,7 @@
       <c r="D640" s="12"/>
     </row>
     <row r="641" spans="1:4">
-      <c r="A641" s="20"/>
+      <c r="A641" s="23"/>
       <c r="B641" s="10" t="s">
         <v>300</v>
       </c>
@@ -62036,7 +62036,7 @@
       <c r="D641" s="12"/>
     </row>
     <row r="642" spans="1:4">
-      <c r="A642" s="20"/>
+      <c r="A642" s="23"/>
       <c r="B642" s="10" t="s">
         <v>301</v>
       </c>
@@ -62046,7 +62046,7 @@
       <c r="D642" s="12"/>
     </row>
     <row r="643" spans="1:4">
-      <c r="A643" s="20"/>
+      <c r="A643" s="23"/>
       <c r="B643" s="10" t="s">
         <v>299</v>
       </c>
@@ -62056,7 +62056,7 @@
       <c r="D643" s="12"/>
     </row>
     <row r="644" spans="1:4">
-      <c r="A644" s="20" t="s">
+      <c r="A644" s="23" t="s">
         <v>542</v>
       </c>
       <c r="B644" s="10" t="s">
@@ -62068,7 +62068,7 @@
       <c r="D644" s="12"/>
     </row>
     <row r="645" spans="1:4">
-      <c r="A645" s="20"/>
+      <c r="A645" s="23"/>
       <c r="B645" s="10" t="s">
         <v>196</v>
       </c>
@@ -62078,7 +62078,7 @@
       <c r="D645" s="12"/>
     </row>
     <row r="646" spans="1:4">
-      <c r="A646" s="20"/>
+      <c r="A646" s="23"/>
       <c r="B646" s="10" t="s">
         <v>325</v>
       </c>
@@ -62088,7 +62088,7 @@
       <c r="D646" s="12"/>
     </row>
     <row r="647" spans="1:4">
-      <c r="A647" s="20"/>
+      <c r="A647" s="23"/>
       <c r="B647" s="10" t="s">
         <v>300</v>
       </c>
@@ -62098,7 +62098,7 @@
       <c r="D647" s="12"/>
     </row>
     <row r="648" spans="1:4">
-      <c r="A648" s="20"/>
+      <c r="A648" s="23"/>
       <c r="B648" s="10" t="s">
         <v>301</v>
       </c>
@@ -62108,7 +62108,7 @@
       <c r="D648" s="12"/>
     </row>
     <row r="649" spans="1:4">
-      <c r="A649" s="20"/>
+      <c r="A649" s="23"/>
       <c r="B649" s="10" t="s">
         <v>299</v>
       </c>
@@ -62118,7 +62118,7 @@
       <c r="D649" s="12"/>
     </row>
     <row r="650" spans="1:4">
-      <c r="A650" s="20" t="s">
+      <c r="A650" s="23" t="s">
         <v>543</v>
       </c>
       <c r="B650" s="10" t="s">
@@ -62130,7 +62130,7 @@
       <c r="D650" s="12"/>
     </row>
     <row r="651" spans="1:4">
-      <c r="A651" s="20"/>
+      <c r="A651" s="23"/>
       <c r="B651" s="10" t="s">
         <v>196</v>
       </c>
@@ -62140,7 +62140,7 @@
       <c r="D651" s="12"/>
     </row>
     <row r="652" spans="1:4">
-      <c r="A652" s="20"/>
+      <c r="A652" s="23"/>
       <c r="B652" s="10" t="s">
         <v>325</v>
       </c>
@@ -62150,7 +62150,7 @@
       <c r="D652" s="12"/>
     </row>
     <row r="653" spans="1:4">
-      <c r="A653" s="20"/>
+      <c r="A653" s="23"/>
       <c r="B653" s="10" t="s">
         <v>300</v>
       </c>
@@ -62160,7 +62160,7 @@
       <c r="D653" s="12"/>
     </row>
     <row r="654" spans="1:4">
-      <c r="A654" s="20"/>
+      <c r="A654" s="23"/>
       <c r="B654" s="10" t="s">
         <v>301</v>
       </c>
@@ -62170,7 +62170,7 @@
       <c r="D654" s="12"/>
     </row>
     <row r="655" spans="1:4">
-      <c r="A655" s="20"/>
+      <c r="A655" s="23"/>
       <c r="B655" s="10" t="s">
         <v>299</v>
       </c>
@@ -62180,7 +62180,7 @@
       <c r="D655" s="12"/>
     </row>
     <row r="656" spans="1:4">
-      <c r="A656" s="20" t="s">
+      <c r="A656" s="23" t="s">
         <v>544</v>
       </c>
       <c r="B656" s="10" t="s">
@@ -62192,7 +62192,7 @@
       <c r="D656" s="12"/>
     </row>
     <row r="657" spans="1:4">
-      <c r="A657" s="20"/>
+      <c r="A657" s="23"/>
       <c r="B657" s="10" t="s">
         <v>196</v>
       </c>
@@ -62202,7 +62202,7 @@
       <c r="D657" s="12"/>
     </row>
     <row r="658" spans="1:4">
-      <c r="A658" s="20"/>
+      <c r="A658" s="23"/>
       <c r="B658" s="10" t="s">
         <v>325</v>
       </c>
@@ -62212,7 +62212,7 @@
       <c r="D658" s="12"/>
     </row>
     <row r="659" spans="1:4">
-      <c r="A659" s="20"/>
+      <c r="A659" s="23"/>
       <c r="B659" s="10" t="s">
         <v>300</v>
       </c>
@@ -62222,7 +62222,7 @@
       <c r="D659" s="12"/>
     </row>
     <row r="660" spans="1:4">
-      <c r="A660" s="20"/>
+      <c r="A660" s="23"/>
       <c r="B660" s="10" t="s">
         <v>301</v>
       </c>
@@ -62232,7 +62232,7 @@
       <c r="D660" s="12"/>
     </row>
     <row r="661" spans="1:4">
-      <c r="A661" s="20"/>
+      <c r="A661" s="23"/>
       <c r="B661" s="10" t="s">
         <v>299</v>
       </c>
@@ -62242,7 +62242,7 @@
       <c r="D661" s="12"/>
     </row>
     <row r="662" spans="1:4">
-      <c r="A662" s="20" t="s">
+      <c r="A662" s="23" t="s">
         <v>545</v>
       </c>
       <c r="B662" s="10" t="s">
@@ -62254,7 +62254,7 @@
       <c r="D662" s="12"/>
     </row>
     <row r="663" spans="1:4">
-      <c r="A663" s="20"/>
+      <c r="A663" s="23"/>
       <c r="B663" s="10" t="s">
         <v>196</v>
       </c>
@@ -62264,7 +62264,7 @@
       <c r="D663" s="12"/>
     </row>
     <row r="664" spans="1:4">
-      <c r="A664" s="20"/>
+      <c r="A664" s="23"/>
       <c r="B664" s="10" t="s">
         <v>325</v>
       </c>
@@ -62274,7 +62274,7 @@
       <c r="D664" s="12"/>
     </row>
     <row r="665" spans="1:4">
-      <c r="A665" s="20"/>
+      <c r="A665" s="23"/>
       <c r="B665" s="10" t="s">
         <v>300</v>
       </c>
@@ -62284,7 +62284,7 @@
       <c r="D665" s="12"/>
     </row>
     <row r="666" spans="1:4">
-      <c r="A666" s="20"/>
+      <c r="A666" s="23"/>
       <c r="B666" s="10" t="s">
         <v>301</v>
       </c>
@@ -62294,7 +62294,7 @@
       <c r="D666" s="12"/>
     </row>
     <row r="667" spans="1:4">
-      <c r="A667" s="20"/>
+      <c r="A667" s="23"/>
       <c r="B667" s="10" t="s">
         <v>299</v>
       </c>
@@ -62304,7 +62304,7 @@
       <c r="D667" s="12"/>
     </row>
     <row r="668" spans="1:4">
-      <c r="A668" s="20" t="s">
+      <c r="A668" s="23" t="s">
         <v>546</v>
       </c>
       <c r="B668" s="10" t="s">
@@ -62316,7 +62316,7 @@
       <c r="D668" s="12"/>
     </row>
     <row r="669" spans="1:4">
-      <c r="A669" s="20"/>
+      <c r="A669" s="23"/>
       <c r="B669" s="10" t="s">
         <v>196</v>
       </c>
@@ -62326,7 +62326,7 @@
       <c r="D669" s="12"/>
     </row>
     <row r="670" spans="1:4">
-      <c r="A670" s="20"/>
+      <c r="A670" s="23"/>
       <c r="B670" s="10" t="s">
         <v>325</v>
       </c>
@@ -62336,7 +62336,7 @@
       <c r="D670" s="12"/>
     </row>
     <row r="671" spans="1:4">
-      <c r="A671" s="20"/>
+      <c r="A671" s="23"/>
       <c r="B671" s="10" t="s">
         <v>300</v>
       </c>
@@ -62346,7 +62346,7 @@
       <c r="D671" s="12"/>
     </row>
     <row r="672" spans="1:4">
-      <c r="A672" s="20"/>
+      <c r="A672" s="23"/>
       <c r="B672" s="10" t="s">
         <v>301</v>
       </c>
@@ -62356,7 +62356,7 @@
       <c r="D672" s="12"/>
     </row>
     <row r="673" spans="1:4">
-      <c r="A673" s="20"/>
+      <c r="A673" s="23"/>
       <c r="B673" s="10" t="s">
         <v>299</v>
       </c>
@@ -62366,7 +62366,7 @@
       <c r="D673" s="12"/>
     </row>
     <row r="674" spans="1:4">
-      <c r="A674" s="20" t="s">
+      <c r="A674" s="23" t="s">
         <v>547</v>
       </c>
       <c r="B674" s="10" t="s">
@@ -62378,7 +62378,7 @@
       <c r="D674" s="12"/>
     </row>
     <row r="675" spans="1:4">
-      <c r="A675" s="20"/>
+      <c r="A675" s="23"/>
       <c r="B675" s="10" t="s">
         <v>196</v>
       </c>
@@ -62388,7 +62388,7 @@
       <c r="D675" s="12"/>
     </row>
     <row r="676" spans="1:4">
-      <c r="A676" s="20"/>
+      <c r="A676" s="23"/>
       <c r="B676" s="10" t="s">
         <v>325</v>
       </c>
@@ -62398,7 +62398,7 @@
       <c r="D676" s="12"/>
     </row>
     <row r="677" spans="1:4">
-      <c r="A677" s="20"/>
+      <c r="A677" s="23"/>
       <c r="B677" s="10" t="s">
         <v>300</v>
       </c>
@@ -62408,7 +62408,7 @@
       <c r="D677" s="12"/>
     </row>
     <row r="678" spans="1:4">
-      <c r="A678" s="20"/>
+      <c r="A678" s="23"/>
       <c r="B678" s="10" t="s">
         <v>301</v>
       </c>
@@ -62418,7 +62418,7 @@
       <c r="D678" s="12"/>
     </row>
     <row r="679" spans="1:4">
-      <c r="A679" s="20"/>
+      <c r="A679" s="23"/>
       <c r="B679" s="10" t="s">
         <v>299</v>
       </c>
@@ -62428,7 +62428,7 @@
       <c r="D679" s="12"/>
     </row>
     <row r="680" spans="1:4">
-      <c r="A680" s="20" t="s">
+      <c r="A680" s="23" t="s">
         <v>548</v>
       </c>
       <c r="B680" s="10" t="s">
@@ -62440,7 +62440,7 @@
       <c r="D680" s="12"/>
     </row>
     <row r="681" spans="1:4">
-      <c r="A681" s="20"/>
+      <c r="A681" s="23"/>
       <c r="B681" s="10" t="s">
         <v>196</v>
       </c>
@@ -62450,7 +62450,7 @@
       <c r="D681" s="12"/>
     </row>
     <row r="682" spans="1:4">
-      <c r="A682" s="20"/>
+      <c r="A682" s="23"/>
       <c r="B682" s="10" t="s">
         <v>325</v>
       </c>
@@ -62460,7 +62460,7 @@
       <c r="D682" s="12"/>
     </row>
     <row r="683" spans="1:4">
-      <c r="A683" s="20"/>
+      <c r="A683" s="23"/>
       <c r="B683" s="10" t="s">
         <v>300</v>
       </c>
@@ -62470,7 +62470,7 @@
       <c r="D683" s="12"/>
     </row>
     <row r="684" spans="1:4">
-      <c r="A684" s="20"/>
+      <c r="A684" s="23"/>
       <c r="B684" s="10" t="s">
         <v>301</v>
       </c>
@@ -62480,7 +62480,7 @@
       <c r="D684" s="12"/>
     </row>
     <row r="685" spans="1:4">
-      <c r="A685" s="20"/>
+      <c r="A685" s="23"/>
       <c r="B685" s="10" t="s">
         <v>299</v>
       </c>
@@ -62490,7 +62490,7 @@
       <c r="D685" s="12"/>
     </row>
     <row r="686" spans="1:4">
-      <c r="A686" s="20" t="s">
+      <c r="A686" s="23" t="s">
         <v>549</v>
       </c>
       <c r="B686" s="10" t="s">
@@ -62502,7 +62502,7 @@
       <c r="D686" s="12"/>
     </row>
     <row r="687" spans="1:4">
-      <c r="A687" s="20"/>
+      <c r="A687" s="23"/>
       <c r="B687" s="10" t="s">
         <v>196</v>
       </c>
@@ -62512,7 +62512,7 @@
       <c r="D687" s="12"/>
     </row>
     <row r="688" spans="1:4">
-      <c r="A688" s="20"/>
+      <c r="A688" s="23"/>
       <c r="B688" s="10" t="s">
         <v>325</v>
       </c>
@@ -62522,7 +62522,7 @@
       <c r="D688" s="12"/>
     </row>
     <row r="689" spans="1:4">
-      <c r="A689" s="20"/>
+      <c r="A689" s="23"/>
       <c r="B689" s="10" t="s">
         <v>300</v>
       </c>
@@ -62532,7 +62532,7 @@
       <c r="D689" s="12"/>
     </row>
     <row r="690" spans="1:4">
-      <c r="A690" s="20"/>
+      <c r="A690" s="23"/>
       <c r="B690" s="10" t="s">
         <v>301</v>
       </c>
@@ -62542,7 +62542,7 @@
       <c r="D690" s="12"/>
     </row>
     <row r="691" spans="1:4">
-      <c r="A691" s="20"/>
+      <c r="A691" s="23"/>
       <c r="B691" s="10" t="s">
         <v>299</v>
       </c>
@@ -62552,7 +62552,7 @@
       <c r="D691" s="12"/>
     </row>
     <row r="692" spans="1:4">
-      <c r="A692" s="20" t="s">
+      <c r="A692" s="23" t="s">
         <v>550</v>
       </c>
       <c r="B692" s="10" t="s">
@@ -62564,7 +62564,7 @@
       <c r="D692" s="12"/>
     </row>
     <row r="693" spans="1:4">
-      <c r="A693" s="20"/>
+      <c r="A693" s="23"/>
       <c r="B693" s="10" t="s">
         <v>196</v>
       </c>
@@ -62574,7 +62574,7 @@
       <c r="D693" s="12"/>
     </row>
     <row r="694" spans="1:4">
-      <c r="A694" s="20"/>
+      <c r="A694" s="23"/>
       <c r="B694" s="10" t="s">
         <v>325</v>
       </c>
@@ -62584,7 +62584,7 @@
       <c r="D694" s="12"/>
     </row>
     <row r="695" spans="1:4">
-      <c r="A695" s="20"/>
+      <c r="A695" s="23"/>
       <c r="B695" s="10" t="s">
         <v>300</v>
       </c>
@@ -62594,7 +62594,7 @@
       <c r="D695" s="12"/>
     </row>
     <row r="696" spans="1:4">
-      <c r="A696" s="20"/>
+      <c r="A696" s="23"/>
       <c r="B696" s="10" t="s">
         <v>301</v>
       </c>
@@ -62604,7 +62604,7 @@
       <c r="D696" s="12"/>
     </row>
     <row r="697" spans="1:4">
-      <c r="A697" s="20"/>
+      <c r="A697" s="23"/>
       <c r="B697" s="10" t="s">
         <v>299</v>
       </c>
@@ -62614,7 +62614,7 @@
       <c r="D697" s="12"/>
     </row>
     <row r="698" spans="1:4">
-      <c r="A698" s="20" t="s">
+      <c r="A698" s="23" t="s">
         <v>551</v>
       </c>
       <c r="B698" s="10" t="s">
@@ -62626,7 +62626,7 @@
       <c r="D698" s="12"/>
     </row>
     <row r="699" spans="1:4">
-      <c r="A699" s="20"/>
+      <c r="A699" s="23"/>
       <c r="B699" s="10" t="s">
         <v>196</v>
       </c>
@@ -62636,7 +62636,7 @@
       <c r="D699" s="12"/>
     </row>
     <row r="700" spans="1:4">
-      <c r="A700" s="20"/>
+      <c r="A700" s="23"/>
       <c r="B700" s="10" t="s">
         <v>325</v>
       </c>
@@ -62646,7 +62646,7 @@
       <c r="D700" s="12"/>
     </row>
     <row r="701" spans="1:4">
-      <c r="A701" s="20"/>
+      <c r="A701" s="23"/>
       <c r="B701" s="10" t="s">
         <v>300</v>
       </c>
@@ -62656,7 +62656,7 @@
       <c r="D701" s="12"/>
     </row>
     <row r="702" spans="1:4">
-      <c r="A702" s="20"/>
+      <c r="A702" s="23"/>
       <c r="B702" s="10" t="s">
         <v>301</v>
       </c>
@@ -62666,7 +62666,7 @@
       <c r="D702" s="12"/>
     </row>
     <row r="703" spans="1:4">
-      <c r="A703" s="20"/>
+      <c r="A703" s="23"/>
       <c r="B703" s="10" t="s">
         <v>299</v>
       </c>
@@ -62676,7 +62676,7 @@
       <c r="D703" s="12"/>
     </row>
     <row r="704" spans="1:4">
-      <c r="A704" s="20" t="s">
+      <c r="A704" s="23" t="s">
         <v>552</v>
       </c>
       <c r="B704" s="10" t="s">
@@ -62688,7 +62688,7 @@
       <c r="D704" s="12"/>
     </row>
     <row r="705" spans="1:4">
-      <c r="A705" s="20"/>
+      <c r="A705" s="23"/>
       <c r="B705" s="10" t="s">
         <v>196</v>
       </c>
@@ -62698,7 +62698,7 @@
       <c r="D705" s="12"/>
     </row>
     <row r="706" spans="1:4">
-      <c r="A706" s="20"/>
+      <c r="A706" s="23"/>
       <c r="B706" s="10" t="s">
         <v>325</v>
       </c>
@@ -62708,7 +62708,7 @@
       <c r="D706" s="12"/>
     </row>
     <row r="707" spans="1:4">
-      <c r="A707" s="20"/>
+      <c r="A707" s="23"/>
       <c r="B707" s="10" t="s">
         <v>300</v>
       </c>
@@ -62718,7 +62718,7 @@
       <c r="D707" s="12"/>
     </row>
     <row r="708" spans="1:4">
-      <c r="A708" s="20"/>
+      <c r="A708" s="23"/>
       <c r="B708" s="10" t="s">
         <v>301</v>
       </c>
@@ -62728,7 +62728,7 @@
       <c r="D708" s="12"/>
     </row>
     <row r="709" spans="1:4">
-      <c r="A709" s="20"/>
+      <c r="A709" s="23"/>
       <c r="B709" s="10" t="s">
         <v>299</v>
       </c>
@@ -62738,7 +62738,7 @@
       <c r="D709" s="12"/>
     </row>
     <row r="710" spans="1:4">
-      <c r="A710" s="20" t="s">
+      <c r="A710" s="23" t="s">
         <v>553</v>
       </c>
       <c r="B710" s="10" t="s">
@@ -62750,7 +62750,7 @@
       <c r="D710" s="12"/>
     </row>
     <row r="711" spans="1:4">
-      <c r="A711" s="20"/>
+      <c r="A711" s="23"/>
       <c r="B711" s="10" t="s">
         <v>196</v>
       </c>
@@ -62760,7 +62760,7 @@
       <c r="D711" s="12"/>
     </row>
     <row r="712" spans="1:4">
-      <c r="A712" s="20"/>
+      <c r="A712" s="23"/>
       <c r="B712" s="10" t="s">
         <v>325</v>
       </c>
@@ -62770,7 +62770,7 @@
       <c r="D712" s="12"/>
     </row>
     <row r="713" spans="1:4">
-      <c r="A713" s="20"/>
+      <c r="A713" s="23"/>
       <c r="B713" s="10" t="s">
         <v>300</v>
       </c>
@@ -62780,7 +62780,7 @@
       <c r="D713" s="12"/>
     </row>
     <row r="714" spans="1:4">
-      <c r="A714" s="20"/>
+      <c r="A714" s="23"/>
       <c r="B714" s="10" t="s">
         <v>301</v>
       </c>
@@ -62790,7 +62790,7 @@
       <c r="D714" s="12"/>
     </row>
     <row r="715" spans="1:4">
-      <c r="A715" s="20"/>
+      <c r="A715" s="23"/>
       <c r="B715" s="10" t="s">
         <v>299</v>
       </c>
@@ -62800,7 +62800,7 @@
       <c r="D715" s="12"/>
     </row>
     <row r="716" spans="1:4">
-      <c r="A716" s="20" t="s">
+      <c r="A716" s="23" t="s">
         <v>554</v>
       </c>
       <c r="B716" s="10" t="s">
@@ -62812,7 +62812,7 @@
       <c r="D716" s="12"/>
     </row>
     <row r="717" spans="1:4">
-      <c r="A717" s="20"/>
+      <c r="A717" s="23"/>
       <c r="B717" s="10" t="s">
         <v>196</v>
       </c>
@@ -62822,7 +62822,7 @@
       <c r="D717" s="12"/>
     </row>
     <row r="718" spans="1:4">
-      <c r="A718" s="20"/>
+      <c r="A718" s="23"/>
       <c r="B718" s="10" t="s">
         <v>325</v>
       </c>
@@ -62832,7 +62832,7 @@
       <c r="D718" s="12"/>
     </row>
     <row r="719" spans="1:4">
-      <c r="A719" s="20"/>
+      <c r="A719" s="23"/>
       <c r="B719" s="10" t="s">
         <v>300</v>
       </c>
@@ -62842,7 +62842,7 @@
       <c r="D719" s="12"/>
     </row>
     <row r="720" spans="1:4">
-      <c r="A720" s="20"/>
+      <c r="A720" s="23"/>
       <c r="B720" s="10" t="s">
         <v>301</v>
       </c>
@@ -62852,7 +62852,7 @@
       <c r="D720" s="12"/>
     </row>
     <row r="721" spans="1:4">
-      <c r="A721" s="20"/>
+      <c r="A721" s="23"/>
       <c r="B721" s="10" t="s">
         <v>299</v>
       </c>
@@ -62862,7 +62862,7 @@
       <c r="D721" s="12"/>
     </row>
     <row r="722" spans="1:4">
-      <c r="A722" s="20" t="s">
+      <c r="A722" s="23" t="s">
         <v>555</v>
       </c>
       <c r="B722" s="10" t="s">
@@ -62874,7 +62874,7 @@
       <c r="D722" s="12"/>
     </row>
     <row r="723" spans="1:4">
-      <c r="A723" s="20"/>
+      <c r="A723" s="23"/>
       <c r="B723" s="10" t="s">
         <v>196</v>
       </c>
@@ -62884,7 +62884,7 @@
       <c r="D723" s="12"/>
     </row>
     <row r="724" spans="1:4">
-      <c r="A724" s="20"/>
+      <c r="A724" s="23"/>
       <c r="B724" s="10" t="s">
         <v>325</v>
       </c>
@@ -62894,7 +62894,7 @@
       <c r="D724" s="12"/>
     </row>
     <row r="725" spans="1:4">
-      <c r="A725" s="20"/>
+      <c r="A725" s="23"/>
       <c r="B725" s="10" t="s">
         <v>300</v>
       </c>
@@ -62904,7 +62904,7 @@
       <c r="D725" s="12"/>
     </row>
     <row r="726" spans="1:4">
-      <c r="A726" s="20"/>
+      <c r="A726" s="23"/>
       <c r="B726" s="10" t="s">
         <v>301</v>
       </c>
@@ -62914,7 +62914,7 @@
       <c r="D726" s="12"/>
     </row>
     <row r="727" spans="1:4">
-      <c r="A727" s="20"/>
+      <c r="A727" s="23"/>
       <c r="B727" s="10" t="s">
         <v>299</v>
       </c>
@@ -62924,7 +62924,7 @@
       <c r="D727" s="12"/>
     </row>
     <row r="728" spans="1:4">
-      <c r="A728" s="20" t="s">
+      <c r="A728" s="23" t="s">
         <v>556</v>
       </c>
       <c r="B728" s="10" t="s">
@@ -62936,7 +62936,7 @@
       <c r="D728" s="12"/>
     </row>
     <row r="729" spans="1:4">
-      <c r="A729" s="20"/>
+      <c r="A729" s="23"/>
       <c r="B729" s="10" t="s">
         <v>196</v>
       </c>
@@ -62946,7 +62946,7 @@
       <c r="D729" s="12"/>
     </row>
     <row r="730" spans="1:4">
-      <c r="A730" s="20"/>
+      <c r="A730" s="23"/>
       <c r="B730" s="10" t="s">
         <v>325</v>
       </c>
@@ -62956,7 +62956,7 @@
       <c r="D730" s="12"/>
     </row>
     <row r="731" spans="1:4">
-      <c r="A731" s="20"/>
+      <c r="A731" s="23"/>
       <c r="B731" s="10" t="s">
         <v>300</v>
       </c>
@@ -62966,7 +62966,7 @@
       <c r="D731" s="12"/>
     </row>
     <row r="732" spans="1:4">
-      <c r="A732" s="20"/>
+      <c r="A732" s="23"/>
       <c r="B732" s="10" t="s">
         <v>301</v>
       </c>
@@ -62976,7 +62976,7 @@
       <c r="D732" s="12"/>
     </row>
     <row r="733" spans="1:4">
-      <c r="A733" s="20"/>
+      <c r="A733" s="23"/>
       <c r="B733" s="10" t="s">
         <v>299</v>
       </c>
@@ -62986,7 +62986,7 @@
       <c r="D733" s="12"/>
     </row>
     <row r="734" spans="1:4">
-      <c r="A734" s="20" t="s">
+      <c r="A734" s="23" t="s">
         <v>557</v>
       </c>
       <c r="B734" s="10" t="s">
@@ -62998,7 +62998,7 @@
       <c r="D734" s="12"/>
     </row>
     <row r="735" spans="1:4">
-      <c r="A735" s="20"/>
+      <c r="A735" s="23"/>
       <c r="B735" s="10" t="s">
         <v>196</v>
       </c>
@@ -63008,7 +63008,7 @@
       <c r="D735" s="12"/>
     </row>
     <row r="736" spans="1:4">
-      <c r="A736" s="20"/>
+      <c r="A736" s="23"/>
       <c r="B736" s="10" t="s">
         <v>325</v>
       </c>
@@ -63018,7 +63018,7 @@
       <c r="D736" s="12"/>
     </row>
     <row r="737" spans="1:4">
-      <c r="A737" s="20"/>
+      <c r="A737" s="23"/>
       <c r="B737" s="10" t="s">
         <v>300</v>
       </c>
@@ -63028,7 +63028,7 @@
       <c r="D737" s="12"/>
     </row>
     <row r="738" spans="1:4">
-      <c r="A738" s="20"/>
+      <c r="A738" s="23"/>
       <c r="B738" s="10" t="s">
         <v>301</v>
       </c>
@@ -63038,7 +63038,7 @@
       <c r="D738" s="12"/>
     </row>
     <row r="739" spans="1:4">
-      <c r="A739" s="20"/>
+      <c r="A739" s="23"/>
       <c r="B739" s="10" t="s">
         <v>299</v>
       </c>
@@ -63048,7 +63048,7 @@
       <c r="D739" s="12"/>
     </row>
     <row r="740" spans="1:4">
-      <c r="A740" s="20" t="s">
+      <c r="A740" s="23" t="s">
         <v>558</v>
       </c>
       <c r="B740" s="10" t="s">
@@ -63060,7 +63060,7 @@
       <c r="D740" s="12"/>
     </row>
     <row r="741" spans="1:4">
-      <c r="A741" s="20"/>
+      <c r="A741" s="23"/>
       <c r="B741" s="10" t="s">
         <v>196</v>
       </c>
@@ -63070,7 +63070,7 @@
       <c r="D741" s="12"/>
     </row>
     <row r="742" spans="1:4">
-      <c r="A742" s="20"/>
+      <c r="A742" s="23"/>
       <c r="B742" s="10" t="s">
         <v>325</v>
       </c>
@@ -63080,7 +63080,7 @@
       <c r="D742" s="12"/>
     </row>
     <row r="743" spans="1:4">
-      <c r="A743" s="20"/>
+      <c r="A743" s="23"/>
       <c r="B743" s="10" t="s">
         <v>300</v>
       </c>
@@ -63090,7 +63090,7 @@
       <c r="D743" s="12"/>
     </row>
     <row r="744" spans="1:4">
-      <c r="A744" s="20"/>
+      <c r="A744" s="23"/>
       <c r="B744" s="10" t="s">
         <v>301</v>
       </c>
@@ -63100,7 +63100,7 @@
       <c r="D744" s="12"/>
     </row>
     <row r="745" spans="1:4">
-      <c r="A745" s="20"/>
+      <c r="A745" s="23"/>
       <c r="B745" s="10" t="s">
         <v>299</v>
       </c>
@@ -63110,7 +63110,7 @@
       <c r="D745" s="12"/>
     </row>
     <row r="746" spans="1:4">
-      <c r="A746" s="20" t="s">
+      <c r="A746" s="23" t="s">
         <v>559</v>
       </c>
       <c r="B746" s="10" t="s">
@@ -63122,7 +63122,7 @@
       <c r="D746" s="12"/>
     </row>
     <row r="747" spans="1:4">
-      <c r="A747" s="20"/>
+      <c r="A747" s="23"/>
       <c r="B747" s="10" t="s">
         <v>196</v>
       </c>
@@ -63132,7 +63132,7 @@
       <c r="D747" s="12"/>
     </row>
     <row r="748" spans="1:4">
-      <c r="A748" s="20"/>
+      <c r="A748" s="23"/>
       <c r="B748" s="10" t="s">
         <v>325</v>
       </c>
@@ -63142,7 +63142,7 @@
       <c r="D748" s="12"/>
     </row>
     <row r="749" spans="1:4">
-      <c r="A749" s="20"/>
+      <c r="A749" s="23"/>
       <c r="B749" s="10" t="s">
         <v>300</v>
       </c>
@@ -63152,7 +63152,7 @@
       <c r="D749" s="12"/>
     </row>
     <row r="750" spans="1:4">
-      <c r="A750" s="20"/>
+      <c r="A750" s="23"/>
       <c r="B750" s="10" t="s">
         <v>301</v>
       </c>
@@ -63162,7 +63162,7 @@
       <c r="D750" s="12"/>
     </row>
     <row r="751" spans="1:4">
-      <c r="A751" s="20"/>
+      <c r="A751" s="23"/>
       <c r="B751" s="10" t="s">
         <v>299</v>
       </c>
@@ -63172,7 +63172,7 @@
       <c r="D751" s="12"/>
     </row>
     <row r="752" spans="1:4">
-      <c r="A752" s="20" t="s">
+      <c r="A752" s="23" t="s">
         <v>560</v>
       </c>
       <c r="B752" s="10" t="s">
@@ -63184,7 +63184,7 @@
       <c r="D752" s="12"/>
     </row>
     <row r="753" spans="1:4">
-      <c r="A753" s="20"/>
+      <c r="A753" s="23"/>
       <c r="B753" s="10" t="s">
         <v>196</v>
       </c>
@@ -63194,7 +63194,7 @@
       <c r="D753" s="12"/>
     </row>
     <row r="754" spans="1:4">
-      <c r="A754" s="20"/>
+      <c r="A754" s="23"/>
       <c r="B754" s="10" t="s">
         <v>325</v>
       </c>
@@ -63204,7 +63204,7 @@
       <c r="D754" s="12"/>
     </row>
     <row r="755" spans="1:4">
-      <c r="A755" s="20"/>
+      <c r="A755" s="23"/>
       <c r="B755" s="10" t="s">
         <v>300</v>
       </c>
@@ -63214,7 +63214,7 @@
       <c r="D755" s="12"/>
     </row>
     <row r="756" spans="1:4">
-      <c r="A756" s="20"/>
+      <c r="A756" s="23"/>
       <c r="B756" s="10" t="s">
         <v>301</v>
       </c>
@@ -63224,7 +63224,7 @@
       <c r="D756" s="12"/>
     </row>
     <row r="757" spans="1:4">
-      <c r="A757" s="20"/>
+      <c r="A757" s="23"/>
       <c r="B757" s="10" t="s">
         <v>299</v>
       </c>
@@ -63234,7 +63234,7 @@
       <c r="D757" s="12"/>
     </row>
     <row r="758" spans="1:4">
-      <c r="A758" s="20" t="s">
+      <c r="A758" s="23" t="s">
         <v>561</v>
       </c>
       <c r="B758" s="10" t="s">
@@ -63246,7 +63246,7 @@
       <c r="D758" s="12"/>
     </row>
     <row r="759" spans="1:4">
-      <c r="A759" s="20"/>
+      <c r="A759" s="23"/>
       <c r="B759" s="10" t="s">
         <v>196</v>
       </c>
@@ -63256,7 +63256,7 @@
       <c r="D759" s="12"/>
     </row>
     <row r="760" spans="1:4">
-      <c r="A760" s="20"/>
+      <c r="A760" s="23"/>
       <c r="B760" s="10" t="s">
         <v>325</v>
       </c>
@@ -63266,7 +63266,7 @@
       <c r="D760" s="12"/>
     </row>
     <row r="761" spans="1:4">
-      <c r="A761" s="20"/>
+      <c r="A761" s="23"/>
       <c r="B761" s="10" t="s">
         <v>300</v>
       </c>
@@ -63276,7 +63276,7 @@
       <c r="D761" s="12"/>
     </row>
     <row r="762" spans="1:4">
-      <c r="A762" s="20"/>
+      <c r="A762" s="23"/>
       <c r="B762" s="10" t="s">
         <v>301</v>
       </c>
@@ -63286,7 +63286,7 @@
       <c r="D762" s="12"/>
     </row>
     <row r="763" spans="1:4">
-      <c r="A763" s="20"/>
+      <c r="A763" s="23"/>
       <c r="B763" s="10" t="s">
         <v>299</v>
       </c>
@@ -63296,7 +63296,7 @@
       <c r="D763" s="12"/>
     </row>
     <row r="764" spans="1:4">
-      <c r="A764" s="20" t="s">
+      <c r="A764" s="23" t="s">
         <v>562</v>
       </c>
       <c r="B764" s="10" t="s">
@@ -63308,7 +63308,7 @@
       <c r="D764" s="12"/>
     </row>
     <row r="765" spans="1:4">
-      <c r="A765" s="20"/>
+      <c r="A765" s="23"/>
       <c r="B765" s="10" t="s">
         <v>196</v>
       </c>
@@ -63318,7 +63318,7 @@
       <c r="D765" s="12"/>
     </row>
     <row r="766" spans="1:4">
-      <c r="A766" s="20"/>
+      <c r="A766" s="23"/>
       <c r="B766" s="10" t="s">
         <v>325</v>
       </c>
@@ -63328,7 +63328,7 @@
       <c r="D766" s="12"/>
     </row>
     <row r="767" spans="1:4">
-      <c r="A767" s="20"/>
+      <c r="A767" s="23"/>
       <c r="B767" s="10" t="s">
         <v>300</v>
       </c>
@@ -63338,7 +63338,7 @@
       <c r="D767" s="12"/>
     </row>
     <row r="768" spans="1:4">
-      <c r="A768" s="20"/>
+      <c r="A768" s="23"/>
       <c r="B768" s="10" t="s">
         <v>301</v>
       </c>
@@ -63348,7 +63348,7 @@
       <c r="D768" s="12"/>
     </row>
     <row r="769" spans="1:4">
-      <c r="A769" s="20"/>
+      <c r="A769" s="23"/>
       <c r="B769" s="10" t="s">
         <v>299</v>
       </c>
@@ -63358,7 +63358,7 @@
       <c r="D769" s="12"/>
     </row>
     <row r="770" spans="1:4">
-      <c r="A770" s="20" t="s">
+      <c r="A770" s="23" t="s">
         <v>563</v>
       </c>
       <c r="B770" s="10" t="s">
@@ -63370,7 +63370,7 @@
       <c r="D770" s="12"/>
     </row>
     <row r="771" spans="1:4">
-      <c r="A771" s="20"/>
+      <c r="A771" s="23"/>
       <c r="B771" s="10" t="s">
         <v>196</v>
       </c>
@@ -63380,7 +63380,7 @@
       <c r="D771" s="12"/>
     </row>
     <row r="772" spans="1:4">
-      <c r="A772" s="20"/>
+      <c r="A772" s="23"/>
       <c r="B772" s="10" t="s">
         <v>325</v>
       </c>
@@ -63390,7 +63390,7 @@
       <c r="D772" s="12"/>
     </row>
     <row r="773" spans="1:4">
-      <c r="A773" s="20"/>
+      <c r="A773" s="23"/>
       <c r="B773" s="10" t="s">
         <v>300</v>
       </c>
@@ -63400,7 +63400,7 @@
       <c r="D773" s="12"/>
     </row>
     <row r="774" spans="1:4">
-      <c r="A774" s="20"/>
+      <c r="A774" s="23"/>
       <c r="B774" s="10" t="s">
         <v>301</v>
       </c>
@@ -63410,7 +63410,7 @@
       <c r="D774" s="12"/>
     </row>
     <row r="775" spans="1:4">
-      <c r="A775" s="20"/>
+      <c r="A775" s="23"/>
       <c r="B775" s="10" t="s">
         <v>299</v>
       </c>
@@ -63420,7 +63420,7 @@
       <c r="D775" s="12"/>
     </row>
     <row r="776" spans="1:4">
-      <c r="A776" s="20"/>
+      <c r="A776" s="23"/>
       <c r="B776" s="10" t="s">
         <v>290</v>
       </c>
@@ -63430,7 +63430,7 @@
       <c r="D776" s="12"/>
     </row>
     <row r="777" spans="1:4">
-      <c r="A777" s="20"/>
+      <c r="A777" s="23"/>
       <c r="B777" s="10" t="s">
         <v>295</v>
       </c>
@@ -63440,7 +63440,7 @@
       <c r="D777" s="12"/>
     </row>
     <row r="778" spans="1:4">
-      <c r="A778" s="20"/>
+      <c r="A778" s="23"/>
       <c r="B778" s="10" t="s">
         <v>182</v>
       </c>
@@ -63450,7 +63450,7 @@
       <c r="D778" s="12"/>
     </row>
     <row r="779" spans="1:4">
-      <c r="A779" s="20" t="s">
+      <c r="A779" s="23" t="s">
         <v>569</v>
       </c>
       <c r="B779" s="10" t="s">
@@ -63462,7 +63462,7 @@
       <c r="D779" s="12"/>
     </row>
     <row r="780" spans="1:4">
-      <c r="A780" s="20"/>
+      <c r="A780" s="23"/>
       <c r="B780" s="10" t="s">
         <v>196</v>
       </c>
@@ -63472,7 +63472,7 @@
       <c r="D780" s="12"/>
     </row>
     <row r="781" spans="1:4">
-      <c r="A781" s="20"/>
+      <c r="A781" s="23"/>
       <c r="B781" s="10" t="s">
         <v>325</v>
       </c>
@@ -63482,7 +63482,7 @@
       <c r="D781" s="12"/>
     </row>
     <row r="782" spans="1:4">
-      <c r="A782" s="20"/>
+      <c r="A782" s="23"/>
       <c r="B782" s="10" t="s">
         <v>300</v>
       </c>
@@ -63492,7 +63492,7 @@
       <c r="D782" s="12"/>
     </row>
     <row r="783" spans="1:4">
-      <c r="A783" s="20"/>
+      <c r="A783" s="23"/>
       <c r="B783" s="10" t="s">
         <v>301</v>
       </c>
@@ -63502,7 +63502,7 @@
       <c r="D783" s="12"/>
     </row>
     <row r="784" spans="1:4">
-      <c r="A784" s="20" t="s">
+      <c r="A784" s="23" t="s">
         <v>570</v>
       </c>
       <c r="B784" s="10" t="s">
@@ -63514,7 +63514,7 @@
       <c r="D784" s="12"/>
     </row>
     <row r="785" spans="1:4">
-      <c r="A785" s="20"/>
+      <c r="A785" s="23"/>
       <c r="B785" s="10" t="s">
         <v>196</v>
       </c>
@@ -63524,7 +63524,7 @@
       <c r="D785" s="12"/>
     </row>
     <row r="786" spans="1:4">
-      <c r="A786" s="20" t="s">
+      <c r="A786" s="23" t="s">
         <v>571</v>
       </c>
       <c r="B786" s="10" t="s">
@@ -63536,7 +63536,7 @@
       <c r="D786" s="12"/>
     </row>
     <row r="787" spans="1:4">
-      <c r="A787" s="20"/>
+      <c r="A787" s="23"/>
       <c r="B787" s="10" t="s">
         <v>196</v>
       </c>
@@ -63546,7 +63546,7 @@
       <c r="D787" s="12"/>
     </row>
     <row r="788" spans="1:4">
-      <c r="A788" s="20"/>
+      <c r="A788" s="23"/>
       <c r="B788" s="10" t="s">
         <v>325</v>
       </c>
@@ -63556,7 +63556,7 @@
       <c r="D788" s="12"/>
     </row>
     <row r="789" spans="1:4">
-      <c r="A789" s="20" t="s">
+      <c r="A789" s="23" t="s">
         <v>572</v>
       </c>
       <c r="B789" s="10" t="s">
@@ -63568,7 +63568,7 @@
       <c r="D789" s="12"/>
     </row>
     <row r="790" spans="1:4">
-      <c r="A790" s="20"/>
+      <c r="A790" s="23"/>
       <c r="B790" s="10" t="s">
         <v>196</v>
       </c>
@@ -63578,7 +63578,7 @@
       <c r="D790" s="12"/>
     </row>
     <row r="791" spans="1:4">
-      <c r="A791" s="20"/>
+      <c r="A791" s="23"/>
       <c r="B791" s="10" t="s">
         <v>325</v>
       </c>
@@ -63588,7 +63588,7 @@
       <c r="D791" s="12"/>
     </row>
     <row r="792" spans="1:4">
-      <c r="A792" s="20" t="s">
+      <c r="A792" s="23" t="s">
         <v>573</v>
       </c>
       <c r="B792" s="10" t="s">
@@ -63600,7 +63600,7 @@
       <c r="D792" s="12"/>
     </row>
     <row r="793" spans="1:4">
-      <c r="A793" s="20"/>
+      <c r="A793" s="23"/>
       <c r="B793" s="10" t="s">
         <v>196</v>
       </c>
@@ -63610,7 +63610,7 @@
       <c r="D793" s="12"/>
     </row>
     <row r="794" spans="1:4">
-      <c r="A794" s="20"/>
+      <c r="A794" s="23"/>
       <c r="B794" s="10" t="s">
         <v>325</v>
       </c>
@@ -63620,7 +63620,7 @@
       <c r="D794" s="12"/>
     </row>
     <row r="795" spans="1:4">
-      <c r="A795" s="20"/>
+      <c r="A795" s="23"/>
       <c r="B795" s="10" t="s">
         <v>300</v>
       </c>
@@ -63630,7 +63630,7 @@
       <c r="D795" s="12"/>
     </row>
     <row r="796" spans="1:4">
-      <c r="A796" s="20"/>
+      <c r="A796" s="23"/>
       <c r="B796" s="10" t="s">
         <v>301</v>
       </c>
@@ -63640,7 +63640,7 @@
       <c r="D796" s="12"/>
     </row>
     <row r="797" spans="1:4">
-      <c r="A797" s="20" t="s">
+      <c r="A797" s="23" t="s">
         <v>574</v>
       </c>
       <c r="B797" s="10" t="s">
@@ -63652,7 +63652,7 @@
       <c r="D797" s="12"/>
     </row>
     <row r="798" spans="1:4">
-      <c r="A798" s="20"/>
+      <c r="A798" s="23"/>
       <c r="B798" s="10" t="s">
         <v>196</v>
       </c>
@@ -63662,7 +63662,7 @@
       <c r="D798" s="12"/>
     </row>
     <row r="799" spans="1:4">
-      <c r="A799" s="20" t="s">
+      <c r="A799" s="23" t="s">
         <v>575</v>
       </c>
       <c r="B799" s="10" t="s">
@@ -63674,7 +63674,7 @@
       <c r="D799" s="12"/>
     </row>
     <row r="800" spans="1:4">
-      <c r="A800" s="20"/>
+      <c r="A800" s="23"/>
       <c r="B800" s="10" t="s">
         <v>196</v>
       </c>
@@ -63684,7 +63684,7 @@
       <c r="D800" s="12"/>
     </row>
     <row r="801" spans="1:4">
-      <c r="A801" s="20"/>
+      <c r="A801" s="23"/>
       <c r="B801" s="10" t="s">
         <v>325</v>
       </c>
@@ -63694,7 +63694,7 @@
       <c r="D801" s="12"/>
     </row>
     <row r="802" spans="1:4">
-      <c r="A802" s="20" t="s">
+      <c r="A802" s="23" t="s">
         <v>576</v>
       </c>
       <c r="B802" s="10" t="s">
@@ -63706,7 +63706,7 @@
       <c r="D802" s="12"/>
     </row>
     <row r="803" spans="1:4">
-      <c r="A803" s="20"/>
+      <c r="A803" s="23"/>
       <c r="B803" s="10" t="s">
         <v>196</v>
       </c>
@@ -63716,7 +63716,7 @@
       <c r="D803" s="12"/>
     </row>
     <row r="804" spans="1:4">
-      <c r="A804" s="20"/>
+      <c r="A804" s="23"/>
       <c r="B804" s="10" t="s">
         <v>325</v>
       </c>
@@ -63726,7 +63726,7 @@
       <c r="D804" s="12"/>
     </row>
     <row r="805" spans="1:4">
-      <c r="A805" s="20" t="s">
+      <c r="A805" s="23" t="s">
         <v>138</v>
       </c>
       <c r="B805" s="10" t="s">
@@ -63738,7 +63738,7 @@
       <c r="D805" s="12"/>
     </row>
     <row r="806" spans="1:4">
-      <c r="A806" s="20"/>
+      <c r="A806" s="23"/>
       <c r="B806" s="10" t="s">
         <v>196</v>
       </c>
@@ -63748,7 +63748,7 @@
       <c r="D806" s="12"/>
     </row>
     <row r="807" spans="1:4">
-      <c r="A807" s="20" t="s">
+      <c r="A807" s="23" t="s">
         <v>578</v>
       </c>
       <c r="B807" s="10" t="s">
@@ -63760,7 +63760,7 @@
       <c r="D807" s="12"/>
     </row>
     <row r="808" spans="1:4">
-      <c r="A808" s="20"/>
+      <c r="A808" s="23"/>
       <c r="B808" s="10" t="s">
         <v>196</v>
       </c>
@@ -63770,7 +63770,7 @@
       <c r="D808" s="12"/>
     </row>
     <row r="809" spans="1:4">
-      <c r="A809" s="20"/>
+      <c r="A809" s="23"/>
       <c r="B809" s="10" t="s">
         <v>325</v>
       </c>
@@ -63780,7 +63780,7 @@
       <c r="D809" s="12"/>
     </row>
     <row r="810" spans="1:4">
-      <c r="A810" s="20"/>
+      <c r="A810" s="23"/>
       <c r="B810" s="10" t="s">
         <v>300</v>
       </c>
@@ -63790,7 +63790,7 @@
       <c r="D810" s="12"/>
     </row>
     <row r="811" spans="1:4">
-      <c r="A811" s="20"/>
+      <c r="A811" s="23"/>
       <c r="B811" s="10" t="s">
         <v>301</v>
       </c>
@@ -63800,7 +63800,7 @@
       <c r="D811" s="12"/>
     </row>
     <row r="812" spans="1:4">
-      <c r="A812" s="20" t="s">
+      <c r="A812" s="23" t="s">
         <v>579</v>
       </c>
       <c r="B812" s="10" t="s">
@@ -63812,7 +63812,7 @@
       <c r="D812" s="12"/>
     </row>
     <row r="813" spans="1:4">
-      <c r="A813" s="20"/>
+      <c r="A813" s="23"/>
       <c r="B813" s="10" t="s">
         <v>196</v>
       </c>
@@ -63822,7 +63822,7 @@
       <c r="D813" s="12"/>
     </row>
     <row r="814" spans="1:4">
-      <c r="A814" s="20" t="s">
+      <c r="A814" s="23" t="s">
         <v>580</v>
       </c>
       <c r="B814" s="10" t="s">
@@ -63834,7 +63834,7 @@
       <c r="D814" s="12"/>
     </row>
     <row r="815" spans="1:4">
-      <c r="A815" s="20"/>
+      <c r="A815" s="23"/>
       <c r="B815" s="10" t="s">
         <v>196</v>
       </c>
@@ -63844,7 +63844,7 @@
       <c r="D815" s="12"/>
     </row>
     <row r="816" spans="1:4">
-      <c r="A816" s="20"/>
+      <c r="A816" s="23"/>
       <c r="B816" s="10" t="s">
         <v>325</v>
       </c>
@@ -63854,7 +63854,7 @@
       <c r="D816" s="12"/>
     </row>
     <row r="817" spans="1:4">
-      <c r="A817" s="20" t="s">
+      <c r="A817" s="23" t="s">
         <v>581</v>
       </c>
       <c r="B817" s="10" t="s">
@@ -63866,7 +63866,7 @@
       <c r="D817" s="12"/>
     </row>
     <row r="818" spans="1:4">
-      <c r="A818" s="20"/>
+      <c r="A818" s="23"/>
       <c r="B818" s="10" t="s">
         <v>196</v>
       </c>
@@ -63876,7 +63876,7 @@
       <c r="D818" s="12"/>
     </row>
     <row r="819" spans="1:4">
-      <c r="A819" s="20"/>
+      <c r="A819" s="23"/>
       <c r="B819" s="10" t="s">
         <v>325</v>
       </c>
@@ -63886,7 +63886,7 @@
       <c r="D819" s="12"/>
     </row>
     <row r="820" spans="1:4">
-      <c r="A820" s="20" t="s">
+      <c r="A820" s="23" t="s">
         <v>582</v>
       </c>
       <c r="B820" s="10" t="s">
@@ -63898,7 +63898,7 @@
       <c r="D820" s="12"/>
     </row>
     <row r="821" spans="1:4">
-      <c r="A821" s="20"/>
+      <c r="A821" s="23"/>
       <c r="B821" s="10" t="s">
         <v>196</v>
       </c>
@@ -63908,7 +63908,7 @@
       <c r="D821" s="12"/>
     </row>
     <row r="822" spans="1:4">
-      <c r="A822" s="20"/>
+      <c r="A822" s="23"/>
       <c r="B822" s="10" t="s">
         <v>325</v>
       </c>
@@ -63918,7 +63918,7 @@
       <c r="D822" s="12"/>
     </row>
     <row r="823" spans="1:4">
-      <c r="A823" s="20"/>
+      <c r="A823" s="23"/>
       <c r="B823" s="10" t="s">
         <v>300</v>
       </c>
@@ -63928,7 +63928,7 @@
       <c r="D823" s="12"/>
     </row>
     <row r="824" spans="1:4">
-      <c r="A824" s="20"/>
+      <c r="A824" s="23"/>
       <c r="B824" s="10" t="s">
         <v>301</v>
       </c>
@@ -63938,7 +63938,7 @@
       <c r="D824" s="12"/>
     </row>
     <row r="825" spans="1:4">
-      <c r="A825" s="20" t="s">
+      <c r="A825" s="23" t="s">
         <v>583</v>
       </c>
       <c r="B825" s="10" t="s">
@@ -63950,7 +63950,7 @@
       <c r="D825" s="12"/>
     </row>
     <row r="826" spans="1:4">
-      <c r="A826" s="20"/>
+      <c r="A826" s="23"/>
       <c r="B826" s="10" t="s">
         <v>196</v>
       </c>
@@ -63960,7 +63960,7 @@
       <c r="D826" s="12"/>
     </row>
     <row r="827" spans="1:4">
-      <c r="A827" s="20" t="s">
+      <c r="A827" s="23" t="s">
         <v>584</v>
       </c>
       <c r="B827" s="10" t="s">
@@ -63972,7 +63972,7 @@
       <c r="D827" s="12"/>
     </row>
     <row r="828" spans="1:4">
-      <c r="A828" s="20"/>
+      <c r="A828" s="23"/>
       <c r="B828" s="10" t="s">
         <v>196</v>
       </c>
@@ -63982,7 +63982,7 @@
       <c r="D828" s="12"/>
     </row>
     <row r="829" spans="1:4">
-      <c r="A829" s="20"/>
+      <c r="A829" s="23"/>
       <c r="B829" s="10" t="s">
         <v>325</v>
       </c>
@@ -63992,7 +63992,7 @@
       <c r="D829" s="12"/>
     </row>
     <row r="830" spans="1:4">
-      <c r="A830" s="20" t="s">
+      <c r="A830" s="23" t="s">
         <v>585</v>
       </c>
       <c r="B830" s="10" t="s">
@@ -64004,7 +64004,7 @@
       <c r="D830" s="12"/>
     </row>
     <row r="831" spans="1:4">
-      <c r="A831" s="20"/>
+      <c r="A831" s="23"/>
       <c r="B831" s="10" t="s">
         <v>196</v>
       </c>
@@ -64014,7 +64014,7 @@
       <c r="D831" s="12"/>
     </row>
     <row r="832" spans="1:4">
-      <c r="A832" s="20"/>
+      <c r="A832" s="23"/>
       <c r="B832" s="10" t="s">
         <v>325</v>
       </c>
@@ -64024,7 +64024,7 @@
       <c r="D832" s="12"/>
     </row>
     <row r="833" spans="1:4">
-      <c r="A833" s="20" t="s">
+      <c r="A833" s="23" t="s">
         <v>148</v>
       </c>
       <c r="B833" s="10" t="s">
@@ -64036,7 +64036,7 @@
       <c r="D833" s="12"/>
     </row>
     <row r="834" spans="1:4">
-      <c r="A834" s="20"/>
+      <c r="A834" s="23"/>
       <c r="B834" s="10" t="s">
         <v>196</v>
       </c>
@@ -64046,7 +64046,7 @@
       <c r="D834" s="12"/>
     </row>
     <row r="835" spans="1:4">
-      <c r="A835" s="20" t="s">
+      <c r="A835" s="23" t="s">
         <v>587</v>
       </c>
       <c r="B835" s="10" t="s">
@@ -64058,7 +64058,7 @@
       <c r="D835" s="12"/>
     </row>
     <row r="836" spans="1:4">
-      <c r="A836" s="20"/>
+      <c r="A836" s="23"/>
       <c r="B836" s="10" t="s">
         <v>196</v>
       </c>
@@ -64068,7 +64068,7 @@
       <c r="D836" s="12"/>
     </row>
     <row r="837" spans="1:4">
-      <c r="A837" s="20"/>
+      <c r="A837" s="23"/>
       <c r="B837" s="10" t="s">
         <v>325</v>
       </c>
@@ -64078,7 +64078,7 @@
       <c r="D837" s="12"/>
     </row>
     <row r="838" spans="1:4">
-      <c r="A838" s="20"/>
+      <c r="A838" s="23"/>
       <c r="B838" s="10" t="s">
         <v>300</v>
       </c>
@@ -64088,7 +64088,7 @@
       <c r="D838" s="12"/>
     </row>
     <row r="839" spans="1:4">
-      <c r="A839" s="20"/>
+      <c r="A839" s="23"/>
       <c r="B839" s="10" t="s">
         <v>301</v>
       </c>
@@ -64098,7 +64098,7 @@
       <c r="D839" s="12"/>
     </row>
     <row r="840" spans="1:4">
-      <c r="A840" s="20" t="s">
+      <c r="A840" s="23" t="s">
         <v>588</v>
       </c>
       <c r="B840" s="10" t="s">
@@ -64110,7 +64110,7 @@
       <c r="D840" s="12"/>
     </row>
     <row r="841" spans="1:4">
-      <c r="A841" s="20"/>
+      <c r="A841" s="23"/>
       <c r="B841" s="10" t="s">
         <v>196</v>
       </c>
@@ -64120,7 +64120,7 @@
       <c r="D841" s="12"/>
     </row>
     <row r="842" spans="1:4">
-      <c r="A842" s="20" t="s">
+      <c r="A842" s="23" t="s">
         <v>589</v>
       </c>
       <c r="B842" s="10" t="s">
@@ -64132,7 +64132,7 @@
       <c r="D842" s="12"/>
     </row>
     <row r="843" spans="1:4">
-      <c r="A843" s="20"/>
+      <c r="A843" s="23"/>
       <c r="B843" s="10" t="s">
         <v>196</v>
       </c>
@@ -64142,7 +64142,7 @@
       <c r="D843" s="12"/>
     </row>
     <row r="844" spans="1:4">
-      <c r="A844" s="20"/>
+      <c r="A844" s="23"/>
       <c r="B844" s="10" t="s">
         <v>325</v>
       </c>
@@ -64152,7 +64152,7 @@
       <c r="D844" s="12"/>
     </row>
     <row r="845" spans="1:4">
-      <c r="A845" s="20" t="s">
+      <c r="A845" s="23" t="s">
         <v>590</v>
       </c>
       <c r="B845" s="10" t="s">
@@ -64164,7 +64164,7 @@
       <c r="D845" s="12"/>
     </row>
     <row r="846" spans="1:4">
-      <c r="A846" s="20"/>
+      <c r="A846" s="23"/>
       <c r="B846" s="10" t="s">
         <v>196</v>
       </c>
@@ -64174,7 +64174,7 @@
       <c r="D846" s="12"/>
     </row>
     <row r="847" spans="1:4">
-      <c r="A847" s="20"/>
+      <c r="A847" s="23"/>
       <c r="B847" s="10" t="s">
         <v>325</v>
       </c>
@@ -64184,7 +64184,7 @@
       <c r="D847" s="12"/>
     </row>
     <row r="848" spans="1:4">
-      <c r="A848" s="20" t="s">
+      <c r="A848" s="23" t="s">
         <v>591</v>
       </c>
       <c r="B848" s="10" t="s">
@@ -64196,7 +64196,7 @@
       <c r="D848" s="12"/>
     </row>
     <row r="849" spans="1:4">
-      <c r="A849" s="20"/>
+      <c r="A849" s="23"/>
       <c r="B849" s="10" t="s">
         <v>196</v>
       </c>
@@ -64206,7 +64206,7 @@
       <c r="D849" s="12"/>
     </row>
     <row r="850" spans="1:4">
-      <c r="A850" s="20"/>
+      <c r="A850" s="23"/>
       <c r="B850" s="10" t="s">
         <v>325</v>
       </c>
@@ -64216,7 +64216,7 @@
       <c r="D850" s="12"/>
     </row>
     <row r="851" spans="1:4">
-      <c r="A851" s="20"/>
+      <c r="A851" s="23"/>
       <c r="B851" s="10" t="s">
         <v>300</v>
       </c>
@@ -64226,7 +64226,7 @@
       <c r="D851" s="12"/>
     </row>
     <row r="852" spans="1:4">
-      <c r="A852" s="20"/>
+      <c r="A852" s="23"/>
       <c r="B852" s="10" t="s">
         <v>301</v>
       </c>
@@ -64236,7 +64236,7 @@
       <c r="D852" s="12"/>
     </row>
     <row r="853" spans="1:4">
-      <c r="A853" s="20" t="s">
+      <c r="A853" s="23" t="s">
         <v>592</v>
       </c>
       <c r="B853" s="10" t="s">
@@ -64248,7 +64248,7 @@
       <c r="D853" s="12"/>
     </row>
     <row r="854" spans="1:4">
-      <c r="A854" s="20"/>
+      <c r="A854" s="23"/>
       <c r="B854" s="10" t="s">
         <v>196</v>
       </c>
@@ -64258,7 +64258,7 @@
       <c r="D854" s="12"/>
     </row>
     <row r="855" spans="1:4">
-      <c r="A855" s="20" t="s">
+      <c r="A855" s="23" t="s">
         <v>593</v>
       </c>
       <c r="B855" s="10" t="s">
@@ -64270,7 +64270,7 @@
       <c r="D855" s="12"/>
     </row>
     <row r="856" spans="1:4">
-      <c r="A856" s="20"/>
+      <c r="A856" s="23"/>
       <c r="B856" s="10" t="s">
         <v>196</v>
       </c>
@@ -64280,7 +64280,7 @@
       <c r="D856" s="12"/>
     </row>
     <row r="857" spans="1:4">
-      <c r="A857" s="20"/>
+      <c r="A857" s="23"/>
       <c r="B857" s="10" t="s">
         <v>325</v>
       </c>
@@ -64290,7 +64290,7 @@
       <c r="D857" s="12"/>
     </row>
     <row r="858" spans="1:4">
-      <c r="A858" s="20" t="s">
+      <c r="A858" s="23" t="s">
         <v>594</v>
       </c>
       <c r="B858" s="10" t="s">
@@ -64302,7 +64302,7 @@
       <c r="D858" s="12"/>
     </row>
     <row r="859" spans="1:4">
-      <c r="A859" s="20"/>
+      <c r="A859" s="23"/>
       <c r="B859" s="10" t="s">
         <v>196</v>
       </c>
@@ -64312,7 +64312,7 @@
       <c r="D859" s="12"/>
     </row>
     <row r="860" spans="1:4">
-      <c r="A860" s="20"/>
+      <c r="A860" s="23"/>
       <c r="B860" s="10" t="s">
         <v>325</v>
       </c>
@@ -64322,7 +64322,7 @@
       <c r="D860" s="12"/>
     </row>
     <row r="861" spans="1:4">
-      <c r="A861" s="20" t="s">
+      <c r="A861" s="23" t="s">
         <v>158</v>
       </c>
       <c r="B861" s="10" t="s">
@@ -64334,7 +64334,7 @@
       <c r="D861" s="12"/>
     </row>
     <row r="862" spans="1:4">
-      <c r="A862" s="20"/>
+      <c r="A862" s="23"/>
       <c r="B862" s="10" t="s">
         <v>196</v>
       </c>
@@ -64344,7 +64344,7 @@
       <c r="D862" s="12"/>
     </row>
     <row r="863" spans="1:4">
-      <c r="A863" s="20" t="s">
+      <c r="A863" s="23" t="s">
         <v>596</v>
       </c>
       <c r="B863" s="10" t="s">
@@ -64356,7 +64356,7 @@
       <c r="D863" s="12"/>
     </row>
     <row r="864" spans="1:4">
-      <c r="A864" s="20"/>
+      <c r="A864" s="23"/>
       <c r="B864" s="10" t="s">
         <v>196</v>
       </c>
@@ -64366,7 +64366,7 @@
       <c r="D864" s="12"/>
     </row>
     <row r="865" spans="1:4">
-      <c r="A865" s="20"/>
+      <c r="A865" s="23"/>
       <c r="B865" s="10" t="s">
         <v>325</v>
       </c>
@@ -64376,7 +64376,7 @@
       <c r="D865" s="12"/>
     </row>
     <row r="866" spans="1:4">
-      <c r="A866" s="20"/>
+      <c r="A866" s="23"/>
       <c r="B866" s="10" t="s">
         <v>300</v>
       </c>
@@ -64386,7 +64386,7 @@
       <c r="D866" s="12"/>
     </row>
     <row r="867" spans="1:4">
-      <c r="A867" s="20"/>
+      <c r="A867" s="23"/>
       <c r="B867" s="10" t="s">
         <v>301</v>
       </c>
@@ -64396,7 +64396,7 @@
       <c r="D867" s="12"/>
     </row>
     <row r="868" spans="1:4">
-      <c r="A868" s="20" t="s">
+      <c r="A868" s="23" t="s">
         <v>597</v>
       </c>
       <c r="B868" s="10" t="s">
@@ -64408,7 +64408,7 @@
       <c r="D868" s="12"/>
     </row>
     <row r="869" spans="1:4">
-      <c r="A869" s="20"/>
+      <c r="A869" s="23"/>
       <c r="B869" s="10" t="s">
         <v>196</v>
       </c>
@@ -64418,7 +64418,7 @@
       <c r="D869" s="12"/>
     </row>
     <row r="870" spans="1:4">
-      <c r="A870" s="20" t="s">
+      <c r="A870" s="23" t="s">
         <v>598</v>
       </c>
       <c r="B870" s="10" t="s">
@@ -64430,7 +64430,7 @@
       <c r="D870" s="12"/>
     </row>
     <row r="871" spans="1:4">
-      <c r="A871" s="20"/>
+      <c r="A871" s="23"/>
       <c r="B871" s="10" t="s">
         <v>196</v>
       </c>
@@ -64440,7 +64440,7 @@
       <c r="D871" s="12"/>
     </row>
     <row r="872" spans="1:4">
-      <c r="A872" s="20"/>
+      <c r="A872" s="23"/>
       <c r="B872" s="10" t="s">
         <v>325</v>
       </c>
@@ -64450,7 +64450,7 @@
       <c r="D872" s="12"/>
     </row>
     <row r="873" spans="1:4">
-      <c r="A873" s="20" t="s">
+      <c r="A873" s="23" t="s">
         <v>599</v>
       </c>
       <c r="B873" s="10" t="s">
@@ -64462,7 +64462,7 @@
       <c r="D873" s="12"/>
     </row>
     <row r="874" spans="1:4">
-      <c r="A874" s="20"/>
+      <c r="A874" s="23"/>
       <c r="B874" s="10" t="s">
         <v>196</v>
       </c>
@@ -64472,7 +64472,7 @@
       <c r="D874" s="12"/>
     </row>
     <row r="875" spans="1:4">
-      <c r="A875" s="20"/>
+      <c r="A875" s="23"/>
       <c r="B875" s="10" t="s">
         <v>325</v>
       </c>
@@ -64482,7 +64482,7 @@
       <c r="D875" s="12"/>
     </row>
     <row r="876" spans="1:4">
-      <c r="A876" s="20" t="s">
+      <c r="A876" s="23" t="s">
         <v>600</v>
       </c>
       <c r="B876" s="10" t="s">
@@ -64494,7 +64494,7 @@
       <c r="D876" s="12"/>
     </row>
     <row r="877" spans="1:4">
-      <c r="A877" s="20"/>
+      <c r="A877" s="23"/>
       <c r="B877" s="10" t="s">
         <v>196</v>
       </c>
@@ -64504,7 +64504,7 @@
       <c r="D877" s="12"/>
     </row>
     <row r="878" spans="1:4">
-      <c r="A878" s="20"/>
+      <c r="A878" s="23"/>
       <c r="B878" s="10" t="s">
         <v>325</v>
       </c>
@@ -64514,7 +64514,7 @@
       <c r="D878" s="12"/>
     </row>
     <row r="879" spans="1:4">
-      <c r="A879" s="20"/>
+      <c r="A879" s="23"/>
       <c r="B879" s="10" t="s">
         <v>300</v>
       </c>
@@ -64524,7 +64524,7 @@
       <c r="D879" s="12"/>
     </row>
     <row r="880" spans="1:4">
-      <c r="A880" s="20"/>
+      <c r="A880" s="23"/>
       <c r="B880" s="10" t="s">
         <v>301</v>
       </c>
@@ -64534,7 +64534,7 @@
       <c r="D880" s="12"/>
     </row>
     <row r="881" spans="1:4">
-      <c r="A881" s="20" t="s">
+      <c r="A881" s="23" t="s">
         <v>601</v>
       </c>
       <c r="B881" s="10" t="s">
@@ -64546,7 +64546,7 @@
       <c r="D881" s="12"/>
     </row>
     <row r="882" spans="1:4">
-      <c r="A882" s="20"/>
+      <c r="A882" s="23"/>
       <c r="B882" s="10" t="s">
         <v>196</v>
       </c>
@@ -64556,7 +64556,7 @@
       <c r="D882" s="12"/>
     </row>
     <row r="883" spans="1:4">
-      <c r="A883" s="20" t="s">
+      <c r="A883" s="23" t="s">
         <v>602</v>
       </c>
       <c r="B883" s="10" t="s">
@@ -64568,7 +64568,7 @@
       <c r="D883" s="12"/>
     </row>
     <row r="884" spans="1:4">
-      <c r="A884" s="20"/>
+      <c r="A884" s="23"/>
       <c r="B884" s="10" t="s">
         <v>196</v>
       </c>
@@ -64578,7 +64578,7 @@
       <c r="D884" s="12"/>
     </row>
     <row r="885" spans="1:4">
-      <c r="A885" s="20"/>
+      <c r="A885" s="23"/>
       <c r="B885" s="10" t="s">
         <v>325</v>
       </c>
@@ -64588,7 +64588,7 @@
       <c r="D885" s="12"/>
     </row>
     <row r="886" spans="1:4">
-      <c r="A886" s="20" t="s">
+      <c r="A886" s="23" t="s">
         <v>603</v>
       </c>
       <c r="B886" s="10" t="s">
@@ -64600,7 +64600,7 @@
       <c r="D886" s="12"/>
     </row>
     <row r="887" spans="1:4">
-      <c r="A887" s="20"/>
+      <c r="A887" s="23"/>
       <c r="B887" s="10" t="s">
         <v>196</v>
       </c>
@@ -64610,7 +64610,7 @@
       <c r="D887" s="12"/>
     </row>
     <row r="888" spans="1:4">
-      <c r="A888" s="20"/>
+      <c r="A888" s="23"/>
       <c r="B888" s="10" t="s">
         <v>325</v>
       </c>
@@ -64620,7 +64620,7 @@
       <c r="D888" s="12"/>
     </row>
     <row r="889" spans="1:4">
-      <c r="A889" s="20" t="s">
+      <c r="A889" s="23" t="s">
         <v>168</v>
       </c>
       <c r="B889" s="10" t="s">
@@ -64632,7 +64632,7 @@
       <c r="D889" s="12"/>
     </row>
     <row r="890" spans="1:4">
-      <c r="A890" s="20"/>
+      <c r="A890" s="23"/>
       <c r="B890" s="10" t="s">
         <v>196</v>
       </c>
@@ -64642,7 +64642,7 @@
       <c r="D890" s="12"/>
     </row>
     <row r="891" spans="1:4">
-      <c r="A891" s="20" t="s">
+      <c r="A891" s="23" t="s">
         <v>605</v>
       </c>
       <c r="B891" s="10" t="s">
@@ -64654,7 +64654,7 @@
       <c r="D891" s="12"/>
     </row>
     <row r="892" spans="1:4">
-      <c r="A892" s="20"/>
+      <c r="A892" s="23"/>
       <c r="B892" s="10" t="s">
         <v>196</v>
       </c>
@@ -64664,7 +64664,7 @@
       <c r="D892" s="12"/>
     </row>
     <row r="893" spans="1:4">
-      <c r="A893" s="20"/>
+      <c r="A893" s="23"/>
       <c r="B893" s="10" t="s">
         <v>325</v>
       </c>
@@ -64674,7 +64674,7 @@
       <c r="D893" s="12"/>
     </row>
     <row r="894" spans="1:4">
-      <c r="A894" s="20"/>
+      <c r="A894" s="23"/>
       <c r="B894" s="10" t="s">
         <v>300</v>
       </c>
@@ -64684,7 +64684,7 @@
       <c r="D894" s="12"/>
     </row>
     <row r="895" spans="1:4">
-      <c r="A895" s="20"/>
+      <c r="A895" s="23"/>
       <c r="B895" s="10" t="s">
         <v>301</v>
       </c>
@@ -64694,7 +64694,7 @@
       <c r="D895" s="12"/>
     </row>
     <row r="896" spans="1:4">
-      <c r="A896" s="20" t="s">
+      <c r="A896" s="23" t="s">
         <v>606</v>
       </c>
       <c r="B896" s="10" t="s">
@@ -64706,7 +64706,7 @@
       <c r="D896" s="12"/>
     </row>
     <row r="897" spans="1:4">
-      <c r="A897" s="20"/>
+      <c r="A897" s="23"/>
       <c r="B897" s="10" t="s">
         <v>196</v>
       </c>
@@ -64716,7 +64716,7 @@
       <c r="D897" s="12"/>
     </row>
     <row r="898" spans="1:4">
-      <c r="A898" s="20" t="s">
+      <c r="A898" s="23" t="s">
         <v>607</v>
       </c>
       <c r="B898" s="10" t="s">
@@ -64728,7 +64728,7 @@
       <c r="D898" s="12"/>
     </row>
     <row r="899" spans="1:4">
-      <c r="A899" s="20"/>
+      <c r="A899" s="23"/>
       <c r="B899" s="10" t="s">
         <v>196</v>
       </c>
@@ -64738,7 +64738,7 @@
       <c r="D899" s="12"/>
     </row>
     <row r="900" spans="1:4">
-      <c r="A900" s="20"/>
+      <c r="A900" s="23"/>
       <c r="B900" s="10" t="s">
         <v>325</v>
       </c>
@@ -64748,7 +64748,7 @@
       <c r="D900" s="12"/>
     </row>
     <row r="901" spans="1:4">
-      <c r="A901" s="20" t="s">
+      <c r="A901" s="23" t="s">
         <v>608</v>
       </c>
       <c r="B901" s="10" t="s">
@@ -64760,7 +64760,7 @@
       <c r="D901" s="12"/>
     </row>
     <row r="902" spans="1:4">
-      <c r="A902" s="20"/>
+      <c r="A902" s="23"/>
       <c r="B902" s="10" t="s">
         <v>196</v>
       </c>
@@ -64770,7 +64770,7 @@
       <c r="D902" s="12"/>
     </row>
     <row r="903" spans="1:4">
-      <c r="A903" s="20"/>
+      <c r="A903" s="23"/>
       <c r="B903" s="10" t="s">
         <v>325</v>
       </c>
@@ -64780,7 +64780,7 @@
       <c r="D903" s="12"/>
     </row>
     <row r="904" spans="1:4">
-      <c r="A904" s="20" t="s">
+      <c r="A904" s="23" t="s">
         <v>609</v>
       </c>
       <c r="B904" s="10" t="s">
@@ -64792,7 +64792,7 @@
       <c r="D904" s="12"/>
     </row>
     <row r="905" spans="1:4">
-      <c r="A905" s="20"/>
+      <c r="A905" s="23"/>
       <c r="B905" s="10" t="s">
         <v>196</v>
       </c>
@@ -64802,7 +64802,7 @@
       <c r="D905" s="12"/>
     </row>
     <row r="906" spans="1:4">
-      <c r="A906" s="20"/>
+      <c r="A906" s="23"/>
       <c r="B906" s="10" t="s">
         <v>325</v>
       </c>
@@ -64812,7 +64812,7 @@
       <c r="D906" s="12"/>
     </row>
     <row r="907" spans="1:4">
-      <c r="A907" s="20"/>
+      <c r="A907" s="23"/>
       <c r="B907" s="10" t="s">
         <v>300</v>
       </c>
@@ -64822,7 +64822,7 @@
       <c r="D907" s="12"/>
     </row>
     <row r="908" spans="1:4">
-      <c r="A908" s="20"/>
+      <c r="A908" s="23"/>
       <c r="B908" s="10" t="s">
         <v>301</v>
       </c>
@@ -64832,7 +64832,7 @@
       <c r="D908" s="12"/>
     </row>
     <row r="909" spans="1:4">
-      <c r="A909" s="20" t="s">
+      <c r="A909" s="23" t="s">
         <v>610</v>
       </c>
       <c r="B909" s="10" t="s">
@@ -64844,7 +64844,7 @@
       <c r="D909" s="12"/>
     </row>
     <row r="910" spans="1:4">
-      <c r="A910" s="20"/>
+      <c r="A910" s="23"/>
       <c r="B910" s="10" t="s">
         <v>196</v>
       </c>
@@ -64854,7 +64854,7 @@
       <c r="D910" s="12"/>
     </row>
     <row r="911" spans="1:4">
-      <c r="A911" s="20" t="s">
+      <c r="A911" s="23" t="s">
         <v>611</v>
       </c>
       <c r="B911" s="10" t="s">
@@ -64866,7 +64866,7 @@
       <c r="D911" s="12"/>
     </row>
     <row r="912" spans="1:4">
-      <c r="A912" s="20"/>
+      <c r="A912" s="23"/>
       <c r="B912" s="10" t="s">
         <v>196</v>
       </c>
@@ -64876,7 +64876,7 @@
       <c r="D912" s="12"/>
     </row>
     <row r="913" spans="1:4">
-      <c r="A913" s="20"/>
+      <c r="A913" s="23"/>
       <c r="B913" s="10" t="s">
         <v>325</v>
       </c>
@@ -64886,7 +64886,7 @@
       <c r="D913" s="12"/>
     </row>
     <row r="914" spans="1:4">
-      <c r="A914" s="20" t="s">
+      <c r="A914" s="23" t="s">
         <v>612</v>
       </c>
       <c r="B914" s="10" t="s">
@@ -64898,7 +64898,7 @@
       <c r="D914" s="12"/>
     </row>
     <row r="915" spans="1:4">
-      <c r="A915" s="20"/>
+      <c r="A915" s="23"/>
       <c r="B915" s="10" t="s">
         <v>196</v>
       </c>
@@ -64908,7 +64908,7 @@
       <c r="D915" s="12"/>
     </row>
     <row r="916" spans="1:4">
-      <c r="A916" s="20"/>
+      <c r="A916" s="23"/>
       <c r="B916" s="10" t="s">
         <v>325</v>
       </c>
@@ -64918,7 +64918,7 @@
       <c r="D916" s="12"/>
     </row>
     <row r="917" spans="1:4">
-      <c r="A917" s="20" t="s">
+      <c r="A917" s="23" t="s">
         <v>178</v>
       </c>
       <c r="B917" s="10" t="s">
@@ -64930,7 +64930,7 @@
       <c r="D917" s="12"/>
     </row>
     <row r="918" spans="1:4">
-      <c r="A918" s="21"/>
+      <c r="A918" s="24"/>
       <c r="B918" s="11" t="s">
         <v>196</v>
       </c>
@@ -64941,24 +64941,123 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A145"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A152:A158"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A49:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="A911:A913"/>
+    <mergeCell ref="A914:A916"/>
+    <mergeCell ref="A917:A918"/>
+    <mergeCell ref="A891:A895"/>
+    <mergeCell ref="A896:A897"/>
+    <mergeCell ref="A898:A900"/>
+    <mergeCell ref="A901:A903"/>
+    <mergeCell ref="A904:A908"/>
+    <mergeCell ref="A909:A910"/>
+    <mergeCell ref="A873:A875"/>
+    <mergeCell ref="A876:A880"/>
+    <mergeCell ref="A881:A882"/>
+    <mergeCell ref="A883:A885"/>
+    <mergeCell ref="A886:A888"/>
+    <mergeCell ref="A889:A890"/>
+    <mergeCell ref="A855:A857"/>
+    <mergeCell ref="A858:A860"/>
+    <mergeCell ref="A861:A862"/>
+    <mergeCell ref="A863:A867"/>
+    <mergeCell ref="A868:A869"/>
+    <mergeCell ref="A870:A872"/>
+    <mergeCell ref="A835:A839"/>
+    <mergeCell ref="A840:A841"/>
+    <mergeCell ref="A842:A844"/>
+    <mergeCell ref="A845:A847"/>
+    <mergeCell ref="A848:A852"/>
+    <mergeCell ref="A853:A854"/>
+    <mergeCell ref="A817:A819"/>
+    <mergeCell ref="A820:A824"/>
+    <mergeCell ref="A825:A826"/>
+    <mergeCell ref="A827:A829"/>
+    <mergeCell ref="A830:A832"/>
+    <mergeCell ref="A833:A834"/>
+    <mergeCell ref="A799:A801"/>
+    <mergeCell ref="A802:A804"/>
+    <mergeCell ref="A805:A806"/>
+    <mergeCell ref="A807:A811"/>
+    <mergeCell ref="A812:A813"/>
+    <mergeCell ref="A814:A816"/>
+    <mergeCell ref="A779:A783"/>
+    <mergeCell ref="A784:A785"/>
+    <mergeCell ref="A786:A788"/>
+    <mergeCell ref="A789:A791"/>
+    <mergeCell ref="A792:A796"/>
+    <mergeCell ref="A797:A798"/>
+    <mergeCell ref="A740:A745"/>
+    <mergeCell ref="A746:A751"/>
+    <mergeCell ref="A752:A757"/>
+    <mergeCell ref="A758:A763"/>
+    <mergeCell ref="A764:A769"/>
+    <mergeCell ref="A770:A778"/>
+    <mergeCell ref="A704:A709"/>
+    <mergeCell ref="A710:A715"/>
+    <mergeCell ref="A716:A721"/>
+    <mergeCell ref="A722:A727"/>
+    <mergeCell ref="A728:A733"/>
+    <mergeCell ref="A734:A739"/>
+    <mergeCell ref="A668:A673"/>
+    <mergeCell ref="A674:A679"/>
+    <mergeCell ref="A680:A685"/>
+    <mergeCell ref="A686:A691"/>
+    <mergeCell ref="A692:A697"/>
+    <mergeCell ref="A698:A703"/>
+    <mergeCell ref="A632:A637"/>
+    <mergeCell ref="A638:A643"/>
+    <mergeCell ref="A644:A649"/>
+    <mergeCell ref="A650:A655"/>
+    <mergeCell ref="A656:A661"/>
+    <mergeCell ref="A662:A667"/>
+    <mergeCell ref="A599:A605"/>
+    <mergeCell ref="A606:A612"/>
+    <mergeCell ref="A613:A614"/>
+    <mergeCell ref="A615:A619"/>
+    <mergeCell ref="A620:A625"/>
+    <mergeCell ref="A626:A631"/>
+    <mergeCell ref="A557:A563"/>
+    <mergeCell ref="A564:A570"/>
+    <mergeCell ref="A571:A577"/>
+    <mergeCell ref="A578:A584"/>
+    <mergeCell ref="A585:A591"/>
+    <mergeCell ref="A592:A598"/>
+    <mergeCell ref="A515:A521"/>
+    <mergeCell ref="A522:A528"/>
+    <mergeCell ref="A529:A535"/>
+    <mergeCell ref="A536:A542"/>
+    <mergeCell ref="A543:A549"/>
+    <mergeCell ref="A550:A556"/>
+    <mergeCell ref="A473:A479"/>
+    <mergeCell ref="A480:A486"/>
+    <mergeCell ref="A487:A493"/>
+    <mergeCell ref="A494:A500"/>
+    <mergeCell ref="A501:A507"/>
+    <mergeCell ref="A508:A514"/>
+    <mergeCell ref="A425:A426"/>
+    <mergeCell ref="A427:A428"/>
+    <mergeCell ref="A429:A439"/>
+    <mergeCell ref="A440:A450"/>
+    <mergeCell ref="A451:A461"/>
+    <mergeCell ref="A462:A472"/>
+    <mergeCell ref="A397:A402"/>
+    <mergeCell ref="A403:A408"/>
+    <mergeCell ref="A409:A414"/>
+    <mergeCell ref="A415:A420"/>
+    <mergeCell ref="A421:A422"/>
+    <mergeCell ref="A423:A424"/>
+    <mergeCell ref="A375:A381"/>
+    <mergeCell ref="A382:A388"/>
+    <mergeCell ref="A389:A390"/>
+    <mergeCell ref="A391:A392"/>
+    <mergeCell ref="A393:A394"/>
+    <mergeCell ref="A395:A396"/>
+    <mergeCell ref="A233:A264"/>
+    <mergeCell ref="A265:A296"/>
+    <mergeCell ref="A297:A328"/>
+    <mergeCell ref="A329:A360"/>
+    <mergeCell ref="A361:A367"/>
+    <mergeCell ref="A368:A374"/>
     <mergeCell ref="A199:A205"/>
     <mergeCell ref="A206:A212"/>
     <mergeCell ref="A213:A217"/>
@@ -64971,123 +65070,24 @@
     <mergeCell ref="A179:A184"/>
     <mergeCell ref="A185:A191"/>
     <mergeCell ref="A192:A198"/>
-    <mergeCell ref="A375:A381"/>
-    <mergeCell ref="A382:A388"/>
-    <mergeCell ref="A389:A390"/>
-    <mergeCell ref="A391:A392"/>
-    <mergeCell ref="A393:A394"/>
-    <mergeCell ref="A395:A396"/>
-    <mergeCell ref="A233:A264"/>
-    <mergeCell ref="A265:A296"/>
-    <mergeCell ref="A297:A328"/>
-    <mergeCell ref="A329:A360"/>
-    <mergeCell ref="A361:A367"/>
-    <mergeCell ref="A368:A374"/>
-    <mergeCell ref="A425:A426"/>
-    <mergeCell ref="A427:A428"/>
-    <mergeCell ref="A429:A439"/>
-    <mergeCell ref="A440:A450"/>
-    <mergeCell ref="A451:A461"/>
-    <mergeCell ref="A462:A472"/>
-    <mergeCell ref="A397:A402"/>
-    <mergeCell ref="A403:A408"/>
-    <mergeCell ref="A409:A414"/>
-    <mergeCell ref="A415:A420"/>
-    <mergeCell ref="A421:A422"/>
-    <mergeCell ref="A423:A424"/>
-    <mergeCell ref="A515:A521"/>
-    <mergeCell ref="A522:A528"/>
-    <mergeCell ref="A529:A535"/>
-    <mergeCell ref="A536:A542"/>
-    <mergeCell ref="A543:A549"/>
-    <mergeCell ref="A550:A556"/>
-    <mergeCell ref="A473:A479"/>
-    <mergeCell ref="A480:A486"/>
-    <mergeCell ref="A487:A493"/>
-    <mergeCell ref="A494:A500"/>
-    <mergeCell ref="A501:A507"/>
-    <mergeCell ref="A508:A514"/>
-    <mergeCell ref="A599:A605"/>
-    <mergeCell ref="A606:A612"/>
-    <mergeCell ref="A613:A614"/>
-    <mergeCell ref="A615:A619"/>
-    <mergeCell ref="A620:A625"/>
-    <mergeCell ref="A626:A631"/>
-    <mergeCell ref="A557:A563"/>
-    <mergeCell ref="A564:A570"/>
-    <mergeCell ref="A571:A577"/>
-    <mergeCell ref="A578:A584"/>
-    <mergeCell ref="A585:A591"/>
-    <mergeCell ref="A592:A598"/>
-    <mergeCell ref="A668:A673"/>
-    <mergeCell ref="A674:A679"/>
-    <mergeCell ref="A680:A685"/>
-    <mergeCell ref="A686:A691"/>
-    <mergeCell ref="A692:A697"/>
-    <mergeCell ref="A698:A703"/>
-    <mergeCell ref="A632:A637"/>
-    <mergeCell ref="A638:A643"/>
-    <mergeCell ref="A644:A649"/>
-    <mergeCell ref="A650:A655"/>
-    <mergeCell ref="A656:A661"/>
-    <mergeCell ref="A662:A667"/>
-    <mergeCell ref="A740:A745"/>
-    <mergeCell ref="A746:A751"/>
-    <mergeCell ref="A752:A757"/>
-    <mergeCell ref="A758:A763"/>
-    <mergeCell ref="A764:A769"/>
-    <mergeCell ref="A770:A778"/>
-    <mergeCell ref="A704:A709"/>
-    <mergeCell ref="A710:A715"/>
-    <mergeCell ref="A716:A721"/>
-    <mergeCell ref="A722:A727"/>
-    <mergeCell ref="A728:A733"/>
-    <mergeCell ref="A734:A739"/>
-    <mergeCell ref="A799:A801"/>
-    <mergeCell ref="A802:A804"/>
-    <mergeCell ref="A805:A806"/>
-    <mergeCell ref="A807:A811"/>
-    <mergeCell ref="A812:A813"/>
-    <mergeCell ref="A814:A816"/>
-    <mergeCell ref="A779:A783"/>
-    <mergeCell ref="A784:A785"/>
-    <mergeCell ref="A786:A788"/>
-    <mergeCell ref="A789:A791"/>
-    <mergeCell ref="A792:A796"/>
-    <mergeCell ref="A797:A798"/>
-    <mergeCell ref="A835:A839"/>
-    <mergeCell ref="A840:A841"/>
-    <mergeCell ref="A842:A844"/>
-    <mergeCell ref="A845:A847"/>
-    <mergeCell ref="A848:A852"/>
-    <mergeCell ref="A853:A854"/>
-    <mergeCell ref="A817:A819"/>
-    <mergeCell ref="A820:A824"/>
-    <mergeCell ref="A825:A826"/>
-    <mergeCell ref="A827:A829"/>
-    <mergeCell ref="A830:A832"/>
-    <mergeCell ref="A833:A834"/>
-    <mergeCell ref="A873:A875"/>
-    <mergeCell ref="A876:A880"/>
-    <mergeCell ref="A881:A882"/>
-    <mergeCell ref="A883:A885"/>
-    <mergeCell ref="A886:A888"/>
-    <mergeCell ref="A889:A890"/>
-    <mergeCell ref="A855:A857"/>
-    <mergeCell ref="A858:A860"/>
-    <mergeCell ref="A861:A862"/>
-    <mergeCell ref="A863:A867"/>
-    <mergeCell ref="A868:A869"/>
-    <mergeCell ref="A870:A872"/>
-    <mergeCell ref="A911:A913"/>
-    <mergeCell ref="A914:A916"/>
-    <mergeCell ref="A917:A918"/>
-    <mergeCell ref="A891:A895"/>
-    <mergeCell ref="A896:A897"/>
-    <mergeCell ref="A898:A900"/>
-    <mergeCell ref="A901:A903"/>
-    <mergeCell ref="A904:A908"/>
-    <mergeCell ref="A909:A910"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A152:A158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
